--- a/Data_analysis.xlsx
+++ b/Data_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keran\Google Drive\MIT\Courses@MIT\Thesis\simulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D960C423-9E8B-4BF4-AFE9-5549C86C91A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEC0A78-DC6B-4BD8-B14D-EAEF94EA808C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15900" yWindow="7485" windowWidth="7740" windowHeight="3060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ship" sheetId="1" r:id="rId1"/>

--- a/Data_analysis.xlsx
+++ b/Data_analysis.xlsx
@@ -8,36 +8,211 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keran\Google Drive\MIT\Courses@MIT\Thesis\simulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEC0A78-DC6B-4BD8-B14D-EAEF94EA808C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F392F66B-5619-46CC-A9BB-D8F983139DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="7485" windowWidth="7740" windowHeight="3060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ship" sheetId="1" r:id="rId1"/>
+    <sheet name="Aircraft_main_affect" sheetId="2" r:id="rId2"/>
+    <sheet name="Refueling_aircraft" sheetId="3" r:id="rId3"/>
+    <sheet name="maxCl_aspect_ratio" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Aircraft_main_affect!$R$8:$R$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Aircraft_main_affect!$U$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Aircraft_main_affect!$U$8:$U$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Aircraft_main_affect!$U$8:$U$15</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Aircraft_main_affect!$R$8:$R$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Aircraft_main_affect!$U$8:$U$15</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>ship length</t>
   </si>
   <si>
     <t>multiplier</t>
   </si>
+  <si>
+    <t>wing_span</t>
+  </si>
+  <si>
+    <t>thr_w_ratio</t>
+  </si>
+  <si>
+    <t>aspect_ratio</t>
+  </si>
+  <si>
+    <t>sweep_angle</t>
+  </si>
+  <si>
+    <t>mto_weight</t>
+  </si>
+  <si>
+    <t>Takeoff distance</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Fuel_Consumed</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>500m</t>
+  </si>
+  <si>
+    <t>Wing span</t>
+  </si>
+  <si>
+    <t>Thr weight ratio</t>
+  </si>
+  <si>
+    <t>aspect ratio</t>
+  </si>
+  <si>
+    <t>sweep angle</t>
+  </si>
+  <si>
+    <t>max take-off weight</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>fuel cost</t>
+  </si>
+  <si>
+    <t>Delta W</t>
+  </si>
+  <si>
+    <t>707-320</t>
+  </si>
+  <si>
+    <t>E-6A</t>
+  </si>
+  <si>
+    <t>727-200</t>
+  </si>
+  <si>
+    <t>737-200</t>
+  </si>
+  <si>
+    <t>747-400</t>
+  </si>
+  <si>
+    <t>757-200</t>
+  </si>
+  <si>
+    <t>767-200</t>
+  </si>
+  <si>
+    <t>777-200</t>
+  </si>
+  <si>
+    <t>A321-200</t>
+  </si>
+  <si>
+    <t>L-1011</t>
+  </si>
+  <si>
+    <t>S-3A</t>
+  </si>
+  <si>
+    <t>DC-9</t>
+  </si>
+  <si>
+    <t>C-5A</t>
+  </si>
+  <si>
+    <t>F-16C</t>
+  </si>
+  <si>
+    <t>F-22A</t>
+  </si>
+  <si>
+    <t>A-3D</t>
+  </si>
+  <si>
+    <t>F-4B</t>
+  </si>
+  <si>
+    <t>A-4E</t>
+  </si>
+  <si>
+    <t>RA-5C</t>
+  </si>
+  <si>
+    <t>F-5E</t>
+  </si>
+  <si>
+    <t>A-6A</t>
+  </si>
+  <si>
+    <t>F-14A</t>
+  </si>
+  <si>
+    <t>F-111A</t>
+  </si>
+  <si>
+    <t>F-117</t>
+  </si>
+  <si>
+    <t>F-18A</t>
+  </si>
+  <si>
+    <t>F-105D</t>
+  </si>
+  <si>
+    <t>F-104G</t>
+  </si>
+  <si>
+    <t>T-45A</t>
+  </si>
+  <si>
+    <t>F-8E</t>
+  </si>
+  <si>
+    <t>F-11F</t>
+  </si>
+  <si>
+    <t>Airplance</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Cgrd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +220,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,17 +256,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1531,6 +1749,937 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Aircraft_main_affect!$U$8:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14634.824405920859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20445.194503503928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26263.458695425721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31972.668817634072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37917.566427992781</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43694.685748810334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49490.478708024733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32750.8898766979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-601E-4EB3-8DC1-7995E2D8263C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="443073032"/>
+        <c:axId val="443073688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="443073032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443073688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443073688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443073032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Historial data</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Cgrd versus Aspect Ratio</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10852478997825982"/>
+                  <c:y val="-8.251578761471522E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>maxCl_aspect_ratio!$D$5:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.77</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.83</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>maxCl_aspect_ratio!$E$5:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D31-4496-8C97-A4DEC0790DA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="804020792"/>
+        <c:axId val="804019152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="804020792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Aspect Ratio[-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="804019152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="804019152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cgrd[-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="804020792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1611,6 +2760,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2624,6 +3853,1025 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2712,6 +4960,88 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>586155</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>16851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>87924</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>93051</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F9A3B4-3F0C-4595-B0BB-E28246A7AA66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>227135</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>243253</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>73268</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8FAB38E-D22C-49C0-8E9A-C74B117518B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2985,7 +5315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -3943,4 +6273,1649 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAD7F8E-9904-4A47-A25B-6DE82CC823BB}">
+  <dimension ref="A2:U36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>68</v>
+      </c>
+      <c r="D4" s="5">
+        <v>18588.1109913285</v>
+      </c>
+      <c r="E4" s="5">
+        <v>6835.0827984969601</v>
+      </c>
+      <c r="F4" s="5">
+        <v>437.42033763865101</v>
+      </c>
+      <c r="G4" s="5">
+        <f>D4-D$36</f>
+        <v>-12423.800921337701</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:I4" si="0">E4-E$36</f>
+        <v>-1257.1139049884496</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>34.582639305531018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>80.8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>22205.2685716796</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7445.9481006911701</v>
+      </c>
+      <c r="F5" s="5">
+        <v>426.12168196124998</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G35" si="1">D5-D$36</f>
+        <v>-8806.6433409866004</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" ref="H5:H35" si="2">E5-E$36</f>
+        <v>-646.24860279423956</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" ref="I5:I35" si="3">F5-F$36</f>
+        <v>23.283983628129988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>93.6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>27000.810240888299</v>
+      </c>
+      <c r="E6" s="5">
+        <v>7153.35333228115</v>
+      </c>
+      <c r="F6" s="5">
+        <v>419.46286466699701</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>-4011.1016717779021</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="2"/>
+        <v>-938.84337120425971</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="3"/>
+        <v>16.625166333877019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>106.4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>31557.449232259201</v>
+      </c>
+      <c r="E7" s="5">
+        <v>7229.6240369317202</v>
+      </c>
+      <c r="F7" s="5">
+        <v>412.47390999902899</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>545.53731959300057</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="2"/>
+        <v>-862.57266655368949</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="3"/>
+        <v>9.636211665909002</v>
+      </c>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>119.2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>34873.3518113092</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8275.5590851110192</v>
+      </c>
+      <c r="F8" s="5">
+        <v>400.96574632543201</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>3861.4398986429987</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
+        <v>183.36238162560949</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.8719520076879803</v>
+      </c>
+      <c r="N8">
+        <v>106.4</v>
+      </c>
+      <c r="O8">
+        <v>0.35</v>
+      </c>
+      <c r="P8">
+        <v>10.1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>40000</v>
+      </c>
+      <c r="S8" s="2">
+        <v>16821.3149115827</v>
+      </c>
+      <c r="T8">
+        <v>2186.49050566184</v>
+      </c>
+      <c r="U8" s="2">
+        <f>S8-T8</f>
+        <v>14634.824405920859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>132</v>
+      </c>
+      <c r="D9" s="5">
+        <v>35822.049925149302</v>
+      </c>
+      <c r="E9" s="5">
+        <v>9692.7830048358992</v>
+      </c>
+      <c r="F9" s="5">
+        <v>369.85890225289199</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>4810.1380124831012</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="2"/>
+        <v>1600.5863013504895</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="3"/>
+        <v>-32.978796080227994</v>
+      </c>
+      <c r="N9">
+        <v>106.4</v>
+      </c>
+      <c r="O9">
+        <v>0.4</v>
+      </c>
+      <c r="P9">
+        <v>10.1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>55000</v>
+      </c>
+      <c r="S9" s="2">
+        <v>23539.961543599598</v>
+      </c>
+      <c r="T9">
+        <v>3094.7670400956699</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" ref="U9:U15" si="4">S9-T9</f>
+        <v>20445.194503503928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>22995.773642071399</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7008.0017645477801</v>
+      </c>
+      <c r="F10" s="2">
+        <v>195.239530072094</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>-8016.1382705948017</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>-1084.1949389376296</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>-207.59816826102599</v>
+      </c>
+      <c r="N10">
+        <v>119.2</v>
+      </c>
+      <c r="O10">
+        <v>0.4</v>
+      </c>
+      <c r="P10">
+        <v>10.1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>70000</v>
+      </c>
+      <c r="S10" s="2">
+        <v>30321.574447585601</v>
+      </c>
+      <c r="T10">
+        <v>4058.1157521598798</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="4"/>
+        <v>26263.458695425721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>28421.769119934601</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7617.1473269257604</v>
+      </c>
+      <c r="F11" s="2">
+        <v>320.81207252303102</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>-2590.1427927315999</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>-475.04937655964932</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>-82.025625810088968</v>
+      </c>
+      <c r="N11">
+        <v>119.2</v>
+      </c>
+      <c r="O11">
+        <v>0.4</v>
+      </c>
+      <c r="P11">
+        <v>10.1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>85000</v>
+      </c>
+      <c r="S11" s="2">
+        <v>37094.804373708503</v>
+      </c>
+      <c r="T11">
+        <v>5122.1355560744296</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="4"/>
+        <v>31972.668817634072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30616.228025275501</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7710.6009849983702</v>
+      </c>
+      <c r="F12" s="2">
+        <v>392.15586756901899</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>-395.68388739069997</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>-381.59571848703945</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>-10.681830764100994</v>
+      </c>
+      <c r="N12">
+        <v>132</v>
+      </c>
+      <c r="O12">
+        <v>0.4</v>
+      </c>
+      <c r="P12">
+        <v>10.1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>100000</v>
+      </c>
+      <c r="S12" s="2">
+        <v>44023.783213996401</v>
+      </c>
+      <c r="T12">
+        <v>6106.2167860036197</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="4"/>
+        <v>37917.566427992781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0.35</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31907.3474043854</v>
+      </c>
+      <c r="E13" s="3">
+        <v>8177.0566584032304</v>
+      </c>
+      <c r="F13" s="2">
+        <v>437.85288825082603</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>895.43549171919949</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>84.859954917820687</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>35.015189917706039</v>
+      </c>
+      <c r="N13">
+        <v>132</v>
+      </c>
+      <c r="O13">
+        <v>0.4</v>
+      </c>
+      <c r="P13">
+        <v>10.1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>115000</v>
+      </c>
+      <c r="S13" s="2">
+        <v>50901.045128218997</v>
+      </c>
+      <c r="T13">
+        <v>7206.3593794086601</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="4"/>
+        <v>43694.685748810334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>0.4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>32788.501820485399</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8429.8039081362804</v>
+      </c>
+      <c r="F14" s="2">
+        <v>454.38117186007798</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>1776.5899078191978</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>337.6072046508707</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="3"/>
+        <v>51.543473526957996</v>
+      </c>
+      <c r="N14">
+        <v>132</v>
+      </c>
+      <c r="O14">
+        <v>0.4</v>
+      </c>
+      <c r="P14">
+        <v>10.1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>130000</v>
+      </c>
+      <c r="S14" s="2">
+        <v>57815.593808248697</v>
+      </c>
+      <c r="T14">
+        <v>8325.1151002239603</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="4"/>
+        <v>49490.478708024733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.45</v>
+      </c>
+      <c r="D15" s="2">
+        <v>33462.242406555197</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8696.5130823774907</v>
+      </c>
+      <c r="F15" s="2">
+        <v>460.11721133855798</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>2450.330493888996</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="2"/>
+        <v>604.31637889208105</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="3"/>
+        <v>57.279513005437991</v>
+      </c>
+      <c r="N15">
+        <v>132</v>
+      </c>
+      <c r="O15">
+        <v>0.4</v>
+      </c>
+      <c r="P15">
+        <v>7.3819999999999997</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>145000</v>
+      </c>
+      <c r="S15" s="2">
+        <v>53487.161156978502</v>
+      </c>
+      <c r="T15">
+        <v>20736.271280280602</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="4"/>
+        <v>32750.8898766979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5.57</v>
+      </c>
+      <c r="D16" s="5">
+        <v>30594.37234645</v>
+      </c>
+      <c r="E16" s="5">
+        <v>9381.8327832865798</v>
+      </c>
+      <c r="F16" s="5">
+        <v>362.79344907584698</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>-417.53956621620091</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="2"/>
+        <v>1289.6360798011701</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="3"/>
+        <v>-40.044249257273009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6.476</v>
+      </c>
+      <c r="D17" s="5">
+        <v>31877.859036407499</v>
+      </c>
+      <c r="E17" s="5">
+        <v>8856.7900146081902</v>
+      </c>
+      <c r="F17" s="5">
+        <v>395.90366106199502</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="1"/>
+        <v>865.94712374129813</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="2"/>
+        <v>764.59331112278051</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="3"/>
+        <v>-6.9340372711249643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7.3819999999999997</v>
+      </c>
+      <c r="D18" s="5">
+        <v>32119.785280546701</v>
+      </c>
+      <c r="E18" s="5">
+        <v>8167.0862090504597</v>
+      </c>
+      <c r="F18" s="5">
+        <v>408.62743702037699</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="1"/>
+        <v>1107.8733678805002</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="2"/>
+        <v>74.889505565050058</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="3"/>
+        <v>5.7897386872569996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>8.2880000000000003</v>
+      </c>
+      <c r="D19" s="5">
+        <v>31369.767517267901</v>
+      </c>
+      <c r="E19" s="5">
+        <v>7515.1376846384101</v>
+      </c>
+      <c r="F19" s="5">
+        <v>416.12761807001698</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="1"/>
+        <v>357.85560460170018</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
+        <v>-577.05901884699961</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="3"/>
+        <v>13.289919736896991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9.1940000000000008</v>
+      </c>
+      <c r="D20" s="5">
+        <v>30365.7758290778</v>
+      </c>
+      <c r="E20" s="5">
+        <v>7065.9130156584197</v>
+      </c>
+      <c r="F20" s="5">
+        <v>420.16617126128699</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>-646.13608358840065</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="2"/>
+        <v>-1026.28368782699</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="3"/>
+        <v>17.328472928167002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>29250.7053519451</v>
+      </c>
+      <c r="E21" s="5">
+        <v>7043.60847176472</v>
+      </c>
+      <c r="F21" s="5">
+        <v>423.48620280720797</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="1"/>
+        <v>-1761.2065607211007</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="2"/>
+        <v>-1048.5882317206897</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="3"/>
+        <v>20.648504474087986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>31354.762990535899</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8147.7975294703701</v>
+      </c>
+      <c r="F22" s="2">
+        <v>400.74433711661197</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>342.8510778696982</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="2"/>
+        <v>55.600825984960466</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.0933612165080149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="D23" s="2">
+        <v>31269.9716118621</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8118.4450709291104</v>
+      </c>
+      <c r="F23" s="2">
+        <v>401.642987379923</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>258.05969919589916</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="2"/>
+        <v>26.248367443700772</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.1947109531969886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="D24" s="2">
+        <v>30914.298918551802</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8102.5532712783897</v>
+      </c>
+      <c r="F24" s="2">
+        <v>402.88267771022498</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>-97.612994114399044</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="2"/>
+        <v>10.356567792980059</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4979377104994001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2">
+        <v>30468.0826554866</v>
+      </c>
+      <c r="E25" s="3">
+        <v>7993.38344895312</v>
+      </c>
+      <c r="F25" s="2">
+        <v>406.32524910131298</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>-543.82925717960097</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="2"/>
+        <v>-98.813254532289648</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>3.4875507681929889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4">
+        <v>40000</v>
+      </c>
+      <c r="D26" s="5">
+        <v>14759.491168745801</v>
+      </c>
+      <c r="E26" s="5">
+        <v>4248.3142484987502</v>
+      </c>
+      <c r="F26" s="5">
+        <v>114.85738921551901</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
+        <v>-16252.4207439204</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="2"/>
+        <v>-3843.8824549866595</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="3"/>
+        <v>-287.980309117601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4">
+        <v>55000</v>
+      </c>
+      <c r="D27" s="5">
+        <v>20786.1678825077</v>
+      </c>
+      <c r="E27" s="5">
+        <v>5848.56070118761</v>
+      </c>
+      <c r="F27" s="5">
+        <v>206.128800313243</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="1"/>
+        <v>-10225.744030158501</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="2"/>
+        <v>-2243.6360022977997</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="3"/>
+        <v>-196.70889801987698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4">
+        <v>70000</v>
+      </c>
+      <c r="D28" s="5">
+        <v>26939.7612730277</v>
+      </c>
+      <c r="E28" s="5">
+        <v>7439.9289267178701</v>
+      </c>
+      <c r="F28" s="5">
+        <v>321.44342996255801</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="1"/>
+        <v>-4072.1506396385012</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="2"/>
+        <v>-652.26777676753954</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="3"/>
+        <v>-81.394268370561974</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4">
+        <v>85000</v>
+      </c>
+      <c r="D29" s="5">
+        <v>33156.177189833099</v>
+      </c>
+      <c r="E29" s="5">
+        <v>9060.7627399498506</v>
+      </c>
+      <c r="F29" s="5">
+        <v>446.83860444724797</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="1"/>
+        <v>2144.2652771668982</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="2"/>
+        <v>968.56603646444091</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="3"/>
+        <v>44.000906114127986</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4">
+        <v>100000</v>
+      </c>
+      <c r="D30" s="5">
+        <v>39591.200827525099</v>
+      </c>
+      <c r="E30" s="5">
+        <v>10538.799172474901</v>
+      </c>
+      <c r="F30" s="5">
+        <v>583.80651066269297</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="1"/>
+        <v>8579.2889148588984</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="2"/>
+        <v>2446.6024689894912</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="3"/>
+        <v>180.96881232957298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>115000</v>
+      </c>
+      <c r="D31" s="5">
+        <v>46578.987549062098</v>
+      </c>
+      <c r="E31" s="5">
+        <v>11528.4169585656</v>
+      </c>
+      <c r="F31" s="5">
+        <v>708.97386502058805</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="1"/>
+        <v>15567.075636395897</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="2"/>
+        <v>3436.2202550801903</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="3"/>
+        <v>306.13616668746806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4">
+        <v>5</v>
+      </c>
+      <c r="C32" s="4">
+        <v>130000</v>
+      </c>
+      <c r="D32" s="5">
+        <v>53161.919722686798</v>
+      </c>
+      <c r="E32" s="5">
+        <v>12978.789185785899</v>
+      </c>
+      <c r="F32" s="5">
+        <v>808.05763874368301</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="1"/>
+        <v>22150.007810020597</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="2"/>
+        <v>4886.5924823004898</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="3"/>
+        <v>405.21994041056303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4">
+        <v>5</v>
+      </c>
+      <c r="C33" s="4">
+        <v>145000</v>
+      </c>
+      <c r="D33" s="5">
+        <v>60317.197526874901</v>
+      </c>
+      <c r="E33" s="5">
+        <v>13906.234910384201</v>
+      </c>
+      <c r="F33" s="5">
+        <v>900.59463688574999</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="1"/>
+        <v>29305.2856142087</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="2"/>
+        <v>5814.038206898791</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="3"/>
+        <v>497.75693855263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4">
+        <v>5</v>
+      </c>
+      <c r="C34" s="4">
+        <v>160000</v>
+      </c>
+      <c r="D34" s="4">
+        <v>71615.647024054997</v>
+      </c>
+      <c r="E34" s="5">
+        <v>10734.796313901599</v>
+      </c>
+      <c r="F34" s="5">
+        <v>984.40367444675098</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="1"/>
+        <v>40603.7351113888</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="2"/>
+        <v>2642.5996104161895</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="3"/>
+        <v>581.565976113631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4">
+        <v>175000</v>
+      </c>
+      <c r="D35" s="4">
+        <v>78517.770933178501</v>
+      </c>
+      <c r="E35" s="5">
+        <v>11999.8058657401</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1045.3968675864801</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="1"/>
+        <v>47505.859020512304</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="2"/>
+        <v>3907.6091622546901</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="3"/>
+        <v>642.5591692533601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>31011.911912666201</v>
+      </c>
+      <c r="E36">
+        <v>8092.1967034854097</v>
+      </c>
+      <c r="F36" s="2">
+        <v>402.83769833311999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB3B4F9-649F-4B57-BCFD-40A46E2E7B01}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36098A4-7930-4260-A0E0-F7ADEE63E561}">
+  <dimension ref="C4:J37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>1.65</v>
+      </c>
+      <c r="E5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E6">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>3.5</v>
+      </c>
+      <c r="E7">
+        <v>1.2</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>3.18</v>
+      </c>
+      <c r="E8">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>2.78</v>
+      </c>
+      <c r="E9">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>3.7</v>
+      </c>
+      <c r="E10">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>2.9</v>
+      </c>
+      <c r="E11">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>2.36</v>
+      </c>
+      <c r="E12">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>3.5</v>
+      </c>
+      <c r="E13">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>3.2</v>
+      </c>
+      <c r="E14">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>3.95</v>
+      </c>
+      <c r="E15">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>6.75</v>
+      </c>
+      <c r="E16">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>5.3</v>
+      </c>
+      <c r="E20">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>7.25</v>
+      </c>
+      <c r="E22">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>7.8</v>
+      </c>
+      <c r="E23">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>7.7</v>
+      </c>
+      <c r="E25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>7.1</v>
+      </c>
+      <c r="E26">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>6.95</v>
+      </c>
+      <c r="E28">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>7.9</v>
+      </c>
+      <c r="E29">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>7.77</v>
+      </c>
+      <c r="E30">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E31">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>8.5</v>
+      </c>
+      <c r="E32">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>8.83</v>
+      </c>
+      <c r="E33">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34">
+        <v>9.5</v>
+      </c>
+      <c r="E34">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="6"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C5:E34">
+    <sortCondition ref="E5:E34"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data_analysis.xlsx
+++ b/Data_analysis.xlsx
@@ -8,25 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keran\Google Drive\MIT\Courses@MIT\Thesis\simulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F392F66B-5619-46CC-A9BB-D8F983139DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2588C7-DD84-4131-B390-2BD92455BE90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12120" yWindow="3975" windowWidth="15480" windowHeight="11010" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ship" sheetId="1" r:id="rId1"/>
     <sheet name="Aircraft_main_affect" sheetId="2" r:id="rId2"/>
     <sheet name="Refueling_aircraft" sheetId="3" r:id="rId3"/>
     <sheet name="maxCl_aspect_ratio" sheetId="4" r:id="rId4"/>
+    <sheet name="Stakeholder and needs" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Aircraft_main_affect!$R$8:$R$15</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Aircraft_main_affect!$U$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Aircraft_main_affect!$U$8:$U$15</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Aircraft_main_affect!$U$8:$U$15</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Aircraft_main_affect!$R$8:$R$15</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Aircraft_main_affect!$U$8:$U$15</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>ship length</t>
   </si>
@@ -204,6 +198,33 @@
   <si>
     <t>Cgrd</t>
   </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>STAKEHOLDER</t>
+  </si>
+  <si>
+    <t>NEEDS</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>Beneficial</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Charitable</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
 </sst>
 </file>
 
@@ -279,14 +300,14 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5319,12 +5340,12 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -5410,8 +5431,8 @@
         <v>0.50790812010273101</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B5" s="6">
         <v>205</v>
       </c>
       <c r="C5">
@@ -5496,8 +5517,8 @@
         <v>0.58493899401871796</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B6" s="6"/>
       <c r="C6">
         <v>2</v>
       </c>
@@ -5580,8 +5601,8 @@
         <v>0.61092103239787399</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B7" s="6">
         <v>245</v>
       </c>
       <c r="C7">
@@ -5666,8 +5687,8 @@
         <v>0.70716354932679104</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B8" s="6"/>
       <c r="C8">
         <v>2</v>
       </c>
@@ -5750,8 +5771,8 @@
         <v>0.72384485625389305</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B9" s="6">
         <v>285</v>
       </c>
       <c r="C9">
@@ -5836,8 +5857,8 @@
         <v>0.809987235805118</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B10" s="6"/>
       <c r="C10">
         <v>2</v>
       </c>
@@ -5920,8 +5941,8 @@
         <v>0.82162834083629399</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B11" s="6">
         <v>330</v>
       </c>
       <c r="C11">
@@ -6006,8 +6027,8 @@
         <v>0.895891528278557</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B12" s="6"/>
       <c r="C12">
         <v>2</v>
       </c>
@@ -6090,8 +6111,8 @@
         <v>0.89164802096842399</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B13" s="6">
         <v>415</v>
       </c>
       <c r="C13">
@@ -6176,8 +6197,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B14" s="6"/>
       <c r="C14">
         <v>2</v>
       </c>
@@ -6221,7 +6242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D24">
         <v>0.50757247676690997</v>
       </c>
@@ -6283,26 +6304,26 @@
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>10</v>
       </c>
@@ -6310,7 +6331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
         <v>8</v>
       </c>
@@ -6330,124 +6351,124 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>68</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>18588.1109913285</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>6835.0827984969601</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>437.42033763865101</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f>D4-D$36</f>
         <v>-12423.800921337701</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <f t="shared" ref="H4:I4" si="0">E4-E$36</f>
         <v>-1257.1139049884496</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f t="shared" si="0"/>
         <v>34.582639305531018</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>80.8</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>22205.2685716796</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>7445.9481006911701</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>426.12168196124998</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f t="shared" ref="G5:G35" si="1">D5-D$36</f>
         <v>-8806.6433409866004</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f t="shared" ref="H5:H35" si="2">E5-E$36</f>
         <v>-646.24860279423956</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f t="shared" ref="I5:I35" si="3">F5-F$36</f>
         <v>23.283983628129988</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>93.6</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>27000.810240888299</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>7153.35333228115</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>419.46286466699701</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f t="shared" si="1"/>
         <v>-4011.1016717779021</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f t="shared" si="2"/>
         <v>-938.84337120425971</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f t="shared" si="3"/>
         <v>16.625166333877019</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>106.4</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>31557.449232259201</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>7229.6240369317202</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>412.47390999902899</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
         <v>545.53731959300057</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f t="shared" si="2"/>
         <v>-862.57266655368949</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="3"/>
         <v>9.636211665909002</v>
       </c>
@@ -6476,32 +6497,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>119.2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>34873.3518113092</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>8275.5590851110192</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>400.96574632543201</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
         <v>3861.4398986429987</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f t="shared" si="2"/>
         <v>183.36238162560949</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="3"/>
         <v>-1.8719520076879803</v>
       </c>
@@ -6520,43 +6541,43 @@
       <c r="R8">
         <v>40000</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <v>16821.3149115827</v>
       </c>
       <c r="T8">
         <v>2186.49050566184</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="1">
         <f>S8-T8</f>
         <v>14634.824405920859</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>132</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>35822.049925149302</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>9692.7830048358992</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>369.85890225289199</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
         <v>4810.1380124831012</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <f t="shared" si="2"/>
         <v>1600.5863013504895</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f t="shared" si="3"/>
         <v>-32.978796080227994</v>
       </c>
@@ -6575,18 +6596,18 @@
       <c r="R9">
         <v>55000</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <v>23539.961543599598</v>
       </c>
       <c r="T9">
         <v>3094.7670400956699</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="1">
         <f t="shared" ref="U9:U15" si="4">S9-T9</f>
         <v>20445.194503503928</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -6596,24 +6617,24 @@
       <c r="C10">
         <v>0.2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>22995.773642071399</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>7008.0017645477801</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>195.239530072094</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <f t="shared" si="1"/>
         <v>-8016.1382705948017</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <f t="shared" si="2"/>
         <v>-1084.1949389376296</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <f t="shared" si="3"/>
         <v>-207.59816826102599</v>
       </c>
@@ -6632,42 +6653,42 @@
       <c r="R10">
         <v>70000</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <v>30321.574447585601</v>
       </c>
       <c r="T10">
         <v>4058.1157521598798</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="1">
         <f t="shared" si="4"/>
         <v>26263.458695425721</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
         <v>0.25</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>28421.769119934601</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>7617.1473269257604</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>320.81207252303102</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
         <v>-2590.1427927315999</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <f t="shared" si="2"/>
         <v>-475.04937655964932</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <f t="shared" si="3"/>
         <v>-82.025625810088968</v>
       </c>
@@ -6686,42 +6707,42 @@
       <c r="R11">
         <v>85000</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="1">
         <v>37094.804373708503</v>
       </c>
       <c r="T11">
         <v>5122.1355560744296</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="1">
         <f t="shared" si="4"/>
         <v>31972.668817634072</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
         <v>0.3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>30616.228025275501</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>7710.6009849983702</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>392.15586756901899</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
         <v>-395.68388739069997</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <f t="shared" si="2"/>
         <v>-381.59571848703945</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <f t="shared" si="3"/>
         <v>-10.681830764100994</v>
       </c>
@@ -6740,42 +6761,42 @@
       <c r="R12">
         <v>100000</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="1">
         <v>44023.783213996401</v>
       </c>
       <c r="T12">
         <v>6106.2167860036197</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="1">
         <f t="shared" si="4"/>
         <v>37917.566427992781</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
         <v>0.35</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>31907.3474043854</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>8177.0566584032304</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>437.85288825082603</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
         <v>895.43549171919949</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <f t="shared" si="2"/>
         <v>84.859954917820687</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <f t="shared" si="3"/>
         <v>35.015189917706039</v>
       </c>
@@ -6794,42 +6815,42 @@
       <c r="R13">
         <v>115000</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="1">
         <v>50901.045128218997</v>
       </c>
       <c r="T13">
         <v>7206.3593794086601</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="1">
         <f t="shared" si="4"/>
         <v>43694.685748810334</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
         <v>0.4</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>32788.501820485399</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>8429.8039081362804</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>454.38117186007798</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
         <v>1776.5899078191978</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <f t="shared" si="2"/>
         <v>337.6072046508707</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <f t="shared" si="3"/>
         <v>51.543473526957996</v>
       </c>
@@ -6848,42 +6869,42 @@
       <c r="R14">
         <v>130000</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="1">
         <v>57815.593808248697</v>
       </c>
       <c r="T14">
         <v>8325.1151002239603</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="1">
         <f t="shared" si="4"/>
         <v>49490.478708024733</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
         <v>0.45</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>33462.242406555197</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>8696.5130823774907</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>460.11721133855798</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <f t="shared" si="1"/>
         <v>2450.330493888996</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <f t="shared" si="2"/>
         <v>604.31637889208105</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <f t="shared" si="3"/>
         <v>57.279513005437991</v>
       </c>
@@ -6902,200 +6923,200 @@
       <c r="R15">
         <v>145000</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="1">
         <v>53487.161156978502</v>
       </c>
       <c r="T15">
         <v>20736.271280280602</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="1">
         <f t="shared" si="4"/>
         <v>32750.8898766979</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>3</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>5.57</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>30594.37234645</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>9381.8327832865798</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>362.79344907584698</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <f t="shared" si="1"/>
         <v>-417.53956621620091</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <f t="shared" si="2"/>
         <v>1289.6360798011701</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <f t="shared" si="3"/>
         <v>-40.044249257273009</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>6.476</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>31877.859036407499</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>8856.7900146081902</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>395.90366106199502</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <f t="shared" si="1"/>
         <v>865.94712374129813</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <f t="shared" si="2"/>
         <v>764.59331112278051</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <f t="shared" si="3"/>
         <v>-6.9340372711249643</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
         <v>3</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>7.3819999999999997</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>32119.785280546701</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>8167.0862090504597</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>408.62743702037699</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <f t="shared" si="1"/>
         <v>1107.8733678805002</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <f t="shared" si="2"/>
         <v>74.889505565050058</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <f t="shared" si="3"/>
         <v>5.7897386872569996</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
         <v>3</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>8.2880000000000003</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>31369.767517267901</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>7515.1376846384101</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>416.12761807001698</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <f t="shared" si="1"/>
         <v>357.85560460170018</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <f t="shared" si="2"/>
         <v>-577.05901884699961</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <f t="shared" si="3"/>
         <v>13.289919736896991</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
         <v>3</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>9.1940000000000008</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>30365.7758290778</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>7065.9130156584197</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>420.16617126128699</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <f t="shared" si="1"/>
         <v>-646.13608358840065</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <f t="shared" si="2"/>
         <v>-1026.28368782699</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <f t="shared" si="3"/>
         <v>17.328472928167002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
         <v>3</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>10.1</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>29250.7053519451</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>7043.60847176472</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>423.48620280720797</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <f t="shared" si="1"/>
         <v>-1761.2065607211007</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <f t="shared" si="2"/>
         <v>-1048.5882317206897</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <f t="shared" si="3"/>
         <v>20.648504474087986</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -7105,418 +7126,418 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>31354.762990535899</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>8147.7975294703701</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>400.74433711661197</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <f t="shared" si="1"/>
         <v>342.8510778696982</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <f t="shared" si="2"/>
         <v>55.600825984960466</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <f t="shared" si="3"/>
         <v>-2.0933612165080149</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23">
         <v>8.3333333333333304</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>31269.9716118621</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>8118.4450709291104</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>401.642987379923</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <f t="shared" si="1"/>
         <v>258.05969919589916</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <f t="shared" si="2"/>
         <v>26.248367443700772</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <f t="shared" si="3"/>
         <v>-1.1947109531969886</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24">
         <v>16.6666666666667</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>30914.298918551802</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>8102.5532712783897</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>402.88267771022498</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <f t="shared" si="1"/>
         <v>-97.612994114399044</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <f t="shared" si="2"/>
         <v>10.356567792980059</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <f t="shared" si="3"/>
         <v>4.4979377104994001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25">
         <v>25</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>30468.0826554866</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>7993.38344895312</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>406.32524910131298</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <f t="shared" si="1"/>
         <v>-543.82925717960097</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <f t="shared" si="2"/>
         <v>-98.813254532289648</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <f t="shared" si="3"/>
         <v>3.4875507681929889</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>5</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>40000</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>14759.491168745801</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>4248.3142484987502</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>114.85738921551901</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <f t="shared" si="1"/>
         <v>-16252.4207439204</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <f t="shared" si="2"/>
         <v>-3843.8824549866595</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <f t="shared" si="3"/>
         <v>-287.980309117601</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
         <v>5</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>55000</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>20786.1678825077</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>5848.56070118761</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>206.128800313243</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <f t="shared" si="1"/>
         <v>-10225.744030158501</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <f t="shared" si="2"/>
         <v>-2243.6360022977997</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <f t="shared" si="3"/>
         <v>-196.70889801987698</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>70000</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>26939.7612730277</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>7439.9289267178701</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>321.44342996255801</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <f t="shared" si="1"/>
         <v>-4072.1506396385012</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <f t="shared" si="2"/>
         <v>-652.26777676753954</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="4">
         <f t="shared" si="3"/>
         <v>-81.394268370561974</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3">
         <v>5</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>85000</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>33156.177189833099</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>9060.7627399498506</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>446.83860444724797</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <f t="shared" si="1"/>
         <v>2144.2652771668982</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <f t="shared" si="2"/>
         <v>968.56603646444091</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <f t="shared" si="3"/>
         <v>44.000906114127986</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
         <v>5</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>100000</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>39591.200827525099</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>10538.799172474901</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>583.80651066269297</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <f t="shared" si="1"/>
         <v>8579.2889148588984</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="4">
         <f t="shared" si="2"/>
         <v>2446.6024689894912</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="4">
         <f t="shared" si="3"/>
         <v>180.96881232957298</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3">
         <v>5</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>115000</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>46578.987549062098</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>11528.4169585656</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>708.97386502058805</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <f t="shared" si="1"/>
         <v>15567.075636395897</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <f t="shared" si="2"/>
         <v>3436.2202550801903</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <f t="shared" si="3"/>
         <v>306.13616668746806</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3">
         <v>5</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>130000</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>53161.919722686798</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>12978.789185785899</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>808.05763874368301</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <f t="shared" si="1"/>
         <v>22150.007810020597</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <f t="shared" si="2"/>
         <v>4886.5924823004898</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <f t="shared" si="3"/>
         <v>405.21994041056303</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3">
         <v>5</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>145000</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>60317.197526874901</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>13906.234910384201</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>900.59463688574999</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <f t="shared" si="1"/>
         <v>29305.2856142087</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <f t="shared" si="2"/>
         <v>5814.038206898791</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <f t="shared" si="3"/>
         <v>497.75693855263</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3">
         <v>5</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>160000</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>71615.647024054997</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>10734.796313901599</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>984.40367444675098</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <f t="shared" si="1"/>
         <v>40603.7351113888</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <f t="shared" si="2"/>
         <v>2642.5996104161895</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <f t="shared" si="3"/>
         <v>581.565976113631</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3">
         <v>5</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>175000</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>78517.770933178501</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>11999.8058657401</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>1045.3968675864801</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <f t="shared" si="1"/>
         <v>47505.859020512304</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <f t="shared" si="2"/>
         <v>3907.6091622546901</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <f t="shared" si="3"/>
         <v>642.5591692533601</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>0</v>
       </c>
@@ -7529,7 +7550,7 @@
       <c r="E36">
         <v>8092.1967034854097</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>402.83769833311999</v>
       </c>
     </row>
@@ -7546,7 +7567,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7556,13 +7577,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36098A4-7930-4260-A0E0-F7ADEE63E561}">
   <dimension ref="C4:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>50</v>
       </c>
@@ -7573,7 +7594,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>43</v>
       </c>
@@ -7584,7 +7605,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>46</v>
       </c>
@@ -7595,7 +7616,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>48</v>
       </c>
@@ -7605,10 +7626,10 @@
       <c r="E7">
         <v>1.2</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -7619,7 +7640,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>36</v>
       </c>
@@ -7630,7 +7651,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>39</v>
       </c>
@@ -7641,7 +7662,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>37</v>
       </c>
@@ -7652,7 +7673,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>34</v>
       </c>
@@ -7663,7 +7684,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>44</v>
       </c>
@@ -7674,7 +7695,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>33</v>
       </c>
@@ -7685,7 +7706,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>49</v>
       </c>
@@ -7696,7 +7717,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>35</v>
       </c>
@@ -7707,7 +7728,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>38</v>
       </c>
@@ -7718,7 +7739,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -7729,7 +7750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>47</v>
       </c>
@@ -7740,7 +7761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>40</v>
       </c>
@@ -7751,7 +7772,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -7762,7 +7783,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>41</v>
       </c>
@@ -7773,7 +7794,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -7784,7 +7805,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>42</v>
       </c>
@@ -7795,7 +7816,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>24</v>
       </c>
@@ -7806,7 +7827,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>22</v>
       </c>
@@ -7817,7 +7838,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -7828,7 +7849,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -7839,7 +7860,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -7850,7 +7871,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>25</v>
       </c>
@@ -7861,7 +7882,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>27</v>
       </c>
@@ -7872,7 +7893,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -7883,7 +7904,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>23</v>
       </c>
@@ -7894,7 +7915,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>28</v>
       </c>
@@ -7905,11 +7926,11 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J37" s="6"/>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="J37" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C5:E34">
@@ -7918,4 +7939,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CB3B78-3196-4725-9489-9F172DB344B8}">
+  <dimension ref="G7:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="10" width="21.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data_analysis.xlsx
+++ b/Data_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keran\Google Drive\MIT\Courses@MIT\Thesis\simulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2588C7-DD84-4131-B390-2BD92455BE90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B3A75E-0DBA-42D0-A0D7-2BFC7F022D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="3975" windowWidth="15480" windowHeight="11010" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15495" yWindow="3315" windowWidth="15480" windowHeight="12000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ship" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Refueling_aircraft" sheetId="3" r:id="rId3"/>
     <sheet name="maxCl_aspect_ratio" sheetId="4" r:id="rId4"/>
     <sheet name="Stakeholder and needs" sheetId="5" r:id="rId5"/>
+    <sheet name="Branchmark Airplane" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t>ship length</t>
   </si>
@@ -224,6 +224,91 @@
   </si>
   <si>
     <t>Problem</t>
+  </si>
+  <si>
+    <t>S-3 Viking</t>
+  </si>
+  <si>
+    <t>Boeing 737-200</t>
+  </si>
+  <si>
+    <t>KC-135</t>
+  </si>
+  <si>
+    <t>KC-46</t>
+  </si>
+  <si>
+    <t>Power plant</t>
+  </si>
+  <si>
+    <t>Thr to weight ratio</t>
+  </si>
+  <si>
+    <t>Wing-span[ft]</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>kc135a</t>
+  </si>
+  <si>
+    <t>root: NACA 0016.3-1.03 32.7/100 mod
+tip:NACA 0012-1.10 40/1.00mod</t>
+  </si>
+  <si>
+    <t>root: NACA 64A318;
+tio: NACA 64A412</t>
+  </si>
+  <si>
+    <t>root: BAC 449/450/451;
+tip:BAC442</t>
+  </si>
+  <si>
+    <t>Airfoil[-]</t>
+  </si>
+  <si>
+    <t>Aspect ratio[-]</t>
+  </si>
+  <si>
+    <t>A330-300</t>
+  </si>
+  <si>
+    <t>Max takeoff weight[lb]</t>
+  </si>
+  <si>
+    <t>2x GE TF34-GE-2 turbofan engines</t>
+  </si>
+  <si>
+    <t>4x Allison T56-A-15 turboprop engines</t>
+  </si>
+  <si>
+    <t>PW JT8D-7/9/5/17</t>
+  </si>
+  <si>
+    <t>CFM-56 turbofan engines</t>
+  </si>
+  <si>
+    <t>2 × PW4062</t>
+  </si>
+  <si>
+    <t>2x PW4170</t>
+  </si>
+  <si>
+    <t>Thrusters[lb]</t>
+  </si>
+  <si>
+    <t>C-130J Hercules</t>
+  </si>
+  <si>
+    <t>Operation Empty Weight [lb]</t>
+  </si>
+  <si>
+    <t>Fuel saved
+( 1refueling, 1 airplane)</t>
+  </si>
+  <si>
+    <t>Sweep angle [deg]</t>
   </si>
 </sst>
 </file>
@@ -269,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -292,13 +377,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -308,6 +419,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6300,8 +6418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAD7F8E-9904-4A47-A25B-6DE82CC823BB}">
   <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="B22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7565,7 +7683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB3B4F9-649F-4B57-BCFD-40A46E2E7B01}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -7945,7 +8063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CB3B78-3196-4725-9489-9F172DB344B8}">
   <dimension ref="G7:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7:J18"/>
     </sheetView>
   </sheetViews>
@@ -7994,4 +8112,280 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA2C042-8FDE-4CB5-8CD4-C64F7A870012}">
+  <dimension ref="B6:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="7">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>132.6</v>
+      </c>
+      <c r="E7" s="7">
+        <v>93</v>
+      </c>
+      <c r="F7" s="7">
+        <v>130</v>
+      </c>
+      <c r="G7" s="7">
+        <v>157</v>
+      </c>
+      <c r="H7" s="7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="7">
+        <v>7.73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F9" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>8</v>
+      </c>
+      <c r="H9" s="7">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="9">
+        <v>26581</v>
+      </c>
+      <c r="D10" s="9">
+        <v>75562</v>
+      </c>
+      <c r="E10" s="9">
+        <v>93680</v>
+      </c>
+      <c r="F10" s="9">
+        <v>105476</v>
+      </c>
+      <c r="G10" s="9">
+        <v>204000</v>
+      </c>
+      <c r="H10" s="9">
+        <v>285300</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="9">
+        <v>52539</v>
+      </c>
+      <c r="D11" s="9">
+        <v>155000</v>
+      </c>
+      <c r="E11" s="9">
+        <v>181200</v>
+      </c>
+      <c r="F11" s="9">
+        <v>322500</v>
+      </c>
+      <c r="G11" s="9">
+        <v>415000</v>
+      </c>
+      <c r="H11" s="9">
+        <v>533519</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12" s="11">
+        <v>35</v>
+      </c>
+      <c r="G12" s="11">
+        <v>34</v>
+      </c>
+      <c r="H12" s="11">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="7">
+        <f>9275*2</f>
+        <v>18550</v>
+      </c>
+      <c r="D14" s="7">
+        <f>4*7412</f>
+        <v>29648</v>
+      </c>
+      <c r="E14" s="7">
+        <f>29317*2</f>
+        <v>58634</v>
+      </c>
+      <c r="F14" s="7">
+        <f>21600*4</f>
+        <v>86400</v>
+      </c>
+      <c r="G14" s="7">
+        <f>62000*2</f>
+        <v>124000</v>
+      </c>
+      <c r="H14" s="7">
+        <f>72000*2</f>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="10">
+        <f t="shared" ref="C15:G15" si="0">C14/C11</f>
+        <v>0.35307105198043359</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.19127741935483872</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.32358719646799117</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.26790697674418606</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.29879518072289157</v>
+      </c>
+      <c r="H15" s="7">
+        <f>H14/H11</f>
+        <v>0.269906038960187</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data_analysis.xlsx
+++ b/Data_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keran\Google Drive\MIT\Courses@MIT\Thesis\simulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B3A75E-0DBA-42D0-A0D7-2BFC7F022D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15B7CBC-4F41-46BF-944D-B3CB24322EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15495" yWindow="3315" windowWidth="15480" windowHeight="12000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ship" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>ship length</t>
   </si>
@@ -304,11 +304,22 @@
     <t>Operation Empty Weight [lb]</t>
   </si>
   <si>
-    <t>Fuel saved
-( 1refueling, 1 airplane)</t>
-  </si>
-  <si>
     <t>Sweep angle [deg]</t>
+  </si>
+  <si>
+    <t>Take-off distance[ft]
+(Simulations)</t>
+  </si>
+  <si>
+    <t>Take-off distance[ft]
+(From reference)</t>
+  </si>
+  <si>
+    <t>Fuel saved[lb]
+(capacity - fuel cost)</t>
+  </si>
+  <si>
+    <t>Aircraft type</t>
   </si>
 </sst>
 </file>
@@ -354,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -392,24 +403,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -425,7 +425,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -8116,25 +8118,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA2C042-8FDE-4CB5-8CD4-C64F7A870012}">
-  <dimension ref="B6:H16"/>
+  <dimension ref="B6:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="C6" s="7" t="s">
         <v>62</v>
       </c>
@@ -8270,25 +8273,25 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="7">
         <v>15</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>25</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="12">
         <v>35</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="12">
         <v>34</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="12">
         <v>29.7</v>
       </c>
     </row>
@@ -8373,16 +8376,155 @@
         <v>0.269906038960187</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="C16" s="7">
+        <v>19290.152768622502</v>
+      </c>
+      <c r="D16" s="7">
+        <v>57370.141780962404</v>
+      </c>
+      <c r="E16" s="7">
+        <v>76090.287190284595</v>
+      </c>
+      <c r="F16" s="7">
+        <v>84178.868950823904</v>
+      </c>
+      <c r="G16" s="7">
+        <v>197443.268339662</v>
+      </c>
+      <c r="H16" s="7">
+        <v>236349.10957827399</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3824.7660513424298</v>
+      </c>
+      <c r="D17" s="7">
+        <v>7658.8496809376602</v>
+      </c>
+      <c r="E17" s="7">
+        <v>9214.4947956890701</v>
+      </c>
+      <c r="F17" s="7">
+        <v>7975.4244536544002</v>
+      </c>
+      <c r="G17" s="7">
+        <v>5831.06606979138</v>
+      </c>
+      <c r="H17" s="7">
+        <v>7212.7503447723002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4700</v>
+      </c>
+      <c r="E18" s="7">
+        <v>9700</v>
+      </c>
+      <c r="F18" s="7">
+        <v>7000</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="13">
+        <v>7280</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J20">
+        <v>3824.7660513424298</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H21" s="1"/>
+      <c r="J21">
+        <v>7658.8496809376602</v>
+      </c>
+      <c r="L21">
+        <v>19290.152768622502</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J22">
+        <v>9214.4947956890701</v>
+      </c>
+      <c r="L22">
+        <v>57370.141780962404</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J23">
+        <v>7975.4244536544002</v>
+      </c>
+      <c r="L23" s="11">
+        <v>-1.47499760874821E+16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J24">
+        <v>5831.06606979138</v>
+      </c>
+      <c r="L24">
+        <v>84178.868950823904</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J25">
+        <v>7212.7503447723002</v>
+      </c>
+      <c r="L25">
+        <v>197443.268339662</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="L26">
+        <v>236349.10957827399</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F27">
+        <v>3824.7660513424298</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F28">
+        <v>7658.8496809376602</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F29">
+        <v>9214.4947956890701</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F30">
+        <v>7975.4244536544002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F31">
+        <v>5831.06606979138</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F32">
+        <v>7212.7503447723002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data_analysis.xlsx
+++ b/Data_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keran\Google Drive\MIT\Courses@MIT\Thesis\simulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15B7CBC-4F41-46BF-944D-B3CB24322EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8434D784-BF34-41F7-8474-EE2368C64011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-68" windowWidth="28996" windowHeight="15796" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ship" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="maxCl_aspect_ratio" sheetId="4" r:id="rId4"/>
     <sheet name="Stakeholder and needs" sheetId="5" r:id="rId5"/>
     <sheet name="Branchmark Airplane" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
   <si>
     <t>ship length</t>
   </si>
@@ -320,6 +321,46 @@
   </si>
   <si>
     <t>Aircraft type</t>
+  </si>
+  <si>
+    <t>Range(ship)[km]</t>
+  </si>
+  <si>
+    <t>Range(island)[km]</t>
+  </si>
+  <si>
+    <t>Run way limits[ft]</t>
+  </si>
+  <si>
+    <t>Ship runway limits[ft]</t>
+  </si>
+  <si>
+    <t>Optimization using simulated annealing</t>
+  </si>
+  <si>
+    <t>Wing span[ft]</t>
+  </si>
+  <si>
+    <t>thr to weight ratio[-]</t>
+  </si>
+  <si>
+    <t>aspect ratio[-]</t>
+  </si>
+  <si>
+    <t>sweep angle[deg]</t>
+  </si>
+  <si>
+    <t>max takeoff weight[lb]</t>
+  </si>
+  <si>
+    <t>Case #</t>
+  </si>
+  <si>
+    <t>Take-off distance[ft] 1.1 margin
+(Simulations)</t>
+  </si>
+  <si>
+    <t>FUEL SAVED</t>
   </si>
 </sst>
 </file>
@@ -409,7 +450,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -419,15 +460,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -8118,171 +8175,172 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA2C042-8FDE-4CB5-8CD4-C64F7A870012}">
-  <dimension ref="B6:L32"/>
+  <dimension ref="B6:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="23.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.9296875" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>68</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <v>132.6</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="9">
         <v>93</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="9">
         <v>130</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="9">
         <v>157</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="9">
         <v>198</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>7.73</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>10.1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="9">
         <v>9.4499999999999993</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="9">
         <v>7.1</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="9">
         <v>8</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="9">
         <v>9.26</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="11">
         <v>26581</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <v>75562</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="11">
         <v>93680</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="11">
         <v>105476</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="11">
         <v>204000</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="11">
         <v>285300</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="11">
         <v>52539</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="11">
         <v>155000</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="11">
         <v>181200</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="11">
         <v>322500</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="11">
         <v>415000</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="11">
         <v>533519</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>15</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>0</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="9">
         <v>25</v>
       </c>
       <c r="F12" s="12">
@@ -8296,238 +8354,461 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <f>9275*2</f>
         <v>18550</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <f>4*7412</f>
         <v>29648</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="9">
         <f>29317*2</f>
         <v>58634</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="9">
         <f>21600*4</f>
         <v>86400</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="9">
         <f>62000*2</f>
         <v>124000</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="9">
         <f>72000*2</f>
         <v>144000</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="13">
         <f t="shared" ref="C15:G15" si="0">C14/C11</f>
         <v>0.35307105198043359</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="13">
         <f t="shared" si="0"/>
         <v>0.19127741935483872</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>0.32358719646799117</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>0.26790697674418606</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>0.29879518072289157</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="9">
         <f>H14/H11</f>
         <v>0.269906038960187</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="7">
-        <v>19290.152768622502</v>
-      </c>
-      <c r="D16" s="7">
-        <v>57370.141780962404</v>
-      </c>
-      <c r="E16" s="7">
-        <v>76090.287190284595</v>
-      </c>
-      <c r="F16" s="7">
-        <v>84178.868950823904</v>
-      </c>
-      <c r="G16" s="7">
-        <v>197443.268339662</v>
-      </c>
-      <c r="H16" s="7">
-        <v>236349.10957827399</v>
+      <c r="C16" s="11">
+        <v>16353.2425826376</v>
+      </c>
+      <c r="D16" s="11">
+        <v>49214.444181069703</v>
+      </c>
+      <c r="E16" s="11">
+        <v>66160.043385847996</v>
+      </c>
+      <c r="F16" s="11">
+        <v>73861.227986158905</v>
+      </c>
+      <c r="G16" s="11">
+        <v>173694.952401569</v>
+      </c>
+      <c r="H16" s="11">
+        <v>206932.244301542</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="9">
         <v>3824.7660513424298</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="9">
         <v>7658.8496809376602</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="9">
         <v>9214.4947956890701</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="9">
         <v>7975.4244536544002</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="9">
         <v>5831.06606979138</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="9">
         <v>7212.7503447723002</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="9">
         <v>4700</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="9">
         <v>9700</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="9">
         <v>7000</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="14">
         <v>7280</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="J20">
-        <v>3824.7660513424298</v>
+    <row r="20" spans="2:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B20" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20">
+        <v>3433.5367253872801</v>
+      </c>
+      <c r="D20">
+        <v>7762.6418483978396</v>
+      </c>
+      <c r="E20">
+        <v>8659.8757447735898</v>
+      </c>
+      <c r="F20">
+        <v>7626.3734160430404</v>
+      </c>
+      <c r="G20">
+        <v>5679.3101547331999</v>
+      </c>
+      <c r="H20">
+        <v>6704.4421894425705</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="H21" s="1"/>
-      <c r="J21">
-        <v>7658.8496809376602</v>
-      </c>
-      <c r="L21">
-        <v>19290.152768622502</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="J22">
-        <v>9214.4947956890701</v>
-      </c>
-      <c r="L22">
-        <v>57370.141780962404</v>
-      </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="J23">
-        <v>7975.4244536544002</v>
-      </c>
-      <c r="L23" s="11">
-        <v>-1.47499760874821E+16</v>
-      </c>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="J24">
-        <v>5831.06606979138</v>
-      </c>
-      <c r="L24">
-        <v>84178.868950823904</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="J25">
-        <v>7212.7503447723002</v>
-      </c>
-      <c r="L25">
-        <v>197443.268339662</v>
+      <c r="B24" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="2:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="L26">
-        <v>236349.10957827399</v>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>500</v>
+      </c>
+      <c r="D26">
+        <v>900</v>
+      </c>
+      <c r="E26">
+        <v>9000</v>
+      </c>
+      <c r="F26">
+        <v>205</v>
+      </c>
+      <c r="G26">
+        <v>120.96161081621101</v>
+      </c>
+      <c r="H26">
+        <v>0.35</v>
+      </c>
+      <c r="I26">
+        <v>5.57270323280882</v>
+      </c>
+      <c r="J26">
+        <v>23.522281247699901</v>
+      </c>
+      <c r="K26">
+        <v>137324.62388941899</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>500</v>
+      </c>
+      <c r="D27">
+        <v>900</v>
+      </c>
+      <c r="E27">
+        <v>9000</v>
+      </c>
       <c r="F27">
-        <v>3824.7660513424298</v>
+        <v>245</v>
+      </c>
+      <c r="G27">
+        <v>105.556417897317</v>
+      </c>
+      <c r="H27">
+        <v>0.34982551871945899</v>
+      </c>
+      <c r="I27">
+        <v>5.6132254754894104</v>
+      </c>
+      <c r="J27">
+        <v>0.31863630739584903</v>
+      </c>
+      <c r="K27">
+        <v>118574.770218673</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>500</v>
+      </c>
+      <c r="D28">
+        <v>900</v>
+      </c>
+      <c r="E28">
+        <v>9000</v>
+      </c>
       <c r="F28">
-        <v>7658.8496809376602</v>
+        <v>285</v>
+      </c>
+      <c r="G28">
+        <v>127.26848721229</v>
+      </c>
+      <c r="H28">
+        <v>0.35</v>
+      </c>
+      <c r="I28">
+        <v>5.5428819204567104</v>
+      </c>
+      <c r="J28">
+        <v>21.928792935022699</v>
+      </c>
+      <c r="K28">
+        <v>153024.91898027199</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>500</v>
+      </c>
+      <c r="D29">
+        <v>900</v>
+      </c>
+      <c r="E29">
+        <v>9000</v>
+      </c>
       <c r="F29">
-        <v>9214.4947956890701</v>
+        <v>330</v>
+      </c>
+      <c r="G29">
+        <v>131.82494344988299</v>
+      </c>
+      <c r="H29">
+        <v>0.35</v>
+      </c>
+      <c r="I29">
+        <v>5.9679445831296798</v>
+      </c>
+      <c r="J29">
+        <v>24.371864113890702</v>
+      </c>
+      <c r="K29">
+        <v>157925.982587951</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>500</v>
+      </c>
+      <c r="D30">
+        <v>900</v>
+      </c>
+      <c r="E30">
+        <v>9000</v>
+      </c>
       <c r="F30">
-        <v>7975.4244536544002</v>
+        <v>415</v>
+      </c>
+      <c r="G30">
+        <v>128.2603542905</v>
+      </c>
+      <c r="H30">
+        <v>0.35</v>
+      </c>
+      <c r="I30">
+        <v>5.57709068728267</v>
+      </c>
+      <c r="J30">
+        <v>19.585818931124098</v>
+      </c>
+      <c r="K30">
+        <v>169949.95488569399</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>500</v>
+      </c>
+      <c r="D31">
+        <v>900</v>
+      </c>
+      <c r="E31">
+        <v>9000</v>
+      </c>
       <c r="F31">
-        <v>5831.06606979138</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="F32">
-        <v>7212.7503447723002</v>
+        <v>9000</v>
+      </c>
+      <c r="G31">
+        <v>128.2603542905</v>
+      </c>
+      <c r="H31">
+        <v>0.35</v>
+      </c>
+      <c r="I31">
+        <v>10.1</v>
+      </c>
+      <c r="J31">
+        <v>19.585818931124098</v>
+      </c>
+      <c r="K31">
+        <v>169949.95488569399</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D48">
+        <v>7762.6418483978396</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D49">
+        <v>8659.8757447735898</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D50">
+        <v>7626.3734160430404</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D51">
+        <v>5679.3101547331999</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D52">
+        <v>6704.4421894425705</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F11B450-16D2-4789-ABB9-2C8246930002}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data_analysis.xlsx
+++ b/Data_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keran\Google Drive\MIT\Courses@MIT\Thesis\simulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E4E51F-1F49-42D7-88DE-EC6393B0DC8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF227B0-5AEA-4F7C-BB34-7148F3E2DC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9923" yWindow="6420" windowWidth="10021" windowHeight="4080" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-68" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ship" sheetId="1" r:id="rId1"/>
@@ -1661,6 +1661,7 @@
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1712,7 +1713,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -16888,16 +16888,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>468965</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2386852</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>182656</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17267,7 +17267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AG70"/>
   <sheetViews>
-    <sheetView topLeftCell="D35" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
@@ -17380,7 +17380,7 @@
       </c>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B5" s="99">
+      <c r="B5" s="100">
         <v>205</v>
       </c>
       <c r="C5">
@@ -17474,7 +17474,7 @@
       </c>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="99"/>
+      <c r="B6" s="100"/>
       <c r="C6">
         <v>2</v>
       </c>
@@ -17566,7 +17566,7 @@
       </c>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="99">
+      <c r="B7" s="100">
         <v>245</v>
       </c>
       <c r="C7">
@@ -17660,7 +17660,7 @@
       </c>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="99"/>
+      <c r="B8" s="100"/>
       <c r="C8">
         <v>2</v>
       </c>
@@ -17752,7 +17752,7 @@
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="99">
+      <c r="B9" s="100">
         <v>285</v>
       </c>
       <c r="C9">
@@ -17846,7 +17846,7 @@
       </c>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="99"/>
+      <c r="B10" s="100"/>
       <c r="C10">
         <v>2</v>
       </c>
@@ -17938,7 +17938,7 @@
       </c>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="99">
+      <c r="B11" s="100">
         <v>330</v>
       </c>
       <c r="C11">
@@ -18032,7 +18032,7 @@
       </c>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="99"/>
+      <c r="B12" s="100"/>
       <c r="C12">
         <v>2</v>
       </c>
@@ -18124,7 +18124,7 @@
       </c>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="99">
+      <c r="B13" s="100">
         <v>415</v>
       </c>
       <c r="C13">
@@ -18218,7 +18218,7 @@
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="99"/>
+      <c r="B14" s="100"/>
       <c r="C14">
         <v>2</v>
       </c>
@@ -18398,7 +18398,7 @@
       </c>
     </row>
     <row r="45" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="E45" s="99" t="s">
+      <c r="E45" s="100" t="s">
         <v>135</v>
       </c>
       <c r="F45">
@@ -18486,7 +18486,7 @@
       </c>
     </row>
     <row r="46" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="E46" s="99"/>
+      <c r="E46" s="100"/>
       <c r="F46">
         <v>2</v>
       </c>
@@ -18572,7 +18572,7 @@
       </c>
     </row>
     <row r="47" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="E47" s="99" t="s">
+      <c r="E47" s="100" t="s">
         <v>131</v>
       </c>
       <c r="F47">
@@ -18660,7 +18660,7 @@
       </c>
     </row>
     <row r="48" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="E48" s="99"/>
+      <c r="E48" s="100"/>
       <c r="F48">
         <v>2</v>
       </c>
@@ -18746,7 +18746,7 @@
       </c>
     </row>
     <row r="49" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="E49" s="99" t="s">
+      <c r="E49" s="100" t="s">
         <v>132</v>
       </c>
       <c r="F49">
@@ -18834,7 +18834,7 @@
       </c>
     </row>
     <row r="50" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="E50" s="99"/>
+      <c r="E50" s="100"/>
       <c r="F50">
         <v>2</v>
       </c>
@@ -18920,7 +18920,7 @@
       </c>
     </row>
     <row r="51" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="E51" s="99" t="s">
+      <c r="E51" s="100" t="s">
         <v>133</v>
       </c>
       <c r="F51">
@@ -19008,7 +19008,7 @@
       </c>
     </row>
     <row r="52" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="E52" s="99"/>
+      <c r="E52" s="100"/>
       <c r="F52">
         <v>2</v>
       </c>
@@ -19094,7 +19094,7 @@
       </c>
     </row>
     <row r="53" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="E53" s="99" t="s">
+      <c r="E53" s="100" t="s">
         <v>134</v>
       </c>
       <c r="F53">
@@ -19182,7 +19182,7 @@
       </c>
     </row>
     <row r="54" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="E54" s="99"/>
+      <c r="E54" s="100"/>
       <c r="F54">
         <v>2</v>
       </c>
@@ -19268,18 +19268,18 @@
       </c>
     </row>
     <row r="59" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="I59" s="98" t="s">
+      <c r="I59" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="J59" s="98"/>
-      <c r="K59" s="97" t="s">
+      <c r="J59" s="99"/>
+      <c r="K59" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="L59" s="97"/>
+      <c r="L59" s="98"/>
     </row>
     <row r="60" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="I60" s="98"/>
-      <c r="J60" s="98"/>
+      <c r="I60" s="99"/>
+      <c r="J60" s="99"/>
       <c r="K60" s="25" t="s">
         <v>136</v>
       </c>
@@ -19288,7 +19288,7 @@
       </c>
     </row>
     <row r="61" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="I61" s="98" t="s">
+      <c r="I61" s="99" t="s">
         <v>135</v>
       </c>
       <c r="J61" s="25" t="s">
@@ -19302,7 +19302,7 @@
       </c>
     </row>
     <row r="62" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="I62" s="98"/>
+      <c r="I62" s="99"/>
       <c r="J62" s="25" t="s">
         <v>139</v>
       </c>
@@ -19314,7 +19314,7 @@
       </c>
     </row>
     <row r="63" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="I63" s="98" t="s">
+      <c r="I63" s="99" t="s">
         <v>131</v>
       </c>
       <c r="J63" s="25" t="s">
@@ -19328,7 +19328,7 @@
       </c>
     </row>
     <row r="64" spans="5:33" x14ac:dyDescent="0.25">
-      <c r="I64" s="98"/>
+      <c r="I64" s="99"/>
       <c r="J64" s="25" t="s">
         <v>139</v>
       </c>
@@ -19340,7 +19340,7 @@
       </c>
     </row>
     <row r="65" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I65" s="98" t="s">
+      <c r="I65" s="99" t="s">
         <v>132</v>
       </c>
       <c r="J65" s="25" t="s">
@@ -19354,7 +19354,7 @@
       </c>
     </row>
     <row r="66" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I66" s="98"/>
+      <c r="I66" s="99"/>
       <c r="J66" s="25" t="s">
         <v>139</v>
       </c>
@@ -19366,7 +19366,7 @@
       </c>
     </row>
     <row r="67" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I67" s="98" t="s">
+      <c r="I67" s="99" t="s">
         <v>133</v>
       </c>
       <c r="J67" s="25" t="s">
@@ -19380,7 +19380,7 @@
       </c>
     </row>
     <row r="68" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I68" s="98"/>
+      <c r="I68" s="99"/>
       <c r="J68" s="25" t="s">
         <v>139</v>
       </c>
@@ -19392,7 +19392,7 @@
       </c>
     </row>
     <row r="69" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I69" s="98" t="s">
+      <c r="I69" s="99" t="s">
         <v>134</v>
       </c>
       <c r="J69" s="25" t="s">
@@ -19406,7 +19406,7 @@
       </c>
     </row>
     <row r="70" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I70" s="98"/>
+      <c r="I70" s="99"/>
       <c r="J70" s="25" t="s">
         <v>139</v>
       </c>
@@ -19483,28 +19483,28 @@
       <c r="P2">
         <v>365</v>
       </c>
-      <c r="AP2" s="97" t="s">
+      <c r="AP2" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97" t="s">
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="AV2" s="97"/>
-      <c r="AW2" s="97"/>
-      <c r="AX2" s="97"/>
-      <c r="AY2" s="97"/>
+      <c r="AV2" s="98"/>
+      <c r="AW2" s="98"/>
+      <c r="AX2" s="98"/>
+      <c r="AY2" s="98"/>
     </row>
     <row r="3" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
       <c r="F3" s="38">
         <v>1</v>
       </c>
@@ -19512,50 +19512,50 @@
       <c r="H3" s="38"/>
       <c r="I3" s="38"/>
       <c r="J3" s="38"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="102" t="s">
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="AH3" s="106" t="s">
+      <c r="AH3" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="AI3" s="106"/>
-      <c r="AJ3" s="106" t="s">
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="AK3" s="106"/>
-      <c r="AO3" s="108" t="s">
+      <c r="AK3" s="107"/>
+      <c r="AO3" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="AP3" s="107" t="s">
+      <c r="AP3" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="AQ3" s="97" t="s">
+      <c r="AQ3" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="AR3" s="97"/>
-      <c r="AS3" s="97" t="s">
+      <c r="AR3" s="98"/>
+      <c r="AS3" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="AT3" s="97"/>
-      <c r="AU3" s="107" t="s">
+      <c r="AT3" s="98"/>
+      <c r="AU3" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="AV3" s="97" t="s">
+      <c r="AV3" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="AW3" s="97"/>
-      <c r="AX3" s="97" t="s">
+      <c r="AW3" s="98"/>
+      <c r="AX3" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="AY3" s="97"/>
+      <c r="AY3" s="98"/>
     </row>
     <row r="4" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="106"/>
+      <c r="C4" s="107"/>
       <c r="D4" s="38">
         <v>1</v>
       </c>
@@ -19602,11 +19602,11 @@
       <c r="AA4" t="s">
         <v>150</v>
       </c>
-      <c r="AE4" s="104" t="s">
+      <c r="AE4" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="103"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="104"/>
       <c r="AH4" s="38" t="s">
         <v>151</v>
       </c>
@@ -19619,8 +19619,8 @@
       <c r="AK4" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="AO4" s="108"/>
-      <c r="AP4" s="107"/>
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="108"/>
       <c r="AQ4" s="25" t="s">
         <v>151</v>
       </c>
@@ -19633,7 +19633,7 @@
       <c r="AT4" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="AU4" s="107"/>
+      <c r="AU4" s="108"/>
       <c r="AV4" s="25" t="s">
         <v>151</v>
       </c>
@@ -19648,7 +19648,7 @@
       </c>
     </row>
     <row r="5" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="102" t="s">
         <v>145</v>
       </c>
       <c r="C5" s="38" t="s">
@@ -19667,7 +19667,7 @@
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
-      <c r="P5" s="101" t="s">
+      <c r="P5" s="102" t="s">
         <v>145</v>
       </c>
       <c r="Q5" s="38" t="s">
@@ -19701,7 +19701,7 @@
         <f>X5/2240</f>
         <v>5748.2942000015564</v>
       </c>
-      <c r="AE5" s="101" t="s">
+      <c r="AE5" s="102" t="s">
         <v>145</v>
       </c>
       <c r="AF5" s="38" t="s">
@@ -19766,7 +19766,7 @@
       </c>
     </row>
     <row r="6" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B6" s="101"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="38" t="s">
         <v>131</v>
       </c>
@@ -19783,7 +19783,7 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
-      <c r="P6" s="101"/>
+      <c r="P6" s="102"/>
       <c r="Q6" s="38" t="s">
         <v>131</v>
       </c>
@@ -19815,7 +19815,7 @@
         <f t="shared" ref="AA6:AA58" si="3">X6/2240</f>
         <v>7182.3071090540325</v>
       </c>
-      <c r="AE6" s="101"/>
+      <c r="AE6" s="102"/>
       <c r="AF6" s="38" t="s">
         <v>131</v>
       </c>
@@ -19875,7 +19875,7 @@
       </c>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B7" s="101"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="38" t="s">
         <v>132</v>
       </c>
@@ -19892,7 +19892,7 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="P7" s="101"/>
+      <c r="P7" s="102"/>
       <c r="Q7" s="38" t="s">
         <v>132</v>
       </c>
@@ -19924,7 +19924,7 @@
         <f t="shared" si="3"/>
         <v>8104.0010014229574</v>
       </c>
-      <c r="AE7" s="101"/>
+      <c r="AE7" s="102"/>
       <c r="AF7" s="38" t="s">
         <v>132</v>
       </c>
@@ -19984,7 +19984,7 @@
       </c>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B8" s="101"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="38" t="s">
         <v>133</v>
       </c>
@@ -20009,7 +20009,7 @@
         <f>24/(2.5+1.25)</f>
         <v>6.4</v>
       </c>
-      <c r="P8" s="101"/>
+      <c r="P8" s="102"/>
       <c r="Q8" s="38" t="s">
         <v>133</v>
       </c>
@@ -20041,7 +20041,7 @@
         <f t="shared" si="3"/>
         <v>8415.8263068356137</v>
       </c>
-      <c r="AE8" s="101"/>
+      <c r="AE8" s="102"/>
       <c r="AF8" s="38" t="s">
         <v>133</v>
       </c>
@@ -20101,7 +20101,7 @@
       </c>
     </row>
     <row r="9" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B9" s="101"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="38" t="s">
         <v>134</v>
       </c>
@@ -20122,7 +20122,7 @@
         <f>D9/D5</f>
         <v>0.77052409594634697</v>
       </c>
-      <c r="P9" s="101"/>
+      <c r="P9" s="102"/>
       <c r="Q9" s="38" t="s">
         <v>134</v>
       </c>
@@ -20154,7 +20154,7 @@
         <f t="shared" si="3"/>
         <v>8107.7317125121244</v>
       </c>
-      <c r="AE9" s="101"/>
+      <c r="AE9" s="102"/>
       <c r="AF9" s="38" t="s">
         <v>134</v>
       </c>
@@ -20214,7 +20214,7 @@
       </c>
     </row>
     <row r="10" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="102" t="s">
         <v>146</v>
       </c>
       <c r="C10" s="38" t="s">
@@ -20233,7 +20233,7 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
-      <c r="P10" s="101" t="s">
+      <c r="P10" s="102" t="s">
         <v>146</v>
       </c>
       <c r="Q10" s="38" t="s">
@@ -20267,7 +20267,7 @@
         <f t="shared" si="3"/>
         <v>497.29839382881909</v>
       </c>
-      <c r="AE10" s="101" t="s">
+      <c r="AE10" s="102" t="s">
         <v>146</v>
       </c>
       <c r="AF10" s="38" t="s">
@@ -20303,7 +20303,7 @@
       <c r="AT10" s="23"/>
     </row>
     <row r="11" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="38" t="s">
         <v>131</v>
       </c>
@@ -20326,7 +20326,7 @@
       <c r="N11">
         <v>9</v>
       </c>
-      <c r="P11" s="101"/>
+      <c r="P11" s="102"/>
       <c r="Q11" s="38" t="s">
         <v>131</v>
       </c>
@@ -20358,7 +20358,7 @@
         <f t="shared" si="3"/>
         <v>615.52734113907638</v>
       </c>
-      <c r="AE11" s="101"/>
+      <c r="AE11" s="102"/>
       <c r="AF11" s="38" t="s">
         <v>131</v>
       </c>
@@ -20418,7 +20418,7 @@
       </c>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B12" s="101"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="38" t="s">
         <v>132</v>
       </c>
@@ -20441,7 +20441,7 @@
       <c r="N12">
         <v>6</v>
       </c>
-      <c r="P12" s="101"/>
+      <c r="P12" s="102"/>
       <c r="Q12" s="38" t="s">
         <v>132</v>
       </c>
@@ -20473,7 +20473,7 @@
         <f t="shared" si="3"/>
         <v>347.60129055553773</v>
       </c>
-      <c r="AE12" s="101"/>
+      <c r="AE12" s="102"/>
       <c r="AF12" s="38" t="s">
         <v>132</v>
       </c>
@@ -20533,7 +20533,7 @@
       </c>
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B13" s="101"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="38" t="s">
         <v>133</v>
       </c>
@@ -20550,7 +20550,7 @@
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
-      <c r="P13" s="101"/>
+      <c r="P13" s="102"/>
       <c r="Q13" s="38" t="s">
         <v>133</v>
       </c>
@@ -20582,7 +20582,7 @@
         <f t="shared" si="3"/>
         <v>-387.67721348100144</v>
       </c>
-      <c r="AE13" s="101"/>
+      <c r="AE13" s="102"/>
       <c r="AF13" s="38" t="s">
         <v>133</v>
       </c>
@@ -20642,7 +20642,7 @@
       </c>
     </row>
     <row r="14" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B14" s="101"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="38" t="s">
         <v>134</v>
       </c>
@@ -20659,7 +20659,7 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
-      <c r="P14" s="101"/>
+      <c r="P14" s="102"/>
       <c r="Q14" s="38" t="s">
         <v>134</v>
       </c>
@@ -20691,7 +20691,7 @@
         <f t="shared" si="3"/>
         <v>-1976.1119786686893</v>
       </c>
-      <c r="AE14" s="101"/>
+      <c r="AE14" s="102"/>
       <c r="AF14" s="38" t="s">
         <v>134</v>
       </c>
@@ -20751,12 +20751,12 @@
       </c>
     </row>
     <row r="15" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
       <c r="F15" s="38">
         <v>2</v>
       </c>
@@ -20774,10 +20774,10 @@
       <c r="S15" s="38"/>
       <c r="Z15" s="23"/>
       <c r="AA15" s="23"/>
-      <c r="AE15" s="104" t="s">
+      <c r="AE15" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="AF15" s="105"/>
+      <c r="AF15" s="106"/>
       <c r="AG15" s="41"/>
       <c r="AH15" s="47"/>
       <c r="AI15" s="47"/>
@@ -20819,10 +20819,10 @@
       </c>
     </row>
     <row r="16" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="106"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="38">
         <v>1</v>
       </c>
@@ -20840,7 +20840,7 @@
       </c>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
-      <c r="P16" s="101" t="s">
+      <c r="P16" s="102" t="s">
         <v>145</v>
       </c>
       <c r="Q16" s="38" t="s">
@@ -20874,7 +20874,7 @@
         <f t="shared" si="3"/>
         <v>16311.513935589222</v>
       </c>
-      <c r="AE16" s="101" t="s">
+      <c r="AE16" s="102" t="s">
         <v>145</v>
       </c>
       <c r="AF16" s="38" t="s">
@@ -20906,7 +20906,7 @@
       </c>
     </row>
     <row r="17" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="102" t="s">
         <v>145</v>
       </c>
       <c r="C17" s="38" t="s">
@@ -20929,7 +20929,7 @@
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
-      <c r="P17" s="101"/>
+      <c r="P17" s="102"/>
       <c r="Q17" s="38" t="s">
         <v>131</v>
       </c>
@@ -20961,7 +20961,7 @@
         <f t="shared" si="3"/>
         <v>20304.182833230087</v>
       </c>
-      <c r="AE17" s="101"/>
+      <c r="AE17" s="102"/>
       <c r="AF17" s="38" t="s">
         <v>131</v>
       </c>
@@ -21021,7 +21021,7 @@
       </c>
     </row>
     <row r="18" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B18" s="101"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="38" t="s">
         <v>131</v>
       </c>
@@ -21042,7 +21042,7 @@
       </c>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
-      <c r="P18" s="101"/>
+      <c r="P18" s="102"/>
       <c r="Q18" s="38" t="s">
         <v>132</v>
       </c>
@@ -21074,7 +21074,7 @@
         <f t="shared" si="3"/>
         <v>22744.700040629046</v>
       </c>
-      <c r="AE18" s="101"/>
+      <c r="AE18" s="102"/>
       <c r="AF18" s="38" t="s">
         <v>132</v>
       </c>
@@ -21134,7 +21134,7 @@
       </c>
     </row>
     <row r="19" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B19" s="101"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="38" t="s">
         <v>132</v>
       </c>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
-      <c r="P19" s="101"/>
+      <c r="P19" s="102"/>
       <c r="Q19" s="38" t="s">
         <v>133</v>
       </c>
@@ -21187,7 +21187,7 @@
         <f t="shared" si="3"/>
         <v>24956.570263531386</v>
       </c>
-      <c r="AE19" s="101"/>
+      <c r="AE19" s="102"/>
       <c r="AF19" s="38" t="s">
         <v>133</v>
       </c>
@@ -21247,7 +21247,7 @@
       </c>
     </row>
     <row r="20" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B20" s="101"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="38" t="s">
         <v>133</v>
       </c>
@@ -21268,7 +21268,7 @@
       </c>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
-      <c r="P20" s="101"/>
+      <c r="P20" s="102"/>
       <c r="Q20" s="38" t="s">
         <v>134</v>
       </c>
@@ -21300,7 +21300,7 @@
         <f t="shared" si="3"/>
         <v>27226.705694060194</v>
       </c>
-      <c r="AE20" s="101"/>
+      <c r="AE20" s="102"/>
       <c r="AF20" s="38" t="s">
         <v>134</v>
       </c>
@@ -21360,7 +21360,7 @@
       </c>
     </row>
     <row r="21" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="101"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="38" t="s">
         <v>134</v>
       </c>
@@ -21385,7 +21385,7 @@
         <f>E21/E17</f>
         <v>0.96534552327566547</v>
       </c>
-      <c r="P21" s="101" t="s">
+      <c r="P21" s="102" t="s">
         <v>146</v>
       </c>
       <c r="Q21" s="38" t="s">
@@ -21419,7 +21419,7 @@
         <f t="shared" si="3"/>
         <v>3139.3172019960457</v>
       </c>
-      <c r="AE21" s="101" t="s">
+      <c r="AE21" s="102" t="s">
         <v>146</v>
       </c>
       <c r="AF21" s="38" t="s">
@@ -21481,7 +21481,7 @@
       </c>
     </row>
     <row r="22" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="102" t="s">
         <v>146</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -21504,7 +21504,7 @@
       </c>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
-      <c r="P22" s="101"/>
+      <c r="P22" s="102"/>
       <c r="Q22" s="38" t="s">
         <v>131</v>
       </c>
@@ -21536,7 +21536,7 @@
         <f t="shared" si="3"/>
         <v>4074.6675459915</v>
       </c>
-      <c r="AE22" s="101"/>
+      <c r="AE22" s="102"/>
       <c r="AF22" s="38" t="s">
         <v>131</v>
       </c>
@@ -21566,7 +21566,7 @@
       </c>
     </row>
     <row r="23" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B23" s="101"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="38" t="s">
         <v>131</v>
       </c>
@@ -21587,7 +21587,7 @@
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
-      <c r="P23" s="101"/>
+      <c r="P23" s="102"/>
       <c r="Q23" s="38" t="s">
         <v>132</v>
       </c>
@@ -21619,7 +21619,7 @@
         <f t="shared" si="3"/>
         <v>4360.1499340518549</v>
       </c>
-      <c r="AE23" s="101"/>
+      <c r="AE23" s="102"/>
       <c r="AF23" s="38" t="s">
         <v>132</v>
       </c>
@@ -21679,7 +21679,7 @@
       </c>
     </row>
     <row r="24" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B24" s="101"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="38" t="s">
         <v>132</v>
       </c>
@@ -21700,7 +21700,7 @@
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="38"/>
-      <c r="P24" s="101"/>
+      <c r="P24" s="102"/>
       <c r="Q24" s="38" t="s">
         <v>133</v>
       </c>
@@ -21732,7 +21732,7 @@
         <f t="shared" si="3"/>
         <v>4614.2916830826334</v>
       </c>
-      <c r="AE24" s="101"/>
+      <c r="AE24" s="102"/>
       <c r="AF24" s="38" t="s">
         <v>133</v>
       </c>
@@ -21792,7 +21792,7 @@
       </c>
     </row>
     <row r="25" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B25" s="101"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="38" t="s">
         <v>133</v>
       </c>
@@ -21813,7 +21813,7 @@
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
-      <c r="P25" s="101"/>
+      <c r="P25" s="102"/>
       <c r="Q25" s="38" t="s">
         <v>134</v>
       </c>
@@ -21845,7 +21845,7 @@
         <f t="shared" si="3"/>
         <v>4865.763761667281</v>
       </c>
-      <c r="AE25" s="101"/>
+      <c r="AE25" s="102"/>
       <c r="AF25" s="38" t="s">
         <v>134</v>
       </c>
@@ -21905,7 +21905,7 @@
       </c>
     </row>
     <row r="26" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="101"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="38" t="s">
         <v>134</v>
       </c>
@@ -21939,10 +21939,10 @@
       <c r="R26" s="46"/>
       <c r="Z26" s="23"/>
       <c r="AA26" s="23"/>
-      <c r="AE26" s="104" t="s">
+      <c r="AE26" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="AF26" s="105"/>
+      <c r="AF26" s="106"/>
       <c r="AG26" s="41"/>
       <c r="AH26" s="47"/>
       <c r="AI26" s="47"/>
@@ -21984,12 +21984,12 @@
       </c>
     </row>
     <row r="27" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
       <c r="F27" s="38">
         <v>3</v>
       </c>
@@ -21997,7 +21997,7 @@
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
-      <c r="P27" s="101" t="s">
+      <c r="P27" s="102" t="s">
         <v>145</v>
       </c>
       <c r="Q27" s="38" t="s">
@@ -22031,7 +22031,7 @@
         <f t="shared" si="3"/>
         <v>27104.922319290239</v>
       </c>
-      <c r="AE27" s="101" t="s">
+      <c r="AE27" s="102" t="s">
         <v>145</v>
       </c>
       <c r="AF27" s="38" t="s">
@@ -22096,10 +22096,10 @@
       </c>
     </row>
     <row r="28" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="106"/>
+      <c r="C28" s="107"/>
       <c r="D28" s="38">
         <v>1</v>
       </c>
@@ -22119,7 +22119,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="38"/>
-      <c r="P28" s="101"/>
+      <c r="P28" s="102"/>
       <c r="Q28" s="38" t="s">
         <v>131</v>
       </c>
@@ -22151,7 +22151,7 @@
         <f t="shared" si="3"/>
         <v>34156.693757370624</v>
       </c>
-      <c r="AE28" s="101"/>
+      <c r="AE28" s="102"/>
       <c r="AF28" s="38" t="s">
         <v>131</v>
       </c>
@@ -22181,7 +22181,7 @@
       </c>
     </row>
     <row r="29" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="102" t="s">
         <v>145</v>
       </c>
       <c r="C29" s="38" t="s">
@@ -22206,7 +22206,7 @@
         <v>28635.60052290684</v>
       </c>
       <c r="J29" s="38"/>
-      <c r="P29" s="101"/>
+      <c r="P29" s="102"/>
       <c r="Q29" s="38" t="s">
         <v>132</v>
       </c>
@@ -22238,7 +22238,7 @@
         <f t="shared" si="3"/>
         <v>39271.10230535856</v>
       </c>
-      <c r="AE29" s="101"/>
+      <c r="AE29" s="102"/>
       <c r="AF29" s="38" t="s">
         <v>132</v>
       </c>
@@ -22298,7 +22298,7 @@
       </c>
     </row>
     <row r="30" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B30" s="101"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="38" t="s">
         <v>131</v>
       </c>
@@ -22321,7 +22321,7 @@
         <v>27993.904349780096</v>
       </c>
       <c r="J30" s="38"/>
-      <c r="P30" s="101"/>
+      <c r="P30" s="102"/>
       <c r="Q30" s="38" t="s">
         <v>133</v>
       </c>
@@ -22353,7 +22353,7 @@
         <f t="shared" si="3"/>
         <v>42134.278836835016</v>
       </c>
-      <c r="AE30" s="101"/>
+      <c r="AE30" s="102"/>
       <c r="AF30" s="38" t="s">
         <v>133</v>
       </c>
@@ -22413,7 +22413,7 @@
       </c>
     </row>
     <row r="31" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B31" s="101"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="38" t="s">
         <v>132</v>
       </c>
@@ -22436,7 +22436,7 @@
         <v>25207.25109399252</v>
       </c>
       <c r="J31" s="38"/>
-      <c r="P31" s="101"/>
+      <c r="P31" s="102"/>
       <c r="Q31" s="38" t="s">
         <v>134</v>
       </c>
@@ -22468,7 +22468,7 @@
         <f t="shared" si="3"/>
         <v>46360.090899656796</v>
       </c>
-      <c r="AE31" s="101"/>
+      <c r="AE31" s="102"/>
       <c r="AF31" s="38" t="s">
         <v>134</v>
       </c>
@@ -22528,7 +22528,7 @@
       </c>
     </row>
     <row r="32" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="101"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="38" t="s">
         <v>133</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>20212.48242241914</v>
       </c>
       <c r="J32" s="38"/>
-      <c r="P32" s="101" t="s">
+      <c r="P32" s="102" t="s">
         <v>146</v>
       </c>
       <c r="Q32" s="38" t="s">
@@ -22585,7 +22585,7 @@
         <f t="shared" si="3"/>
         <v>5716.0537369308704</v>
       </c>
-      <c r="AE32" s="101" t="s">
+      <c r="AE32" s="102" t="s">
         <v>146</v>
       </c>
       <c r="AF32" s="38" t="s">
@@ -22650,7 +22650,7 @@
       </c>
     </row>
     <row r="33" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B33" s="101"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="38" t="s">
         <v>134</v>
       </c>
@@ -22677,7 +22677,7 @@
         <f>F33/F29</f>
         <v>1.0128850985152742</v>
       </c>
-      <c r="P33" s="101"/>
+      <c r="P33" s="102"/>
       <c r="Q33" s="38" t="s">
         <v>131</v>
       </c>
@@ -22709,7 +22709,7 @@
         <f t="shared" si="3"/>
         <v>7458.8110911936074</v>
       </c>
-      <c r="AE33" s="101"/>
+      <c r="AE33" s="102"/>
       <c r="AF33" s="38" t="s">
         <v>131</v>
       </c>
@@ -22769,7 +22769,7 @@
       </c>
     </row>
     <row r="34" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="102" t="s">
         <v>146</v>
       </c>
       <c r="C34" s="38" t="s">
@@ -22794,7 +22794,7 @@
         <v>-6390.3273378037811</v>
       </c>
       <c r="J34" s="38"/>
-      <c r="P34" s="101"/>
+      <c r="P34" s="102"/>
       <c r="Q34" s="38" t="s">
         <v>132</v>
       </c>
@@ -22826,7 +22826,7 @@
         <f t="shared" si="3"/>
         <v>8431.6263174650139</v>
       </c>
-      <c r="AE34" s="101"/>
+      <c r="AE34" s="102"/>
       <c r="AF34" s="38" t="s">
         <v>132</v>
       </c>
@@ -22853,7 +22853,7 @@
       <c r="AL34" s="1"/>
     </row>
     <row r="35" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B35" s="101"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="38" t="s">
         <v>131</v>
       </c>
@@ -22876,7 +22876,7 @@
         <v>-7196.9427734258406</v>
       </c>
       <c r="J35" s="38"/>
-      <c r="P35" s="101"/>
+      <c r="P35" s="102"/>
       <c r="Q35" s="38" t="s">
         <v>133</v>
       </c>
@@ -22908,7 +22908,7 @@
         <f t="shared" si="3"/>
         <v>8872.1345964742159</v>
       </c>
-      <c r="AE35" s="101"/>
+      <c r="AE35" s="102"/>
       <c r="AF35" s="38" t="s">
         <v>133</v>
       </c>
@@ -22935,7 +22935,7 @@
       <c r="AL35" s="1"/>
     </row>
     <row r="36" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B36" s="101"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="38" t="s">
         <v>132</v>
       </c>
@@ -22958,7 +22958,7 @@
         <v>-11230.326031033499</v>
       </c>
       <c r="J36" s="38"/>
-      <c r="P36" s="101"/>
+      <c r="P36" s="102"/>
       <c r="Q36" s="38" t="s">
         <v>134</v>
       </c>
@@ -22990,7 +22990,7 @@
         <f t="shared" si="3"/>
         <v>9255.0150476974104</v>
       </c>
-      <c r="AE36" s="101"/>
+      <c r="AE36" s="102"/>
       <c r="AF36" s="38" t="s">
         <v>134</v>
       </c>
@@ -23017,7 +23017,7 @@
       <c r="AL36" s="1"/>
     </row>
     <row r="37" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="101"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="38" t="s">
         <v>133</v>
       </c>
@@ -23049,26 +23049,26 @@
       <c r="R37" s="44"/>
       <c r="Z37" s="23"/>
       <c r="AA37" s="23"/>
-      <c r="AE37" s="104" t="s">
+      <c r="AE37" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="AF37" s="105"/>
+      <c r="AF37" s="106"/>
       <c r="AG37" s="41"/>
       <c r="AH37" s="47"/>
       <c r="AI37" s="47"/>
       <c r="AJ37" s="47"/>
       <c r="AK37" s="47"/>
       <c r="AL37" s="1"/>
-      <c r="AP37" s="97" t="s">
+      <c r="AP37" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="AQ37" s="97"/>
-      <c r="AR37" s="97"/>
-      <c r="AS37" s="97"/>
-      <c r="AT37" s="97"/>
+      <c r="AQ37" s="98"/>
+      <c r="AR37" s="98"/>
+      <c r="AS37" s="98"/>
+      <c r="AT37" s="98"/>
     </row>
     <row r="38" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="101"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="38" t="s">
         <v>134</v>
       </c>
@@ -23091,7 +23091,7 @@
         <v>-30991.890837636962</v>
       </c>
       <c r="J38" s="38"/>
-      <c r="P38" s="101" t="s">
+      <c r="P38" s="102" t="s">
         <v>145</v>
       </c>
       <c r="Q38" s="38" t="s">
@@ -23125,7 +23125,7 @@
         <f t="shared" si="3"/>
         <v>37622.836807882857</v>
       </c>
-      <c r="AE38" s="101" t="s">
+      <c r="AE38" s="102" t="s">
         <v>145</v>
       </c>
       <c r="AF38" s="38" t="s">
@@ -23155,28 +23155,28 @@
       <c r="AN38" t="s">
         <v>145</v>
       </c>
-      <c r="AO38" s="108" t="s">
+      <c r="AO38" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="AP38" s="107" t="s">
+      <c r="AP38" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="AQ38" s="97" t="s">
+      <c r="AQ38" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="AR38" s="97"/>
-      <c r="AS38" s="97" t="s">
+      <c r="AR38" s="98"/>
+      <c r="AS38" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="AT38" s="97"/>
+      <c r="AT38" s="98"/>
     </row>
     <row r="39" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
       <c r="F39" s="38">
         <v>4</v>
       </c>
@@ -23184,7 +23184,7 @@
       <c r="H39" s="38"/>
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
-      <c r="P39" s="101"/>
+      <c r="P39" s="102"/>
       <c r="Q39" s="38" t="s">
         <v>131</v>
       </c>
@@ -23216,7 +23216,7 @@
         <f t="shared" si="3"/>
         <v>47250.999800834594</v>
       </c>
-      <c r="AE39" s="101"/>
+      <c r="AE39" s="102"/>
       <c r="AF39" s="38" t="s">
         <v>131</v>
       </c>
@@ -23241,8 +23241,8 @@
         <v>149313.15937063732</v>
       </c>
       <c r="AL39" s="1"/>
-      <c r="AO39" s="108"/>
-      <c r="AP39" s="107"/>
+      <c r="AO39" s="109"/>
+      <c r="AP39" s="108"/>
       <c r="AQ39" s="25" t="s">
         <v>151</v>
       </c>
@@ -23257,10 +23257,10 @@
       </c>
     </row>
     <row r="40" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B40" s="106" t="s">
+      <c r="B40" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="106"/>
+      <c r="C40" s="107"/>
       <c r="D40" s="67">
         <v>1</v>
       </c>
@@ -23282,7 +23282,7 @@
       <c r="J40" s="67">
         <v>7</v>
       </c>
-      <c r="P40" s="101"/>
+      <c r="P40" s="102"/>
       <c r="Q40" s="38" t="s">
         <v>132</v>
       </c>
@@ -23314,7 +23314,7 @@
         <f t="shared" si="3"/>
         <v>54583.752387103043</v>
       </c>
-      <c r="AE40" s="101"/>
+      <c r="AE40" s="102"/>
       <c r="AF40" s="38" t="s">
         <v>132</v>
       </c>
@@ -23359,7 +23359,7 @@
       </c>
     </row>
     <row r="41" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B41" s="101" t="s">
+      <c r="B41" s="102" t="s">
         <v>145</v>
       </c>
       <c r="C41" s="38" t="s">
@@ -23390,7 +23390,7 @@
         <f>G45/H41</f>
         <v>0.95899676877309115</v>
       </c>
-      <c r="P41" s="101"/>
+      <c r="P41" s="102"/>
       <c r="Q41" s="38" t="s">
         <v>133</v>
       </c>
@@ -23422,7 +23422,7 @@
         <f t="shared" si="3"/>
         <v>59560.984992440273</v>
       </c>
-      <c r="AE41" s="101"/>
+      <c r="AE41" s="102"/>
       <c r="AF41" s="38" t="s">
         <v>133</v>
       </c>
@@ -23467,7 +23467,7 @@
       </c>
     </row>
     <row r="42" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B42" s="101"/>
+      <c r="B42" s="102"/>
       <c r="C42" s="38" t="s">
         <v>131</v>
       </c>
@@ -23492,7 +23492,7 @@
       <c r="J42" s="70">
         <v>44982.301560093802</v>
       </c>
-      <c r="P42" s="101"/>
+      <c r="P42" s="102"/>
       <c r="Q42" s="38" t="s">
         <v>134</v>
       </c>
@@ -23524,7 +23524,7 @@
         <f t="shared" si="3"/>
         <v>65161.070026466674</v>
       </c>
-      <c r="AE42" s="101"/>
+      <c r="AE42" s="102"/>
       <c r="AF42" s="38" t="s">
         <v>134</v>
       </c>
@@ -23569,7 +23569,7 @@
       </c>
     </row>
     <row r="43" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="101"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="38" t="s">
         <v>132</v>
       </c>
@@ -23594,7 +23594,7 @@
       <c r="J43" s="70">
         <v>42839.267994516071</v>
       </c>
-      <c r="P43" s="101" t="s">
+      <c r="P43" s="102" t="s">
         <v>146</v>
       </c>
       <c r="Q43" s="38" t="s">
@@ -23628,7 +23628,7 @@
         <f t="shared" si="3"/>
         <v>8176.6159607578566</v>
       </c>
-      <c r="AE43" s="101" t="s">
+      <c r="AE43" s="102" t="s">
         <v>146</v>
       </c>
       <c r="AF43" s="38" t="s">
@@ -23678,7 +23678,7 @@
       </c>
     </row>
     <row r="44" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B44" s="101"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="38" t="s">
         <v>133</v>
       </c>
@@ -23703,7 +23703,7 @@
       <c r="J44" s="70">
         <v>38567.351124303685</v>
       </c>
-      <c r="P44" s="101"/>
+      <c r="P44" s="102"/>
       <c r="Q44" s="38" t="s">
         <v>131</v>
       </c>
@@ -23735,7 +23735,7 @@
         <f t="shared" si="3"/>
         <v>10698.536955056981</v>
       </c>
-      <c r="AE44" s="101"/>
+      <c r="AE44" s="102"/>
       <c r="AF44" s="38" t="s">
         <v>131</v>
       </c>
@@ -23780,7 +23780,7 @@
       </c>
     </row>
     <row r="45" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B45" s="101"/>
+      <c r="B45" s="102"/>
       <c r="C45" s="38" t="s">
         <v>134</v>
       </c>
@@ -23805,7 +23805,7 @@
       <c r="J45" s="70">
         <v>30131.552772913132</v>
       </c>
-      <c r="P45" s="101"/>
+      <c r="P45" s="102"/>
       <c r="Q45" s="38" t="s">
         <v>132</v>
       </c>
@@ -23837,7 +23837,7 @@
         <f t="shared" si="3"/>
         <v>12273.894279800106</v>
       </c>
-      <c r="AE45" s="101"/>
+      <c r="AE45" s="102"/>
       <c r="AF45" s="38" t="s">
         <v>132</v>
       </c>
@@ -23867,7 +23867,7 @@
       </c>
     </row>
     <row r="46" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B46" s="101" t="s">
+      <c r="B46" s="102" t="s">
         <v>146</v>
       </c>
       <c r="C46" s="38" t="s">
@@ -23894,7 +23894,7 @@
       <c r="J46" s="70">
         <v>1982.580136435374</v>
       </c>
-      <c r="P46" s="101"/>
+      <c r="P46" s="102"/>
       <c r="Q46" s="38" t="s">
         <v>133</v>
       </c>
@@ -23926,7 +23926,7 @@
         <f t="shared" si="3"/>
         <v>12852.36298772273</v>
       </c>
-      <c r="AE46" s="101"/>
+      <c r="AE46" s="102"/>
       <c r="AF46" s="38" t="s">
         <v>133</v>
       </c>
@@ -23971,7 +23971,7 @@
       </c>
     </row>
     <row r="47" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B47" s="101"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="38" t="s">
         <v>131</v>
       </c>
@@ -23996,7 +23996,7 @@
       <c r="J47" s="70">
         <v>1706.790334608989</v>
       </c>
-      <c r="P47" s="101"/>
+      <c r="P47" s="102"/>
       <c r="Q47" s="38" t="s">
         <v>134</v>
       </c>
@@ -24028,7 +24028,7 @@
         <f t="shared" si="3"/>
         <v>13287.735582113488</v>
       </c>
-      <c r="AE47" s="101"/>
+      <c r="AE47" s="102"/>
       <c r="AF47" s="38" t="s">
         <v>134</v>
       </c>
@@ -24073,7 +24073,7 @@
       </c>
     </row>
     <row r="48" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="101"/>
+      <c r="B48" s="102"/>
       <c r="C48" s="38" t="s">
         <v>132</v>
       </c>
@@ -24107,10 +24107,10 @@
       <c r="R48" s="44"/>
       <c r="Z48" s="23"/>
       <c r="AA48" s="23"/>
-      <c r="AE48" s="104" t="s">
+      <c r="AE48" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="AF48" s="105"/>
+      <c r="AF48" s="106"/>
       <c r="AG48" s="41"/>
       <c r="AH48" s="47"/>
       <c r="AI48" s="47"/>
@@ -24137,7 +24137,7 @@
       </c>
     </row>
     <row r="49" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="101"/>
+      <c r="B49" s="102"/>
       <c r="C49" s="38" t="s">
         <v>133</v>
       </c>
@@ -24162,7 +24162,7 @@
       <c r="J49" s="70">
         <v>-9022.3420020931408</v>
       </c>
-      <c r="P49" s="101" t="s">
+      <c r="P49" s="102" t="s">
         <v>145</v>
       </c>
       <c r="Q49" s="38" t="s">
@@ -24196,7 +24196,7 @@
         <f t="shared" si="3"/>
         <v>47931.073388178796</v>
       </c>
-      <c r="AE49" s="101" t="s">
+      <c r="AE49" s="102" t="s">
         <v>145</v>
       </c>
       <c r="AF49" s="38" t="s">
@@ -24246,7 +24246,7 @@
       </c>
     </row>
     <row r="50" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B50" s="101"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="38" t="s">
         <v>134</v>
       </c>
@@ -24271,7 +24271,7 @@
       <c r="J50" s="70">
         <v>-21336.014090000121</v>
       </c>
-      <c r="P50" s="101"/>
+      <c r="P50" s="102"/>
       <c r="Q50" s="38" t="s">
         <v>131</v>
       </c>
@@ -24303,7 +24303,7 @@
         <f t="shared" si="3"/>
         <v>60498.598148096884</v>
       </c>
-      <c r="AE50" s="101"/>
+      <c r="AE50" s="102"/>
       <c r="AF50" s="38" t="s">
         <v>131</v>
       </c>
@@ -24348,12 +24348,12 @@
       </c>
     </row>
     <row r="51" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B51" s="106" t="s">
+      <c r="B51" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
       <c r="F51" s="38">
         <v>5</v>
       </c>
@@ -24361,7 +24361,7 @@
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
-      <c r="P51" s="101"/>
+      <c r="P51" s="102"/>
       <c r="Q51" s="38" t="s">
         <v>132</v>
       </c>
@@ -24393,7 +24393,7 @@
         <f t="shared" si="3"/>
         <v>69706.109102472779</v>
       </c>
-      <c r="AE51" s="101"/>
+      <c r="AE51" s="102"/>
       <c r="AF51" s="38" t="s">
         <v>132</v>
       </c>
@@ -24423,10 +24423,10 @@
       </c>
     </row>
     <row r="52" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B52" s="106" t="s">
+      <c r="B52" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="106"/>
+      <c r="C52" s="107"/>
       <c r="D52" s="38">
         <v>1</v>
       </c>
@@ -24451,7 +24451,7 @@
       <c r="K52" s="38">
         <v>8</v>
       </c>
-      <c r="P52" s="101"/>
+      <c r="P52" s="102"/>
       <c r="Q52" s="38" t="s">
         <v>133</v>
       </c>
@@ -24483,7 +24483,7 @@
         <f t="shared" si="3"/>
         <v>76127.389604174343</v>
       </c>
-      <c r="AE52" s="101"/>
+      <c r="AE52" s="102"/>
       <c r="AF52" s="38" t="s">
         <v>133</v>
       </c>
@@ -24528,7 +24528,7 @@
       </c>
     </row>
     <row r="53" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B53" s="101" t="s">
+      <c r="B53" s="102" t="s">
         <v>145</v>
       </c>
       <c r="C53" s="38" t="s">
@@ -24562,7 +24562,7 @@
         <f>H57/I53</f>
         <v>0.97760424317136874</v>
       </c>
-      <c r="P53" s="101"/>
+      <c r="P53" s="102"/>
       <c r="Q53" s="38" t="s">
         <v>134</v>
       </c>
@@ -24594,7 +24594,7 @@
         <f t="shared" si="3"/>
         <v>83575.927222888306</v>
       </c>
-      <c r="AE53" s="101"/>
+      <c r="AE53" s="102"/>
       <c r="AF53" s="38" t="s">
         <v>134</v>
       </c>
@@ -24639,7 +24639,7 @@
       </c>
     </row>
     <row r="54" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="101"/>
+      <c r="B54" s="102"/>
       <c r="C54" s="38" t="s">
         <v>131</v>
       </c>
@@ -24667,7 +24667,7 @@
       <c r="K54" s="70">
         <v>59784.761339555756</v>
       </c>
-      <c r="P54" s="101" t="s">
+      <c r="P54" s="102" t="s">
         <v>146</v>
       </c>
       <c r="Q54" s="38" t="s">
@@ -24701,7 +24701,7 @@
         <f t="shared" si="3"/>
         <v>10530.517065190064</v>
       </c>
-      <c r="AE54" s="101" t="s">
+      <c r="AE54" s="102" t="s">
         <v>146</v>
       </c>
       <c r="AF54" s="38" t="s">
@@ -24751,7 +24751,7 @@
       </c>
     </row>
     <row r="55" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B55" s="101"/>
+      <c r="B55" s="102"/>
       <c r="C55" s="38" t="s">
         <v>132</v>
       </c>
@@ -24779,7 +24779,7 @@
       <c r="K55" s="70">
         <v>58121.924492034239</v>
       </c>
-      <c r="P55" s="101"/>
+      <c r="P55" s="102"/>
       <c r="Q55" s="38" t="s">
         <v>131</v>
       </c>
@@ -24811,7 +24811,7 @@
         <f t="shared" si="3"/>
         <v>13846.398580940873</v>
       </c>
-      <c r="AE55" s="101"/>
+      <c r="AE55" s="102"/>
       <c r="AF55" s="38" t="s">
         <v>131</v>
       </c>
@@ -24856,7 +24856,7 @@
       </c>
     </row>
     <row r="56" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B56" s="101"/>
+      <c r="B56" s="102"/>
       <c r="C56" s="38" t="s">
         <v>133</v>
       </c>
@@ -24884,7 +24884,7 @@
       <c r="K56" s="70">
         <v>54344.013663927923</v>
       </c>
-      <c r="P56" s="101"/>
+      <c r="P56" s="102"/>
       <c r="Q56" s="38" t="s">
         <v>132</v>
       </c>
@@ -24916,7 +24916,7 @@
         <f t="shared" si="3"/>
         <v>15899.593776973097</v>
       </c>
-      <c r="AE56" s="101"/>
+      <c r="AE56" s="102"/>
       <c r="AF56" s="38" t="s">
         <v>132</v>
       </c>
@@ -24961,7 +24961,7 @@
       </c>
     </row>
     <row r="57" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B57" s="101"/>
+      <c r="B57" s="102"/>
       <c r="C57" s="38" t="s">
         <v>134</v>
       </c>
@@ -24989,7 +24989,7 @@
       <c r="K57" s="70">
         <v>46887.992196092877</v>
       </c>
-      <c r="P57" s="101"/>
+      <c r="P57" s="102"/>
       <c r="Q57" s="38" t="s">
         <v>133</v>
       </c>
@@ -25021,7 +25021,7 @@
         <f t="shared" si="3"/>
         <v>16571.782871064424</v>
       </c>
-      <c r="AE57" s="101"/>
+      <c r="AE57" s="102"/>
       <c r="AF57" s="38" t="s">
         <v>133</v>
       </c>
@@ -25051,7 +25051,7 @@
       </c>
     </row>
     <row r="58" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B58" s="101" t="s">
+      <c r="B58" s="102" t="s">
         <v>146</v>
       </c>
       <c r="C58" s="38" t="s">
@@ -25081,7 +25081,7 @@
       <c r="K58" s="70">
         <v>8561.9984494517594</v>
       </c>
-      <c r="P58" s="101"/>
+      <c r="P58" s="102"/>
       <c r="Q58" s="38" t="s">
         <v>134</v>
       </c>
@@ -25113,7 +25113,7 @@
         <f t="shared" si="3"/>
         <v>17528.646081329964</v>
       </c>
-      <c r="AE58" s="101"/>
+      <c r="AE58" s="102"/>
       <c r="AF58" s="38" t="s">
         <v>134</v>
       </c>
@@ -25158,7 +25158,7 @@
       </c>
     </row>
     <row r="59" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B59" s="101"/>
+      <c r="B59" s="102"/>
       <c r="C59" s="38" t="s">
         <v>131</v>
       </c>
@@ -25206,7 +25206,7 @@
       </c>
     </row>
     <row r="60" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B60" s="101"/>
+      <c r="B60" s="102"/>
       <c r="C60" s="38" t="s">
         <v>132</v>
       </c>
@@ -25254,7 +25254,7 @@
       </c>
     </row>
     <row r="61" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B61" s="101"/>
+      <c r="B61" s="102"/>
       <c r="C61" s="38" t="s">
         <v>133</v>
       </c>
@@ -25302,7 +25302,7 @@
       </c>
     </row>
     <row r="62" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B62" s="101"/>
+      <c r="B62" s="102"/>
       <c r="C62" s="38" t="s">
         <v>134</v>
       </c>
@@ -25725,8 +25725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09597035-2B23-41FD-A36C-C3FE4A949DE5}">
   <dimension ref="C3:AH86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7:AG11"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26124,31 +26124,31 @@
       <c r="F15" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G15" s="108" t="s">
+      <c r="G15" s="109" t="s">
         <v>172</v>
       </c>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108" t="s">
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109" t="s">
         <v>173</v>
       </c>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108" t="s">
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="100" t="s">
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100" t="s">
+      <c r="Q15" s="101"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="101" t="s">
         <v>176</v>
       </c>
-      <c r="T15" s="100"/>
-      <c r="U15" s="100"/>
+      <c r="T15" s="101"/>
+      <c r="U15" s="101"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
@@ -26999,31 +26999,31 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="108" t="s">
+      <c r="G36" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="108" t="s">
+      <c r="H36" s="109"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109" t="s">
         <v>178</v>
       </c>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108" t="s">
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="N36" s="108"/>
-      <c r="O36" s="108"/>
-      <c r="P36" s="100" t="s">
+      <c r="N36" s="109"/>
+      <c r="O36" s="109"/>
+      <c r="P36" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="Q36" s="100"/>
-      <c r="R36" s="100"/>
-      <c r="S36" s="100" t="s">
+      <c r="Q36" s="101"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="T36" s="100"/>
-      <c r="U36" s="100"/>
+      <c r="T36" s="101"/>
+      <c r="U36" s="101"/>
     </row>
     <row r="37" spans="3:21" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
@@ -28094,8 +28094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CA330D-FC18-4EAC-ACC7-2296D1A4D9C0}">
   <dimension ref="B2:AY80"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A49" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28131,28 +28131,28 @@
       <c r="P2">
         <v>365</v>
       </c>
-      <c r="AP2" s="97" t="s">
+      <c r="AP2" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97" t="s">
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="AV2" s="97"/>
-      <c r="AW2" s="97"/>
-      <c r="AX2" s="97"/>
-      <c r="AY2" s="97"/>
+      <c r="AV2" s="98"/>
+      <c r="AW2" s="98"/>
+      <c r="AX2" s="98"/>
+      <c r="AY2" s="98"/>
     </row>
     <row r="3" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
       <c r="F3" s="38">
         <v>1</v>
       </c>
@@ -28160,50 +28160,50 @@
       <c r="H3" s="38"/>
       <c r="I3" s="38"/>
       <c r="J3" s="38"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="102" t="s">
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="AH3" s="106" t="s">
+      <c r="AH3" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="AI3" s="106"/>
-      <c r="AJ3" s="106" t="s">
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="AK3" s="106"/>
-      <c r="AO3" s="108" t="s">
+      <c r="AK3" s="107"/>
+      <c r="AO3" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="AP3" s="107" t="s">
+      <c r="AP3" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="AQ3" s="97" t="s">
+      <c r="AQ3" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="AR3" s="97"/>
-      <c r="AS3" s="97" t="s">
+      <c r="AR3" s="98"/>
+      <c r="AS3" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="AT3" s="97"/>
-      <c r="AU3" s="107" t="s">
+      <c r="AT3" s="98"/>
+      <c r="AU3" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="AV3" s="97" t="s">
+      <c r="AV3" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="AW3" s="97"/>
-      <c r="AX3" s="97" t="s">
+      <c r="AW3" s="98"/>
+      <c r="AX3" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="AY3" s="97"/>
+      <c r="AY3" s="98"/>
     </row>
     <row r="4" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="106"/>
+      <c r="C4" s="107"/>
       <c r="D4" s="38">
         <v>1</v>
       </c>
@@ -28250,11 +28250,11 @@
       <c r="AA4" t="s">
         <v>150</v>
       </c>
-      <c r="AE4" s="104" t="s">
+      <c r="AE4" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="103"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="104"/>
       <c r="AH4" s="38" t="s">
         <v>151</v>
       </c>
@@ -28267,8 +28267,8 @@
       <c r="AK4" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="AO4" s="108"/>
-      <c r="AP4" s="107"/>
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="108"/>
       <c r="AQ4" s="25" t="s">
         <v>151</v>
       </c>
@@ -28281,7 +28281,7 @@
       <c r="AT4" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="AU4" s="107"/>
+      <c r="AU4" s="108"/>
       <c r="AV4" s="25" t="s">
         <v>151</v>
       </c>
@@ -28296,7 +28296,7 @@
       </c>
     </row>
     <row r="5" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="102" t="s">
         <v>145</v>
       </c>
       <c r="C5" s="38" t="s">
@@ -28315,7 +28315,7 @@
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
-      <c r="P5" s="101" t="s">
+      <c r="P5" s="102" t="s">
         <v>145</v>
       </c>
       <c r="Q5" s="38" t="s">
@@ -28349,7 +28349,7 @@
         <f>X5/2240</f>
         <v>5748.2942000015564</v>
       </c>
-      <c r="AE5" s="101" t="s">
+      <c r="AE5" s="102" t="s">
         <v>145</v>
       </c>
       <c r="AF5" s="38" t="s">
@@ -28414,7 +28414,7 @@
       </c>
     </row>
     <row r="6" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B6" s="101"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="38" t="s">
         <v>131</v>
       </c>
@@ -28431,7 +28431,7 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
-      <c r="P6" s="101"/>
+      <c r="P6" s="102"/>
       <c r="Q6" s="38" t="s">
         <v>131</v>
       </c>
@@ -28463,7 +28463,7 @@
         <f t="shared" si="2"/>
         <v>7182.3071090540325</v>
       </c>
-      <c r="AE6" s="101"/>
+      <c r="AE6" s="102"/>
       <c r="AF6" s="38" t="s">
         <v>131</v>
       </c>
@@ -28523,7 +28523,7 @@
       </c>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B7" s="101"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="38" t="s">
         <v>132</v>
       </c>
@@ -28540,7 +28540,7 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="P7" s="101"/>
+      <c r="P7" s="102"/>
       <c r="Q7" s="38" t="s">
         <v>132</v>
       </c>
@@ -28572,7 +28572,7 @@
         <f t="shared" si="2"/>
         <v>8104.0010014229574</v>
       </c>
-      <c r="AE7" s="101"/>
+      <c r="AE7" s="102"/>
       <c r="AF7" s="38" t="s">
         <v>132</v>
       </c>
@@ -28632,7 +28632,7 @@
       </c>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B8" s="101"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="38" t="s">
         <v>133</v>
       </c>
@@ -28657,7 +28657,7 @@
         <f>24/(2.5+1.25)</f>
         <v>6.4</v>
       </c>
-      <c r="P8" s="101"/>
+      <c r="P8" s="102"/>
       <c r="Q8" s="38" t="s">
         <v>133</v>
       </c>
@@ -28689,7 +28689,7 @@
         <f t="shared" si="2"/>
         <v>8415.8263068356137</v>
       </c>
-      <c r="AE8" s="101"/>
+      <c r="AE8" s="102"/>
       <c r="AF8" s="38" t="s">
         <v>133</v>
       </c>
@@ -28749,7 +28749,7 @@
       </c>
     </row>
     <row r="9" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B9" s="101"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="38" t="s">
         <v>134</v>
       </c>
@@ -28770,7 +28770,7 @@
         <f>D9/D5</f>
         <v>0.77052409594634697</v>
       </c>
-      <c r="P9" s="101"/>
+      <c r="P9" s="102"/>
       <c r="Q9" s="38" t="s">
         <v>134</v>
       </c>
@@ -28802,7 +28802,7 @@
         <f t="shared" si="2"/>
         <v>8107.7317125121244</v>
       </c>
-      <c r="AE9" s="101"/>
+      <c r="AE9" s="102"/>
       <c r="AF9" s="38" t="s">
         <v>134</v>
       </c>
@@ -28862,7 +28862,7 @@
       </c>
     </row>
     <row r="10" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="102" t="s">
         <v>146</v>
       </c>
       <c r="C10" s="38" t="s">
@@ -28881,7 +28881,7 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
-      <c r="P10" s="101" t="s">
+      <c r="P10" s="102" t="s">
         <v>146</v>
       </c>
       <c r="Q10" s="38" t="s">
@@ -28915,7 +28915,7 @@
         <f t="shared" si="2"/>
         <v>497.29839382881909</v>
       </c>
-      <c r="AE10" s="101" t="s">
+      <c r="AE10" s="102" t="s">
         <v>146</v>
       </c>
       <c r="AF10" s="38" t="s">
@@ -28951,7 +28951,7 @@
       <c r="AT10" s="23"/>
     </row>
     <row r="11" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="38" t="s">
         <v>131</v>
       </c>
@@ -28974,7 +28974,7 @@
       <c r="N11">
         <v>9</v>
       </c>
-      <c r="P11" s="101"/>
+      <c r="P11" s="102"/>
       <c r="Q11" s="38" t="s">
         <v>131</v>
       </c>
@@ -29006,7 +29006,7 @@
         <f t="shared" si="2"/>
         <v>615.52734113907638</v>
       </c>
-      <c r="AE11" s="101"/>
+      <c r="AE11" s="102"/>
       <c r="AF11" s="38" t="s">
         <v>131</v>
       </c>
@@ -29066,7 +29066,7 @@
       </c>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B12" s="101"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="38" t="s">
         <v>132</v>
       </c>
@@ -29089,7 +29089,7 @@
       <c r="N12">
         <v>6</v>
       </c>
-      <c r="P12" s="101"/>
+      <c r="P12" s="102"/>
       <c r="Q12" s="38" t="s">
         <v>132</v>
       </c>
@@ -29121,7 +29121,7 @@
         <f t="shared" si="2"/>
         <v>347.60129055553773</v>
       </c>
-      <c r="AE12" s="101"/>
+      <c r="AE12" s="102"/>
       <c r="AF12" s="38" t="s">
         <v>132</v>
       </c>
@@ -29181,7 +29181,7 @@
       </c>
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B13" s="101"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="38" t="s">
         <v>133</v>
       </c>
@@ -29198,7 +29198,7 @@
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
-      <c r="P13" s="101"/>
+      <c r="P13" s="102"/>
       <c r="Q13" s="38" t="s">
         <v>133</v>
       </c>
@@ -29230,7 +29230,7 @@
         <f t="shared" si="2"/>
         <v>-387.67721348100144</v>
       </c>
-      <c r="AE13" s="101"/>
+      <c r="AE13" s="102"/>
       <c r="AF13" s="38" t="s">
         <v>133</v>
       </c>
@@ -29290,7 +29290,7 @@
       </c>
     </row>
     <row r="14" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B14" s="101"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="38" t="s">
         <v>134</v>
       </c>
@@ -29307,7 +29307,7 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
-      <c r="P14" s="101"/>
+      <c r="P14" s="102"/>
       <c r="Q14" s="38" t="s">
         <v>134</v>
       </c>
@@ -29339,7 +29339,7 @@
         <f t="shared" si="2"/>
         <v>-1976.1119786686893</v>
       </c>
-      <c r="AE14" s="101"/>
+      <c r="AE14" s="102"/>
       <c r="AF14" s="38" t="s">
         <v>134</v>
       </c>
@@ -29399,12 +29399,12 @@
       </c>
     </row>
     <row r="15" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
       <c r="F15" s="38">
         <v>2</v>
       </c>
@@ -29422,10 +29422,10 @@
       <c r="S15" s="38"/>
       <c r="Z15" s="23"/>
       <c r="AA15" s="23"/>
-      <c r="AE15" s="104" t="s">
+      <c r="AE15" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="AF15" s="105"/>
+      <c r="AF15" s="106"/>
       <c r="AG15" s="41"/>
       <c r="AH15" s="47"/>
       <c r="AI15" s="47"/>
@@ -29467,10 +29467,10 @@
       </c>
     </row>
     <row r="16" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="106"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="38">
         <v>1</v>
       </c>
@@ -29488,7 +29488,7 @@
       </c>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
-      <c r="P16" s="101" t="s">
+      <c r="P16" s="102" t="s">
         <v>145</v>
       </c>
       <c r="Q16" s="38" t="s">
@@ -29522,7 +29522,7 @@
         <f t="shared" si="2"/>
         <v>10096.339434407977</v>
       </c>
-      <c r="AE16" s="101" t="s">
+      <c r="AE16" s="102" t="s">
         <v>145</v>
       </c>
       <c r="AF16" s="38" t="s">
@@ -29554,7 +29554,7 @@
       </c>
     </row>
     <row r="17" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="102" t="s">
         <v>145</v>
       </c>
       <c r="C17" s="38" t="s">
@@ -29577,7 +29577,7 @@
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
-      <c r="P17" s="101"/>
+      <c r="P17" s="102"/>
       <c r="Q17" s="38" t="s">
         <v>131</v>
       </c>
@@ -29609,7 +29609,7 @@
         <f t="shared" si="2"/>
         <v>12928.253406327321</v>
       </c>
-      <c r="AE17" s="101"/>
+      <c r="AE17" s="102"/>
       <c r="AF17" s="38" t="s">
         <v>131</v>
       </c>
@@ -29669,7 +29669,7 @@
       </c>
     </row>
     <row r="18" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B18" s="101"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="38" t="s">
         <v>131</v>
       </c>
@@ -29690,7 +29690,7 @@
       </c>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
-      <c r="P18" s="101"/>
+      <c r="P18" s="102"/>
       <c r="Q18" s="38" t="s">
         <v>132</v>
       </c>
@@ -29722,7 +29722,7 @@
         <f t="shared" si="2"/>
         <v>15406.457118808947</v>
       </c>
-      <c r="AE18" s="101"/>
+      <c r="AE18" s="102"/>
       <c r="AF18" s="38" t="s">
         <v>132</v>
       </c>
@@ -29782,7 +29782,7 @@
       </c>
     </row>
     <row r="19" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B19" s="101"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="38" t="s">
         <v>132</v>
       </c>
@@ -29803,7 +29803,7 @@
       </c>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
-      <c r="P19" s="101"/>
+      <c r="P19" s="102"/>
       <c r="Q19" s="38" t="s">
         <v>133</v>
       </c>
@@ -29835,7 +29835,7 @@
         <f t="shared" si="2"/>
         <v>17534.986529889087</v>
       </c>
-      <c r="AE19" s="101"/>
+      <c r="AE19" s="102"/>
       <c r="AF19" s="38" t="s">
         <v>133</v>
       </c>
@@ -29895,7 +29895,7 @@
       </c>
     </row>
     <row r="20" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B20" s="101"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="38" t="s">
         <v>133</v>
       </c>
@@ -29916,7 +29916,7 @@
       </c>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
-      <c r="P20" s="101"/>
+      <c r="P20" s="102"/>
       <c r="Q20" s="38" t="s">
         <v>134</v>
       </c>
@@ -29948,7 +29948,7 @@
         <f t="shared" si="2"/>
         <v>20572.329943206871</v>
       </c>
-      <c r="AE20" s="101"/>
+      <c r="AE20" s="102"/>
       <c r="AF20" s="38" t="s">
         <v>134</v>
       </c>
@@ -30008,7 +30008,7 @@
       </c>
     </row>
     <row r="21" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="101"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="38" t="s">
         <v>134</v>
       </c>
@@ -30033,7 +30033,7 @@
         <f>E21/E17</f>
         <v>0.96534552327566547</v>
       </c>
-      <c r="P21" s="101" t="s">
+      <c r="P21" s="102" t="s">
         <v>146</v>
       </c>
       <c r="Q21" s="38" t="s">
@@ -30067,7 +30067,7 @@
         <f t="shared" si="2"/>
         <v>2875.0286185189725</v>
       </c>
-      <c r="AE21" s="101" t="s">
+      <c r="AE21" s="102" t="s">
         <v>146</v>
       </c>
       <c r="AF21" s="38" t="s">
@@ -30129,7 +30129,7 @@
       </c>
     </row>
     <row r="22" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="102" t="s">
         <v>146</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -30152,7 +30152,7 @@
       </c>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
-      <c r="P22" s="101"/>
+      <c r="P22" s="102"/>
       <c r="Q22" s="38" t="s">
         <v>131</v>
       </c>
@@ -30184,7 +30184,7 @@
         <f t="shared" si="2"/>
         <v>3771.8175547973337</v>
       </c>
-      <c r="AE22" s="101"/>
+      <c r="AE22" s="102"/>
       <c r="AF22" s="38" t="s">
         <v>131</v>
       </c>
@@ -30214,7 +30214,7 @@
       </c>
     </row>
     <row r="23" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B23" s="101"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="38" t="s">
         <v>131</v>
       </c>
@@ -30235,7 +30235,7 @@
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
-      <c r="P23" s="101"/>
+      <c r="P23" s="102"/>
       <c r="Q23" s="38" t="s">
         <v>132</v>
       </c>
@@ -30267,7 +30267,7 @@
         <f t="shared" si="2"/>
         <v>4360.1490781127031</v>
       </c>
-      <c r="AE23" s="101"/>
+      <c r="AE23" s="102"/>
       <c r="AF23" s="38" t="s">
         <v>132</v>
       </c>
@@ -30327,7 +30327,7 @@
       </c>
     </row>
     <row r="24" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B24" s="101"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="38" t="s">
         <v>132</v>
       </c>
@@ -30348,7 +30348,7 @@
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="38"/>
-      <c r="P24" s="101"/>
+      <c r="P24" s="102"/>
       <c r="Q24" s="38" t="s">
         <v>133</v>
       </c>
@@ -30380,7 +30380,7 @@
         <f t="shared" si="2"/>
         <v>4614.290670159995</v>
       </c>
-      <c r="AE24" s="101"/>
+      <c r="AE24" s="102"/>
       <c r="AF24" s="38" t="s">
         <v>133</v>
       </c>
@@ -30440,7 +30440,7 @@
       </c>
     </row>
     <row r="25" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B25" s="101"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="38" t="s">
         <v>133</v>
       </c>
@@ -30461,7 +30461,7 @@
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
-      <c r="P25" s="101"/>
+      <c r="P25" s="102"/>
       <c r="Q25" s="38" t="s">
         <v>134</v>
       </c>
@@ -30493,7 +30493,7 @@
         <f t="shared" si="2"/>
         <v>4865.763761667281</v>
       </c>
-      <c r="AE25" s="101"/>
+      <c r="AE25" s="102"/>
       <c r="AF25" s="38" t="s">
         <v>134</v>
       </c>
@@ -30553,7 +30553,7 @@
       </c>
     </row>
     <row r="26" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="101"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="38" t="s">
         <v>134</v>
       </c>
@@ -30587,10 +30587,10 @@
       <c r="R26" s="46"/>
       <c r="Z26" s="23"/>
       <c r="AA26" s="23"/>
-      <c r="AE26" s="104" t="s">
+      <c r="AE26" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="AF26" s="105"/>
+      <c r="AF26" s="106"/>
       <c r="AG26" s="41"/>
       <c r="AH26" s="47"/>
       <c r="AI26" s="47"/>
@@ -30632,12 +30632,12 @@
       </c>
     </row>
     <row r="27" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
       <c r="F27" s="38">
         <v>3</v>
       </c>
@@ -30645,7 +30645,7 @@
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
-      <c r="P27" s="101" t="s">
+      <c r="P27" s="102" t="s">
         <v>145</v>
       </c>
       <c r="Q27" s="38" t="s">
@@ -30679,7 +30679,7 @@
         <f t="shared" si="2"/>
         <v>11627.44678651813</v>
       </c>
-      <c r="AE27" s="101" t="s">
+      <c r="AE27" s="102" t="s">
         <v>145</v>
       </c>
       <c r="AF27" s="38" t="s">
@@ -30744,10 +30744,10 @@
       </c>
     </row>
     <row r="28" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="106"/>
+      <c r="C28" s="107"/>
       <c r="D28" s="38">
         <v>1</v>
       </c>
@@ -30767,7 +30767,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="38"/>
-      <c r="P28" s="101"/>
+      <c r="P28" s="102"/>
       <c r="Q28" s="38" t="s">
         <v>131</v>
       </c>
@@ -30799,7 +30799,7 @@
         <f t="shared" si="2"/>
         <v>14962.695278861616</v>
       </c>
-      <c r="AE28" s="101"/>
+      <c r="AE28" s="102"/>
       <c r="AF28" s="38" t="s">
         <v>131</v>
       </c>
@@ -30829,7 +30829,7 @@
       </c>
     </row>
     <row r="29" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="102" t="s">
         <v>145</v>
       </c>
       <c r="C29" s="38" t="s">
@@ -30854,7 +30854,7 @@
         <v>28635.60052290684</v>
       </c>
       <c r="J29" s="38"/>
-      <c r="P29" s="101"/>
+      <c r="P29" s="102"/>
       <c r="Q29" s="38" t="s">
         <v>132</v>
       </c>
@@ -30886,7 +30886,7 @@
         <f t="shared" si="2"/>
         <v>18008.900962553937</v>
       </c>
-      <c r="AE29" s="101"/>
+      <c r="AE29" s="102"/>
       <c r="AF29" s="38" t="s">
         <v>132</v>
       </c>
@@ -30946,7 +30946,7 @@
       </c>
     </row>
     <row r="30" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B30" s="101"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="38" t="s">
         <v>131</v>
       </c>
@@ -30969,7 +30969,7 @@
         <v>27993.904349780096</v>
       </c>
       <c r="J30" s="38"/>
-      <c r="P30" s="101"/>
+      <c r="P30" s="102"/>
       <c r="Q30" s="38" t="s">
         <v>133</v>
       </c>
@@ -31001,7 +31001,7 @@
         <f t="shared" si="2"/>
         <v>20811.474511015236</v>
       </c>
-      <c r="AE30" s="101"/>
+      <c r="AE30" s="102"/>
       <c r="AF30" s="38" t="s">
         <v>133</v>
       </c>
@@ -31061,7 +31061,7 @@
       </c>
     </row>
     <row r="31" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B31" s="101"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="38" t="s">
         <v>132</v>
       </c>
@@ -31084,7 +31084,7 @@
         <v>25207.25109399252</v>
       </c>
       <c r="J31" s="38"/>
-      <c r="P31" s="101"/>
+      <c r="P31" s="102"/>
       <c r="Q31" s="38" t="s">
         <v>134</v>
       </c>
@@ -31116,7 +31116,7 @@
         <f t="shared" si="2"/>
         <v>25118.852381121153</v>
       </c>
-      <c r="AE31" s="101"/>
+      <c r="AE31" s="102"/>
       <c r="AF31" s="38" t="s">
         <v>134</v>
       </c>
@@ -31176,7 +31176,7 @@
       </c>
     </row>
     <row r="32" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="101"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="38" t="s">
         <v>133</v>
       </c>
@@ -31199,7 +31199,7 @@
         <v>20212.48242241914</v>
       </c>
       <c r="J32" s="38"/>
-      <c r="P32" s="101" t="s">
+      <c r="P32" s="102" t="s">
         <v>146</v>
       </c>
       <c r="Q32" s="38" t="s">
@@ -31233,7 +31233,7 @@
         <f t="shared" si="2"/>
         <v>3695.2570873971654</v>
       </c>
-      <c r="AE32" s="101" t="s">
+      <c r="AE32" s="102" t="s">
         <v>146</v>
       </c>
       <c r="AF32" s="38" t="s">
@@ -31298,7 +31298,7 @@
       </c>
     </row>
     <row r="33" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B33" s="101"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="38" t="s">
         <v>134</v>
       </c>
@@ -31325,7 +31325,7 @@
         <f>F33/F29</f>
         <v>1.0128850985152742</v>
       </c>
-      <c r="P33" s="101"/>
+      <c r="P33" s="102"/>
       <c r="Q33" s="38" t="s">
         <v>131</v>
       </c>
@@ -31357,7 +31357,7 @@
         <f t="shared" si="2"/>
         <v>4867.3367119446875</v>
       </c>
-      <c r="AE33" s="101"/>
+      <c r="AE33" s="102"/>
       <c r="AF33" s="38" t="s">
         <v>131</v>
       </c>
@@ -31417,7 +31417,7 @@
       </c>
     </row>
     <row r="34" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="102" t="s">
         <v>146</v>
       </c>
       <c r="C34" s="38" t="s">
@@ -31442,7 +31442,7 @@
         <v>-6390.3273378037811</v>
       </c>
       <c r="J34" s="38"/>
-      <c r="P34" s="101"/>
+      <c r="P34" s="102"/>
       <c r="Q34" s="38" t="s">
         <v>132</v>
       </c>
@@ -31474,7 +31474,7 @@
         <f t="shared" si="2"/>
         <v>5761.9396194260898</v>
       </c>
-      <c r="AE34" s="101"/>
+      <c r="AE34" s="102"/>
       <c r="AF34" s="38" t="s">
         <v>132</v>
       </c>
@@ -31501,7 +31501,7 @@
       <c r="AL34" s="1"/>
     </row>
     <row r="35" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B35" s="101"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="38" t="s">
         <v>131</v>
       </c>
@@ -31524,7 +31524,7 @@
         <v>-7196.9427734258406</v>
       </c>
       <c r="J35" s="38"/>
-      <c r="P35" s="101"/>
+      <c r="P35" s="102"/>
       <c r="Q35" s="38" t="s">
         <v>133</v>
       </c>
@@ -31556,7 +31556,7 @@
         <f t="shared" si="2"/>
         <v>6375.3149229226165</v>
       </c>
-      <c r="AE35" s="101"/>
+      <c r="AE35" s="102"/>
       <c r="AF35" s="38" t="s">
         <v>133</v>
       </c>
@@ -31583,7 +31583,7 @@
       <c r="AL35" s="1"/>
     </row>
     <row r="36" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B36" s="101"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="38" t="s">
         <v>132</v>
       </c>
@@ -31606,7 +31606,7 @@
         <v>-11230.326031033499</v>
       </c>
       <c r="J36" s="38"/>
-      <c r="P36" s="101"/>
+      <c r="P36" s="102"/>
       <c r="Q36" s="38" t="s">
         <v>134</v>
       </c>
@@ -31638,7 +31638,7 @@
         <f t="shared" si="2"/>
         <v>7310.4619315547516</v>
       </c>
-      <c r="AE36" s="101"/>
+      <c r="AE36" s="102"/>
       <c r="AF36" s="38" t="s">
         <v>134</v>
       </c>
@@ -31665,7 +31665,7 @@
       <c r="AL36" s="1"/>
     </row>
     <row r="37" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="101"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="38" t="s">
         <v>133</v>
       </c>
@@ -31697,26 +31697,26 @@
       <c r="R37" s="44"/>
       <c r="Z37" s="23"/>
       <c r="AA37" s="23"/>
-      <c r="AE37" s="104" t="s">
+      <c r="AE37" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="AF37" s="105"/>
+      <c r="AF37" s="106"/>
       <c r="AG37" s="41"/>
       <c r="AH37" s="47"/>
       <c r="AI37" s="47"/>
       <c r="AJ37" s="47"/>
       <c r="AK37" s="47"/>
       <c r="AL37" s="1"/>
-      <c r="AP37" s="97" t="s">
+      <c r="AP37" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="AQ37" s="97"/>
-      <c r="AR37" s="97"/>
-      <c r="AS37" s="97"/>
-      <c r="AT37" s="97"/>
+      <c r="AQ37" s="98"/>
+      <c r="AR37" s="98"/>
+      <c r="AS37" s="98"/>
+      <c r="AT37" s="98"/>
     </row>
     <row r="38" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="101"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="38" t="s">
         <v>134</v>
       </c>
@@ -31739,7 +31739,7 @@
         <v>-30991.890837636962</v>
       </c>
       <c r="J38" s="38"/>
-      <c r="P38" s="101" t="s">
+      <c r="P38" s="102" t="s">
         <v>145</v>
       </c>
       <c r="Q38" s="38" t="s">
@@ -31773,7 +31773,7 @@
         <f t="shared" si="2"/>
         <v>12367.289724967257</v>
       </c>
-      <c r="AE38" s="101" t="s">
+      <c r="AE38" s="102" t="s">
         <v>145</v>
       </c>
       <c r="AF38" s="38" t="s">
@@ -31803,28 +31803,28 @@
       <c r="AN38" t="s">
         <v>145</v>
       </c>
-      <c r="AO38" s="108" t="s">
+      <c r="AO38" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="AP38" s="107" t="s">
+      <c r="AP38" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="AQ38" s="97" t="s">
+      <c r="AQ38" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="AR38" s="97"/>
-      <c r="AS38" s="97" t="s">
+      <c r="AR38" s="98"/>
+      <c r="AS38" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="AT38" s="97"/>
+      <c r="AT38" s="98"/>
     </row>
     <row r="39" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
       <c r="F39" s="38">
         <v>4</v>
       </c>
@@ -31832,7 +31832,7 @@
       <c r="H39" s="38"/>
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
-      <c r="P39" s="101"/>
+      <c r="P39" s="102"/>
       <c r="Q39" s="38" t="s">
         <v>131</v>
       </c>
@@ -31864,7 +31864,7 @@
         <f t="shared" si="2"/>
         <v>15950.732875979478</v>
       </c>
-      <c r="AE39" s="101"/>
+      <c r="AE39" s="102"/>
       <c r="AF39" s="38" t="s">
         <v>131</v>
       </c>
@@ -31889,8 +31889,8 @@
         <v>50404.315888095152</v>
       </c>
       <c r="AL39" s="1"/>
-      <c r="AO39" s="108"/>
-      <c r="AP39" s="107"/>
+      <c r="AO39" s="109"/>
+      <c r="AP39" s="108"/>
       <c r="AQ39" s="25" t="s">
         <v>151</v>
       </c>
@@ -31905,10 +31905,10 @@
       </c>
     </row>
     <row r="40" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B40" s="106" t="s">
+      <c r="B40" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="106"/>
+      <c r="C40" s="107"/>
       <c r="D40" s="67">
         <v>1</v>
       </c>
@@ -31930,7 +31930,7 @@
       <c r="J40" s="67">
         <v>7</v>
       </c>
-      <c r="P40" s="101"/>
+      <c r="P40" s="102"/>
       <c r="Q40" s="38" t="s">
         <v>132</v>
       </c>
@@ -31962,7 +31962,7 @@
         <f t="shared" si="2"/>
         <v>19279.068087063777</v>
       </c>
-      <c r="AE40" s="101"/>
+      <c r="AE40" s="102"/>
       <c r="AF40" s="38" t="s">
         <v>132</v>
       </c>
@@ -32007,7 +32007,7 @@
       </c>
     </row>
     <row r="41" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B41" s="101" t="s">
+      <c r="B41" s="102" t="s">
         <v>145</v>
       </c>
       <c r="C41" s="38" t="s">
@@ -32038,7 +32038,7 @@
         <f>G45/H41</f>
         <v>0.95899676877309115</v>
       </c>
-      <c r="P41" s="101"/>
+      <c r="P41" s="102"/>
       <c r="Q41" s="38" t="s">
         <v>133</v>
       </c>
@@ -32070,7 +32070,7 @@
         <f t="shared" si="2"/>
         <v>22419.644523764273</v>
       </c>
-      <c r="AE41" s="101"/>
+      <c r="AE41" s="102"/>
       <c r="AF41" s="38" t="s">
         <v>133</v>
       </c>
@@ -32115,7 +32115,7 @@
       </c>
     </row>
     <row r="42" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B42" s="101"/>
+      <c r="B42" s="102"/>
       <c r="C42" s="38" t="s">
         <v>131</v>
       </c>
@@ -32140,7 +32140,7 @@
       <c r="J42" s="70">
         <v>44982.301560093802</v>
       </c>
-      <c r="P42" s="101"/>
+      <c r="P42" s="102"/>
       <c r="Q42" s="38" t="s">
         <v>134</v>
       </c>
@@ -32172,7 +32172,7 @@
         <f t="shared" si="2"/>
         <v>27374.08000579994</v>
       </c>
-      <c r="AE42" s="101"/>
+      <c r="AE42" s="102"/>
       <c r="AF42" s="38" t="s">
         <v>134</v>
       </c>
@@ -32217,7 +32217,7 @@
       </c>
     </row>
     <row r="43" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="101"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="38" t="s">
         <v>132</v>
       </c>
@@ -32242,7 +32242,7 @@
       <c r="J43" s="70">
         <v>42839.267994516071</v>
       </c>
-      <c r="P43" s="101" t="s">
+      <c r="P43" s="102" t="s">
         <v>146</v>
       </c>
       <c r="Q43" s="38" t="s">
@@ -32276,7 +32276,7 @@
         <f t="shared" si="2"/>
         <v>4082.7377592700873</v>
       </c>
-      <c r="AE43" s="101" t="s">
+      <c r="AE43" s="102" t="s">
         <v>146</v>
       </c>
       <c r="AF43" s="38" t="s">
@@ -32326,7 +32326,7 @@
       </c>
     </row>
     <row r="44" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B44" s="101"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="38" t="s">
         <v>133</v>
       </c>
@@ -32355,7 +32355,7 @@
         <f>D53/D5</f>
         <v>2.2223760832109933</v>
       </c>
-      <c r="P44" s="101"/>
+      <c r="P44" s="102"/>
       <c r="Q44" s="38" t="s">
         <v>131</v>
       </c>
@@ -32387,7 +32387,7 @@
         <f t="shared" si="2"/>
         <v>5388.2263080741977</v>
       </c>
-      <c r="AE44" s="101"/>
+      <c r="AE44" s="102"/>
       <c r="AF44" s="38" t="s">
         <v>131</v>
       </c>
@@ -32432,7 +32432,7 @@
       </c>
     </row>
     <row r="45" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B45" s="101"/>
+      <c r="B45" s="102"/>
       <c r="C45" s="38" t="s">
         <v>134</v>
       </c>
@@ -32457,7 +32457,7 @@
       <c r="J45" s="70">
         <v>30131.552772913132</v>
       </c>
-      <c r="P45" s="101"/>
+      <c r="P45" s="102"/>
       <c r="Q45" s="38" t="s">
         <v>132</v>
       </c>
@@ -32489,7 +32489,7 @@
         <f t="shared" si="2"/>
         <v>6432.1618233199697</v>
       </c>
-      <c r="AE45" s="101"/>
+      <c r="AE45" s="102"/>
       <c r="AF45" s="38" t="s">
         <v>132</v>
       </c>
@@ -32519,7 +32519,7 @@
       </c>
     </row>
     <row r="46" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B46" s="101" t="s">
+      <c r="B46" s="102" t="s">
         <v>146</v>
       </c>
       <c r="C46" s="38" t="s">
@@ -32546,7 +32546,7 @@
       <c r="J46" s="70">
         <v>1982.580136435374</v>
       </c>
-      <c r="P46" s="101"/>
+      <c r="P46" s="102"/>
       <c r="Q46" s="38" t="s">
         <v>133</v>
       </c>
@@ -32578,7 +32578,7 @@
         <f t="shared" si="2"/>
         <v>7222.2582008514391</v>
       </c>
-      <c r="AE46" s="101"/>
+      <c r="AE46" s="102"/>
       <c r="AF46" s="38" t="s">
         <v>133</v>
       </c>
@@ -32623,7 +32623,7 @@
       </c>
     </row>
     <row r="47" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B47" s="101"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="38" t="s">
         <v>131</v>
       </c>
@@ -32648,7 +32648,7 @@
       <c r="J47" s="70">
         <v>1706.790334608989</v>
       </c>
-      <c r="P47" s="101"/>
+      <c r="P47" s="102"/>
       <c r="Q47" s="38" t="s">
         <v>134</v>
       </c>
@@ -32680,7 +32680,7 @@
         <f t="shared" si="2"/>
         <v>8499.8739449673812</v>
       </c>
-      <c r="AE47" s="101"/>
+      <c r="AE47" s="102"/>
       <c r="AF47" s="38" t="s">
         <v>134</v>
       </c>
@@ -32725,7 +32725,7 @@
       </c>
     </row>
     <row r="48" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="101"/>
+      <c r="B48" s="102"/>
       <c r="C48" s="38" t="s">
         <v>132</v>
       </c>
@@ -32759,10 +32759,10 @@
       <c r="R48" s="44"/>
       <c r="Z48" s="23"/>
       <c r="AA48" s="23"/>
-      <c r="AE48" s="104" t="s">
+      <c r="AE48" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="AF48" s="105"/>
+      <c r="AF48" s="106"/>
       <c r="AG48" s="41"/>
       <c r="AH48" s="47"/>
       <c r="AI48" s="47"/>
@@ -32789,7 +32789,7 @@
       </c>
     </row>
     <row r="49" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="101"/>
+      <c r="B49" s="102"/>
       <c r="C49" s="38" t="s">
         <v>133</v>
       </c>
@@ -32814,7 +32814,7 @@
       <c r="J49" s="70">
         <v>-9022.3420020931408</v>
       </c>
-      <c r="P49" s="101" t="s">
+      <c r="P49" s="102" t="s">
         <v>145</v>
       </c>
       <c r="Q49" s="38" t="s">
@@ -32848,7 +32848,7 @@
         <f t="shared" si="2"/>
         <v>12774.872300867222</v>
       </c>
-      <c r="AE49" s="101" t="s">
+      <c r="AE49" s="102" t="s">
         <v>145</v>
       </c>
       <c r="AF49" s="38" t="s">
@@ -32898,7 +32898,7 @@
       </c>
     </row>
     <row r="50" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B50" s="101"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="38" t="s">
         <v>134</v>
       </c>
@@ -32923,7 +32923,7 @@
       <c r="J50" s="70">
         <v>-21336.014090000121</v>
       </c>
-      <c r="P50" s="101"/>
+      <c r="P50" s="102"/>
       <c r="Q50" s="38" t="s">
         <v>131</v>
       </c>
@@ -32955,7 +32955,7 @@
         <f t="shared" si="2"/>
         <v>16498.665323398705</v>
       </c>
-      <c r="AE50" s="101"/>
+      <c r="AE50" s="102"/>
       <c r="AF50" s="38" t="s">
         <v>131</v>
       </c>
@@ -33000,12 +33000,12 @@
       </c>
     </row>
     <row r="51" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B51" s="106" t="s">
+      <c r="B51" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
       <c r="F51" s="38">
         <v>5</v>
       </c>
@@ -33013,7 +33013,7 @@
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
-      <c r="P51" s="101"/>
+      <c r="P51" s="102"/>
       <c r="Q51" s="38" t="s">
         <v>132</v>
       </c>
@@ -33045,7 +33045,7 @@
         <f t="shared" si="2"/>
         <v>19987.570418922856</v>
       </c>
-      <c r="AE51" s="101"/>
+      <c r="AE51" s="102"/>
       <c r="AF51" s="38" t="s">
         <v>132</v>
       </c>
@@ -33075,10 +33075,10 @@
       </c>
     </row>
     <row r="52" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B52" s="106" t="s">
+      <c r="B52" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="106"/>
+      <c r="C52" s="107"/>
       <c r="D52" s="38">
         <v>1</v>
       </c>
@@ -33103,7 +33103,7 @@
       <c r="K52" s="38">
         <v>8</v>
       </c>
-      <c r="P52" s="101"/>
+      <c r="P52" s="102"/>
       <c r="Q52" s="38" t="s">
         <v>133</v>
       </c>
@@ -33135,7 +33135,7 @@
         <f t="shared" si="2"/>
         <v>23322.22085077842</v>
       </c>
-      <c r="AE52" s="101"/>
+      <c r="AE52" s="102"/>
       <c r="AF52" s="38" t="s">
         <v>133</v>
       </c>
@@ -33180,7 +33180,7 @@
       </c>
     </row>
     <row r="53" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B53" s="101" t="s">
+      <c r="B53" s="102" t="s">
         <v>145</v>
       </c>
       <c r="C53" s="38" t="s">
@@ -33214,7 +33214,7 @@
         <f>H57/I53</f>
         <v>0.97760424317136874</v>
       </c>
-      <c r="P53" s="101"/>
+      <c r="P53" s="102"/>
       <c r="Q53" s="38" t="s">
         <v>134</v>
       </c>
@@ -33246,7 +33246,7 @@
         <f t="shared" si="2"/>
         <v>28654.496073327875</v>
       </c>
-      <c r="AE53" s="101"/>
+      <c r="AE53" s="102"/>
       <c r="AF53" s="38" t="s">
         <v>134</v>
       </c>
@@ -33291,7 +33291,7 @@
       </c>
     </row>
     <row r="54" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="101"/>
+      <c r="B54" s="102"/>
       <c r="C54" s="38" t="s">
         <v>131</v>
       </c>
@@ -33319,7 +33319,7 @@
       <c r="K54" s="70">
         <v>59784.761339555756</v>
       </c>
-      <c r="P54" s="101" t="s">
+      <c r="P54" s="102" t="s">
         <v>146</v>
       </c>
       <c r="Q54" s="38" t="s">
@@ -33353,7 +33353,7 @@
         <f t="shared" si="2"/>
         <v>4289.3630072684373</v>
       </c>
-      <c r="AE54" s="101" t="s">
+      <c r="AE54" s="102" t="s">
         <v>146</v>
       </c>
       <c r="AF54" s="38" t="s">
@@ -33403,7 +33403,7 @@
       </c>
     </row>
     <row r="55" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B55" s="101"/>
+      <c r="B55" s="102"/>
       <c r="C55" s="38" t="s">
         <v>132</v>
       </c>
@@ -33431,7 +33431,7 @@
       <c r="K55" s="70">
         <v>58121.924492034239</v>
       </c>
-      <c r="P55" s="101"/>
+      <c r="P55" s="102"/>
       <c r="Q55" s="38" t="s">
         <v>131</v>
       </c>
@@ -33463,7 +33463,7 @@
         <f t="shared" si="2"/>
         <v>5668.5929862730518</v>
       </c>
-      <c r="AE55" s="101"/>
+      <c r="AE55" s="102"/>
       <c r="AF55" s="38" t="s">
         <v>131</v>
       </c>
@@ -33508,7 +33508,7 @@
       </c>
     </row>
     <row r="56" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B56" s="101"/>
+      <c r="B56" s="102"/>
       <c r="C56" s="38" t="s">
         <v>133</v>
       </c>
@@ -33536,7 +33536,7 @@
       <c r="K56" s="70">
         <v>54344.013663927923</v>
       </c>
-      <c r="P56" s="101"/>
+      <c r="P56" s="102"/>
       <c r="Q56" s="38" t="s">
         <v>132</v>
       </c>
@@ -33568,7 +33568,7 @@
         <f t="shared" si="2"/>
         <v>6795.5189903239107</v>
       </c>
-      <c r="AE56" s="101"/>
+      <c r="AE56" s="102"/>
       <c r="AF56" s="38" t="s">
         <v>132</v>
       </c>
@@ -33613,7 +33613,7 @@
       </c>
     </row>
     <row r="57" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B57" s="101"/>
+      <c r="B57" s="102"/>
       <c r="C57" s="38" t="s">
         <v>134</v>
       </c>
@@ -33641,7 +33641,7 @@
       <c r="K57" s="70">
         <v>46887.992196092877</v>
       </c>
-      <c r="P57" s="101"/>
+      <c r="P57" s="102"/>
       <c r="Q57" s="38" t="s">
         <v>133</v>
       </c>
@@ -33673,7 +33673,7 @@
         <f t="shared" si="2"/>
         <v>7684.6918454417792</v>
       </c>
-      <c r="AE57" s="101"/>
+      <c r="AE57" s="102"/>
       <c r="AF57" s="38" t="s">
         <v>133</v>
       </c>
@@ -33703,7 +33703,7 @@
       </c>
     </row>
     <row r="58" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B58" s="101" t="s">
+      <c r="B58" s="102" t="s">
         <v>146</v>
       </c>
       <c r="C58" s="38" t="s">
@@ -33733,7 +33733,7 @@
       <c r="K58" s="70">
         <v>8561.9984494517594</v>
       </c>
-      <c r="P58" s="101"/>
+      <c r="P58" s="102"/>
       <c r="Q58" s="38" t="s">
         <v>134</v>
       </c>
@@ -33765,7 +33765,7 @@
         <f t="shared" si="2"/>
         <v>9158.4386789214332</v>
       </c>
-      <c r="AE58" s="101"/>
+      <c r="AE58" s="102"/>
       <c r="AF58" s="38" t="s">
         <v>134</v>
       </c>
@@ -33810,7 +33810,7 @@
       </c>
     </row>
     <row r="59" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B59" s="101"/>
+      <c r="B59" s="102"/>
       <c r="C59" s="38" t="s">
         <v>131</v>
       </c>
@@ -33858,7 +33858,7 @@
       </c>
     </row>
     <row r="60" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B60" s="101"/>
+      <c r="B60" s="102"/>
       <c r="C60" s="38" t="s">
         <v>132</v>
       </c>
@@ -33906,7 +33906,7 @@
       </c>
     </row>
     <row r="61" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B61" s="101"/>
+      <c r="B61" s="102"/>
       <c r="C61" s="38" t="s">
         <v>133</v>
       </c>
@@ -33954,7 +33954,7 @@
       </c>
     </row>
     <row r="62" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B62" s="101"/>
+      <c r="B62" s="102"/>
       <c r="C62" s="38" t="s">
         <v>134</v>
       </c>
@@ -34376,8 +34376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4791767B-F35F-447C-BB95-54C72F8CC96C}">
   <dimension ref="C1:AX78"/>
   <sheetViews>
-    <sheetView topLeftCell="X37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AD53" sqref="AD53:AD62"/>
+    <sheetView topLeftCell="F66" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34409,14 +34409,14 @@
       <c r="AR1" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="AS1" s="113" t="s">
+      <c r="AS1" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="AT1" s="113"/>
-      <c r="AU1" s="106" t="s">
+      <c r="AT1" s="114"/>
+      <c r="AU1" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="AV1" s="106"/>
+      <c r="AV1" s="107"/>
     </row>
     <row r="2" spans="3:48" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AR2" s="76" t="s">
@@ -34436,18 +34436,18 @@
       </c>
     </row>
     <row r="3" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="AB3" s="109" t="s">
+      <c r="AB3" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="110"/>
-      <c r="AH3" s="110"/>
-      <c r="AI3" s="110"/>
-      <c r="AJ3" s="110"/>
-      <c r="AK3" s="111"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="111"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="111"/>
+      <c r="AH3" s="111"/>
+      <c r="AI3" s="111"/>
+      <c r="AJ3" s="111"/>
+      <c r="AK3" s="112"/>
       <c r="AQ3" s="77" t="s">
         <v>145</v>
       </c>
@@ -34491,10 +34491,10 @@
       <c r="V4" s="68"/>
       <c r="W4" s="68"/>
       <c r="X4" s="68"/>
-      <c r="AB4" s="106" t="s">
+      <c r="AB4" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="AC4" s="106"/>
+      <c r="AC4" s="107"/>
       <c r="AD4" s="38">
         <v>1</v>
       </c>
@@ -34557,7 +34557,7 @@
       <c r="V5" s="68"/>
       <c r="W5" s="68"/>
       <c r="X5" s="68"/>
-      <c r="AB5" s="101" t="s">
+      <c r="AB5" s="102" t="s">
         <v>145</v>
       </c>
       <c r="AC5" s="38" t="s">
@@ -34595,7 +34595,7 @@
       </c>
     </row>
     <row r="6" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="100" t="s">
         <v>145</v>
       </c>
       <c r="D6" t="s">
@@ -34610,7 +34610,7 @@
       <c r="G6" s="66">
         <v>-2616.8484787692801</v>
       </c>
-      <c r="O6" s="112" t="s">
+      <c r="O6" s="113" t="s">
         <v>145</v>
       </c>
       <c r="P6" s="38" t="s">
@@ -34633,7 +34633,7 @@
       <c r="V6" s="68"/>
       <c r="W6" s="68"/>
       <c r="X6" s="68"/>
-      <c r="AB6" s="101"/>
+      <c r="AB6" s="102"/>
       <c r="AC6" s="38" t="s">
         <v>131</v>
       </c>
@@ -34669,7 +34669,7 @@
       </c>
     </row>
     <row r="7" spans="3:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="99"/>
+      <c r="C7" s="100"/>
       <c r="D7" t="s">
         <v>131</v>
       </c>
@@ -34682,7 +34682,7 @@
       <c r="G7" s="66">
         <v>-3149.84118287302</v>
       </c>
-      <c r="O7" s="112"/>
+      <c r="O7" s="113"/>
       <c r="P7" s="38" t="s">
         <v>131</v>
       </c>
@@ -34703,7 +34703,7 @@
       <c r="V7" s="68"/>
       <c r="W7" s="68"/>
       <c r="X7" s="68"/>
-      <c r="AB7" s="101"/>
+      <c r="AB7" s="102"/>
       <c r="AC7" s="38" t="s">
         <v>132</v>
       </c>
@@ -34739,7 +34739,7 @@
       </c>
     </row>
     <row r="8" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C8" s="99"/>
+      <c r="C8" s="100"/>
       <c r="D8" t="s">
         <v>132</v>
       </c>
@@ -34752,7 +34752,7 @@
       <c r="G8" s="66">
         <v>-4245.4611765868403</v>
       </c>
-      <c r="O8" s="112"/>
+      <c r="O8" s="113"/>
       <c r="P8" s="38" t="s">
         <v>132</v>
       </c>
@@ -34773,7 +34773,7 @@
       <c r="V8" s="68"/>
       <c r="W8" s="68"/>
       <c r="X8" s="68"/>
-      <c r="AB8" s="101"/>
+      <c r="AB8" s="102"/>
       <c r="AC8" s="38" t="s">
         <v>133</v>
       </c>
@@ -34801,7 +34801,7 @@
       <c r="AV8" s="38"/>
     </row>
     <row r="9" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C9" s="99"/>
+      <c r="C9" s="100"/>
       <c r="D9" t="s">
         <v>133</v>
       </c>
@@ -34814,7 +34814,7 @@
       <c r="G9" s="66">
         <v>-5954.8849445358101</v>
       </c>
-      <c r="O9" s="112"/>
+      <c r="O9" s="113"/>
       <c r="P9" s="38" t="s">
         <v>133</v>
       </c>
@@ -34835,7 +34835,7 @@
       <c r="V9" s="68"/>
       <c r="W9" s="68"/>
       <c r="X9" s="68"/>
-      <c r="AB9" s="101"/>
+      <c r="AB9" s="102"/>
       <c r="AC9" s="38" t="s">
         <v>134</v>
       </c>
@@ -34871,7 +34871,7 @@
       </c>
     </row>
     <row r="10" spans="3:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="99"/>
+      <c r="C10" s="100"/>
       <c r="D10" t="s">
         <v>134</v>
       </c>
@@ -34884,7 +34884,7 @@
       <c r="G10" s="66">
         <v>-9271.7293125543492</v>
       </c>
-      <c r="O10" s="112"/>
+      <c r="O10" s="113"/>
       <c r="P10" s="38" t="s">
         <v>134</v>
       </c>
@@ -34905,7 +34905,7 @@
       <c r="V10" s="68"/>
       <c r="W10" s="68"/>
       <c r="X10" s="68"/>
-      <c r="AB10" s="101" t="s">
+      <c r="AB10" s="102" t="s">
         <v>146</v>
       </c>
       <c r="AC10" s="38" t="s">
@@ -34943,7 +34943,7 @@
       </c>
     </row>
     <row r="11" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="100" t="s">
         <v>146</v>
       </c>
       <c r="D11" t="s">
@@ -34958,7 +34958,7 @@
       <c r="G11" s="66">
         <v>-7235.6898336596996</v>
       </c>
-      <c r="O11" s="112" t="s">
+      <c r="O11" s="113" t="s">
         <v>146</v>
       </c>
       <c r="P11" s="38" t="s">
@@ -34981,7 +34981,7 @@
       <c r="V11" s="68"/>
       <c r="W11" s="68"/>
       <c r="X11" s="68"/>
-      <c r="AB11" s="101"/>
+      <c r="AB11" s="102"/>
       <c r="AC11" s="38" t="s">
         <v>131</v>
       </c>
@@ -35017,7 +35017,7 @@
       </c>
     </row>
     <row r="12" spans="3:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="99"/>
+      <c r="C12" s="100"/>
       <c r="D12" t="s">
         <v>131</v>
       </c>
@@ -35030,7 +35030,7 @@
       <c r="G12" s="66">
         <v>-7757.2286383801502</v>
       </c>
-      <c r="O12" s="112"/>
+      <c r="O12" s="113"/>
       <c r="P12" s="38" t="s">
         <v>131</v>
       </c>
@@ -35051,7 +35051,7 @@
       <c r="V12" s="68"/>
       <c r="W12" s="68"/>
       <c r="X12" s="68"/>
-      <c r="AB12" s="101"/>
+      <c r="AB12" s="102"/>
       <c r="AC12" s="38" t="s">
         <v>132</v>
       </c>
@@ -35087,7 +35087,7 @@
       </c>
     </row>
     <row r="13" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C13" s="99"/>
+      <c r="C13" s="100"/>
       <c r="D13" t="s">
         <v>132</v>
       </c>
@@ -35100,7 +35100,7 @@
       <c r="G13" s="66">
         <v>-8967.8871538097501</v>
       </c>
-      <c r="O13" s="112"/>
+      <c r="O13" s="113"/>
       <c r="P13" s="38" t="s">
         <v>132</v>
       </c>
@@ -35121,7 +35121,7 @@
       <c r="V13" s="68"/>
       <c r="W13" s="68"/>
       <c r="X13" s="68"/>
-      <c r="AB13" s="101"/>
+      <c r="AB13" s="102"/>
       <c r="AC13" s="38" t="s">
         <v>133</v>
       </c>
@@ -35156,7 +35156,7 @@
       </c>
     </row>
     <row r="14" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C14" s="99"/>
+      <c r="C14" s="100"/>
       <c r="D14" t="s">
         <v>133</v>
       </c>
@@ -35169,7 +35169,7 @@
       <c r="G14" s="66">
         <v>-10874.8510590394</v>
       </c>
-      <c r="O14" s="112"/>
+      <c r="O14" s="113"/>
       <c r="P14" s="38" t="s">
         <v>133</v>
       </c>
@@ -35190,7 +35190,7 @@
       <c r="V14" s="68"/>
       <c r="W14" s="68"/>
       <c r="X14" s="68"/>
-      <c r="AB14" s="101"/>
+      <c r="AB14" s="102"/>
       <c r="AC14" s="38" t="s">
         <v>134</v>
       </c>
@@ -35218,7 +35218,7 @@
       <c r="AV14" s="38"/>
     </row>
     <row r="15" spans="3:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="99"/>
+      <c r="C15" s="100"/>
       <c r="D15" t="s">
         <v>134</v>
       </c>
@@ -35231,7 +35231,7 @@
       <c r="G15" s="66">
         <v>-14431.9841351907</v>
       </c>
-      <c r="O15" s="112"/>
+      <c r="O15" s="113"/>
       <c r="P15" s="38" t="s">
         <v>134</v>
       </c>
@@ -35252,18 +35252,18 @@
       <c r="V15" s="68"/>
       <c r="W15" s="68"/>
       <c r="X15" s="68"/>
-      <c r="AB15" s="109" t="s">
+      <c r="AB15" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="110"/>
-      <c r="AE15" s="110"/>
-      <c r="AF15" s="110"/>
-      <c r="AG15" s="110"/>
-      <c r="AH15" s="110"/>
-      <c r="AI15" s="110"/>
-      <c r="AJ15" s="110"/>
-      <c r="AK15" s="111"/>
+      <c r="AC15" s="111"/>
+      <c r="AD15" s="111"/>
+      <c r="AE15" s="111"/>
+      <c r="AF15" s="111"/>
+      <c r="AG15" s="111"/>
+      <c r="AH15" s="111"/>
+      <c r="AI15" s="111"/>
+      <c r="AJ15" s="111"/>
+      <c r="AK15" s="112"/>
       <c r="AQ15" s="77"/>
       <c r="AR15" s="72" t="s">
         <v>135</v>
@@ -35290,10 +35290,10 @@
       <c r="V16" s="68"/>
       <c r="W16" s="68"/>
       <c r="X16" s="68"/>
-      <c r="AB16" s="106" t="s">
+      <c r="AB16" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="AC16" s="106"/>
+      <c r="AC16" s="107"/>
       <c r="AD16" s="38">
         <v>1</v>
       </c>
@@ -35338,7 +35338,7 @@
       <c r="V17" s="68"/>
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
-      <c r="AB17" s="101" t="s">
+      <c r="AB17" s="102" t="s">
         <v>145</v>
       </c>
       <c r="AC17" s="38" t="s">
@@ -35388,7 +35388,7 @@
       <c r="V18" s="68"/>
       <c r="W18" s="68"/>
       <c r="X18" s="68"/>
-      <c r="AB18" s="101"/>
+      <c r="AB18" s="102"/>
       <c r="AC18" s="38" t="s">
         <v>131</v>
       </c>
@@ -35451,7 +35451,7 @@
       <c r="V19" s="68"/>
       <c r="W19" s="68"/>
       <c r="X19" s="68"/>
-      <c r="AB19" s="101"/>
+      <c r="AB19" s="102"/>
       <c r="AC19" s="38" t="s">
         <v>132</v>
       </c>
@@ -35531,7 +35531,7 @@
       <c r="V20" s="68"/>
       <c r="W20" s="68"/>
       <c r="X20" s="68"/>
-      <c r="AB20" s="101"/>
+      <c r="AB20" s="102"/>
       <c r="AC20" s="38" t="s">
         <v>133</v>
       </c>
@@ -35563,7 +35563,7 @@
       <c r="AV20" s="38"/>
     </row>
     <row r="21" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="100" t="s">
         <v>145</v>
       </c>
       <c r="D21" t="s">
@@ -35584,7 +35584,7 @@
       <c r="I21" s="65">
         <v>1562.63165256711</v>
       </c>
-      <c r="O21" s="112" t="s">
+      <c r="O21" s="113" t="s">
         <v>145</v>
       </c>
       <c r="P21" s="38" t="s">
@@ -35613,7 +35613,7 @@
       <c r="V21" s="68"/>
       <c r="W21" s="68"/>
       <c r="X21" s="68"/>
-      <c r="AB21" s="101"/>
+      <c r="AB21" s="102"/>
       <c r="AC21" s="38" t="s">
         <v>134</v>
       </c>
@@ -35653,7 +35653,7 @@
       </c>
     </row>
     <row r="22" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C22" s="99"/>
+      <c r="C22" s="100"/>
       <c r="D22" t="s">
         <v>131</v>
       </c>
@@ -35672,7 +35672,7 @@
       <c r="I22" s="65">
         <v>1260.50620762875</v>
       </c>
-      <c r="O22" s="112"/>
+      <c r="O22" s="113"/>
       <c r="P22" s="38" t="s">
         <v>131</v>
       </c>
@@ -35699,7 +35699,7 @@
       <c r="V22" s="68"/>
       <c r="W22" s="68"/>
       <c r="X22" s="68"/>
-      <c r="AB22" s="101" t="s">
+      <c r="AB22" s="102" t="s">
         <v>146</v>
       </c>
       <c r="AC22" s="38" t="s">
@@ -35741,7 +35741,7 @@
       </c>
     </row>
     <row r="23" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C23" s="99"/>
+      <c r="C23" s="100"/>
       <c r="D23" t="s">
         <v>132</v>
       </c>
@@ -35760,7 +35760,7 @@
       <c r="I23" s="65">
         <v>505.92611883227102</v>
       </c>
-      <c r="O23" s="112"/>
+      <c r="O23" s="113"/>
       <c r="P23" s="38" t="s">
         <v>132</v>
       </c>
@@ -35787,7 +35787,7 @@
       <c r="V23" s="68"/>
       <c r="W23" s="68"/>
       <c r="X23" s="68"/>
-      <c r="AB23" s="101"/>
+      <c r="AB23" s="102"/>
       <c r="AC23" s="38" t="s">
         <v>131</v>
       </c>
@@ -35827,7 +35827,7 @@
       </c>
     </row>
     <row r="24" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C24" s="99"/>
+      <c r="C24" s="100"/>
       <c r="D24" t="s">
         <v>133</v>
       </c>
@@ -35846,7 +35846,7 @@
       <c r="I24" s="65">
         <v>-732.33858466625702</v>
       </c>
-      <c r="O24" s="112"/>
+      <c r="O24" s="113"/>
       <c r="P24" s="38" t="s">
         <v>133</v>
       </c>
@@ -35873,7 +35873,7 @@
       <c r="V24" s="68"/>
       <c r="W24" s="68"/>
       <c r="X24" s="68"/>
-      <c r="AB24" s="101"/>
+      <c r="AB24" s="102"/>
       <c r="AC24" s="38" t="s">
         <v>132</v>
       </c>
@@ -35912,7 +35912,7 @@
       </c>
     </row>
     <row r="25" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C25" s="99"/>
+      <c r="C25" s="100"/>
       <c r="D25" t="s">
         <v>134</v>
       </c>
@@ -35931,7 +35931,7 @@
       <c r="I25" s="65">
         <v>-3157.78149484906</v>
       </c>
-      <c r="O25" s="112"/>
+      <c r="O25" s="113"/>
       <c r="P25" s="38" t="s">
         <v>134</v>
       </c>
@@ -35958,7 +35958,7 @@
       <c r="V25" s="68"/>
       <c r="W25" s="68"/>
       <c r="X25" s="68"/>
-      <c r="AB25" s="101"/>
+      <c r="AB25" s="102"/>
       <c r="AC25" s="38" t="s">
         <v>133</v>
       </c>
@@ -35998,7 +35998,7 @@
       </c>
     </row>
     <row r="26" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C26" s="99" t="s">
+      <c r="C26" s="100" t="s">
         <v>146</v>
       </c>
       <c r="D26" t="s">
@@ -36019,7 +36019,7 @@
       <c r="I26" s="65">
         <v>-3720.26359216421</v>
       </c>
-      <c r="O26" s="112" t="s">
+      <c r="O26" s="113" t="s">
         <v>146</v>
       </c>
       <c r="P26" s="38" t="s">
@@ -36048,7 +36048,7 @@
       <c r="V26" s="68"/>
       <c r="W26" s="68"/>
       <c r="X26" s="68"/>
-      <c r="AB26" s="101"/>
+      <c r="AB26" s="102"/>
       <c r="AC26" s="38" t="s">
         <v>134</v>
       </c>
@@ -36080,7 +36080,7 @@
       <c r="AV26" s="38"/>
     </row>
     <row r="27" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C27" s="99"/>
+      <c r="C27" s="100"/>
       <c r="D27" t="s">
         <v>131</v>
       </c>
@@ -36099,7 +36099,7 @@
       <c r="I27" s="65">
         <v>-4029.8352839975901</v>
       </c>
-      <c r="O27" s="112"/>
+      <c r="O27" s="113"/>
       <c r="P27" s="38" t="s">
         <v>131</v>
       </c>
@@ -36126,18 +36126,18 @@
       <c r="V27" s="68"/>
       <c r="W27" s="68"/>
       <c r="X27" s="68"/>
-      <c r="AB27" s="109" t="s">
+      <c r="AB27" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="110"/>
-      <c r="AE27" s="110"/>
-      <c r="AF27" s="110"/>
-      <c r="AG27" s="110"/>
-      <c r="AH27" s="110"/>
-      <c r="AI27" s="110"/>
-      <c r="AJ27" s="110"/>
-      <c r="AK27" s="111"/>
+      <c r="AC27" s="111"/>
+      <c r="AD27" s="111"/>
+      <c r="AE27" s="111"/>
+      <c r="AF27" s="111"/>
+      <c r="AG27" s="111"/>
+      <c r="AH27" s="111"/>
+      <c r="AI27" s="111"/>
+      <c r="AJ27" s="111"/>
+      <c r="AK27" s="112"/>
       <c r="AQ27" s="77"/>
       <c r="AR27" s="72" t="s">
         <v>135</v>
@@ -36156,7 +36156,7 @@
       </c>
     </row>
     <row r="28" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C28" s="99"/>
+      <c r="C28" s="100"/>
       <c r="D28" t="s">
         <v>132</v>
       </c>
@@ -36175,7 +36175,7 @@
       <c r="I28" s="65">
         <v>-4946.2933983937601</v>
       </c>
-      <c r="O28" s="112"/>
+      <c r="O28" s="113"/>
       <c r="P28" s="38" t="s">
         <v>132</v>
       </c>
@@ -36202,10 +36202,10 @@
       <c r="V28" s="68"/>
       <c r="W28" s="68"/>
       <c r="X28" s="68"/>
-      <c r="AB28" s="106" t="s">
+      <c r="AB28" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="AC28" s="106"/>
+      <c r="AC28" s="107"/>
       <c r="AD28" s="38">
         <v>1</v>
       </c>
@@ -36244,7 +36244,7 @@
       </c>
     </row>
     <row r="29" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C29" s="99"/>
+      <c r="C29" s="100"/>
       <c r="D29" t="s">
         <v>133</v>
       </c>
@@ -36263,7 +36263,7 @@
       <c r="I29" s="65">
         <v>-6453.9250129801203</v>
       </c>
-      <c r="O29" s="112"/>
+      <c r="O29" s="113"/>
       <c r="P29" s="38" t="s">
         <v>133</v>
       </c>
@@ -36290,7 +36290,7 @@
       <c r="V29" s="68"/>
       <c r="W29" s="68"/>
       <c r="X29" s="68"/>
-      <c r="AB29" s="101" t="s">
+      <c r="AB29" s="102" t="s">
         <v>145</v>
       </c>
       <c r="AC29" s="38" t="s">
@@ -36334,7 +36334,7 @@
       </c>
     </row>
     <row r="30" spans="3:48" x14ac:dyDescent="0.25">
-      <c r="C30" s="99"/>
+      <c r="C30" s="100"/>
       <c r="D30" t="s">
         <v>134</v>
       </c>
@@ -36353,7 +36353,7 @@
       <c r="I30" s="65">
         <v>-9237.4994734560296</v>
       </c>
-      <c r="O30" s="112"/>
+      <c r="O30" s="113"/>
       <c r="P30" s="38" t="s">
         <v>134</v>
       </c>
@@ -36380,7 +36380,7 @@
       <c r="V30" s="68"/>
       <c r="W30" s="68"/>
       <c r="X30" s="68"/>
-      <c r="AB30" s="101"/>
+      <c r="AB30" s="102"/>
       <c r="AC30" s="38" t="s">
         <v>131</v>
       </c>
@@ -36430,7 +36430,7 @@
       <c r="V31" s="68"/>
       <c r="W31" s="68"/>
       <c r="X31" s="68"/>
-      <c r="AB31" s="101"/>
+      <c r="AB31" s="102"/>
       <c r="AC31" s="38" t="s">
         <v>132</v>
       </c>
@@ -36480,7 +36480,7 @@
       <c r="V32" s="68"/>
       <c r="W32" s="68"/>
       <c r="X32" s="68"/>
-      <c r="AB32" s="101"/>
+      <c r="AB32" s="102"/>
       <c r="AC32" s="38" t="s">
         <v>133</v>
       </c>
@@ -36516,7 +36516,7 @@
       <c r="V33" s="68"/>
       <c r="W33" s="68"/>
       <c r="X33" s="68"/>
-      <c r="AB33" s="101"/>
+      <c r="AB33" s="102"/>
       <c r="AC33" s="38" t="s">
         <v>134</v>
       </c>
@@ -36552,7 +36552,7 @@
       <c r="V34" s="68"/>
       <c r="W34" s="68"/>
       <c r="X34" s="68"/>
-      <c r="AB34" s="101" t="s">
+      <c r="AB34" s="102" t="s">
         <v>146</v>
       </c>
       <c r="AC34" s="38" t="s">
@@ -36605,7 +36605,7 @@
       <c r="V35" s="67"/>
       <c r="W35" s="68"/>
       <c r="X35" s="68"/>
-      <c r="AB35" s="101"/>
+      <c r="AB35" s="102"/>
       <c r="AC35" s="38" t="s">
         <v>131</v>
       </c>
@@ -36679,7 +36679,7 @@
       </c>
       <c r="W36" s="68"/>
       <c r="X36" s="68"/>
-      <c r="AB36" s="101"/>
+      <c r="AB36" s="102"/>
       <c r="AC36" s="38" t="s">
         <v>132</v>
       </c>
@@ -36706,7 +36706,7 @@
       <c r="AQ36" s="77"/>
     </row>
     <row r="37" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C37" s="99" t="s">
+      <c r="C37" s="100" t="s">
         <v>145</v>
       </c>
       <c r="D37" t="s">
@@ -36730,7 +36730,7 @@
       <c r="J37" s="65">
         <v>4772.6000871511396</v>
       </c>
-      <c r="O37" s="112" t="s">
+      <c r="O37" s="113" t="s">
         <v>145</v>
       </c>
       <c r="P37" s="38" t="s">
@@ -36762,7 +36762,7 @@
       </c>
       <c r="W37" s="68"/>
       <c r="X37" s="68"/>
-      <c r="AB37" s="101"/>
+      <c r="AB37" s="102"/>
       <c r="AC37" s="38" t="s">
         <v>133</v>
       </c>
@@ -36789,7 +36789,7 @@
       <c r="AQ37" s="77"/>
     </row>
     <row r="38" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C38" s="99"/>
+      <c r="C38" s="100"/>
       <c r="D38" t="s">
         <v>131</v>
       </c>
@@ -36811,7 +36811,7 @@
       <c r="J38" s="65">
         <v>4665.6507249633496</v>
       </c>
-      <c r="O38" s="112"/>
+      <c r="O38" s="113"/>
       <c r="P38" s="38" t="s">
         <v>131</v>
       </c>
@@ -36841,7 +36841,7 @@
       </c>
       <c r="W38" s="68"/>
       <c r="X38" s="68"/>
-      <c r="AB38" s="101"/>
+      <c r="AB38" s="102"/>
       <c r="AC38" s="38" t="s">
         <v>134</v>
       </c>
@@ -36868,7 +36868,7 @@
       <c r="AQ38" s="77"/>
     </row>
     <row r="39" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C39" s="99"/>
+      <c r="C39" s="100"/>
       <c r="D39" t="s">
         <v>132</v>
       </c>
@@ -36890,7 +36890,7 @@
       <c r="J39" s="65">
         <v>4201.2085156654202</v>
       </c>
-      <c r="O39" s="112"/>
+      <c r="O39" s="113"/>
       <c r="P39" s="38" t="s">
         <v>132</v>
       </c>
@@ -36920,22 +36920,22 @@
       </c>
       <c r="W39" s="68"/>
       <c r="X39" s="68"/>
-      <c r="AB39" s="109" t="s">
+      <c r="AB39" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="AC39" s="110"/>
-      <c r="AD39" s="110"/>
-      <c r="AE39" s="110"/>
-      <c r="AF39" s="110"/>
-      <c r="AG39" s="110"/>
-      <c r="AH39" s="110"/>
-      <c r="AI39" s="110"/>
-      <c r="AJ39" s="110"/>
-      <c r="AK39" s="111"/>
+      <c r="AC39" s="111"/>
+      <c r="AD39" s="111"/>
+      <c r="AE39" s="111"/>
+      <c r="AF39" s="111"/>
+      <c r="AG39" s="111"/>
+      <c r="AH39" s="111"/>
+      <c r="AI39" s="111"/>
+      <c r="AJ39" s="111"/>
+      <c r="AK39" s="112"/>
       <c r="AQ39" s="77"/>
     </row>
     <row r="40" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C40" s="99"/>
+      <c r="C40" s="100"/>
       <c r="D40" t="s">
         <v>133</v>
       </c>
@@ -36957,7 +36957,7 @@
       <c r="J40" s="65">
         <v>3368.7470704031898</v>
       </c>
-      <c r="O40" s="112"/>
+      <c r="O40" s="113"/>
       <c r="P40" s="38" t="s">
         <v>133</v>
       </c>
@@ -36987,10 +36987,10 @@
       </c>
       <c r="W40" s="68"/>
       <c r="X40" s="68"/>
-      <c r="AB40" s="106" t="s">
+      <c r="AB40" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="AC40" s="106"/>
+      <c r="AC40" s="107"/>
       <c r="AD40" s="67">
         <v>1</v>
       </c>
@@ -37016,7 +37016,7 @@
       <c r="AQ40" s="77"/>
     </row>
     <row r="41" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C41" s="99"/>
+      <c r="C41" s="100"/>
       <c r="D41" t="s">
         <v>134</v>
       </c>
@@ -37038,7 +37038,7 @@
       <c r="J41" s="65">
         <v>1728.3556644708699</v>
       </c>
-      <c r="O41" s="112"/>
+      <c r="O41" s="113"/>
       <c r="P41" s="38" t="s">
         <v>134</v>
       </c>
@@ -37068,7 +37068,7 @@
       </c>
       <c r="W41" s="68"/>
       <c r="X41" s="68"/>
-      <c r="AB41" s="101" t="s">
+      <c r="AB41" s="102" t="s">
         <v>145</v>
       </c>
       <c r="AC41" s="38" t="s">
@@ -37100,7 +37100,7 @@
       <c r="AR41" s="72"/>
     </row>
     <row r="42" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C42" s="99" t="s">
+      <c r="C42" s="100" t="s">
         <v>146</v>
       </c>
       <c r="D42" t="s">
@@ -37124,7 +37124,7 @@
       <c r="J42" s="65">
         <v>-1065.0545563006301</v>
       </c>
-      <c r="O42" s="112" t="s">
+      <c r="O42" s="113" t="s">
         <v>146</v>
       </c>
       <c r="P42" s="38" t="s">
@@ -37156,7 +37156,7 @@
       </c>
       <c r="W42" s="68"/>
       <c r="X42" s="68"/>
-      <c r="AB42" s="101"/>
+      <c r="AB42" s="102"/>
       <c r="AC42" s="38" t="s">
         <v>131</v>
       </c>
@@ -37186,7 +37186,7 @@
       <c r="AR42" s="72"/>
     </row>
     <row r="43" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C43" s="99"/>
+      <c r="C43" s="100"/>
       <c r="D43" t="s">
         <v>131</v>
       </c>
@@ -37208,7 +37208,7 @@
       <c r="J43" s="65">
         <v>-1199.49046223764</v>
       </c>
-      <c r="O43" s="112"/>
+      <c r="O43" s="113"/>
       <c r="P43" s="38" t="s">
         <v>131</v>
       </c>
@@ -37238,7 +37238,7 @@
       </c>
       <c r="W43" s="68"/>
       <c r="X43" s="68"/>
-      <c r="AB43" s="101"/>
+      <c r="AB43" s="102"/>
       <c r="AC43" s="38" t="s">
         <v>132</v>
       </c>
@@ -37268,7 +37268,7 @@
       <c r="AR43" s="72"/>
     </row>
     <row r="44" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C44" s="99"/>
+      <c r="C44" s="100"/>
       <c r="D44" t="s">
         <v>132</v>
       </c>
@@ -37290,7 +37290,7 @@
       <c r="J44" s="65">
         <v>-1871.72100517225</v>
       </c>
-      <c r="O44" s="112"/>
+      <c r="O44" s="113"/>
       <c r="P44" s="38" t="s">
         <v>132</v>
       </c>
@@ -37320,7 +37320,7 @@
       </c>
       <c r="W44" s="68"/>
       <c r="X44" s="68"/>
-      <c r="AB44" s="101"/>
+      <c r="AB44" s="102"/>
       <c r="AC44" s="38" t="s">
         <v>133</v>
       </c>
@@ -37350,7 +37350,7 @@
       <c r="AR44" s="72"/>
     </row>
     <row r="45" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C45" s="99"/>
+      <c r="C45" s="100"/>
       <c r="D45" t="s">
         <v>133</v>
       </c>
@@ -37372,7 +37372,7 @@
       <c r="J45" s="65">
         <v>-3044.3019635957598</v>
       </c>
-      <c r="O45" s="112"/>
+      <c r="O45" s="113"/>
       <c r="P45" s="38" t="s">
         <v>133</v>
       </c>
@@ -37402,7 +37402,7 @@
       </c>
       <c r="W45" s="68"/>
       <c r="X45" s="68"/>
-      <c r="AB45" s="101"/>
+      <c r="AB45" s="102"/>
       <c r="AC45" s="38" t="s">
         <v>134</v>
       </c>
@@ -37432,7 +37432,7 @@
       <c r="AR45" s="72"/>
     </row>
     <row r="46" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C46" s="99"/>
+      <c r="C46" s="100"/>
       <c r="D46" t="s">
         <v>134</v>
       </c>
@@ -37454,7 +37454,7 @@
       <c r="J46" s="65">
         <v>-5165.3151396061603</v>
       </c>
-      <c r="O46" s="112"/>
+      <c r="O46" s="113"/>
       <c r="P46" s="38" t="s">
         <v>134</v>
       </c>
@@ -37484,7 +37484,7 @@
       </c>
       <c r="W46" s="68"/>
       <c r="X46" s="68"/>
-      <c r="AB46" s="101" t="s">
+      <c r="AB46" s="102" t="s">
         <v>146</v>
       </c>
       <c r="AC46" s="38" t="s">
@@ -37525,7 +37525,7 @@
       <c r="V47" s="68"/>
       <c r="W47" s="68"/>
       <c r="X47" s="68"/>
-      <c r="AB47" s="101"/>
+      <c r="AB47" s="102"/>
       <c r="AC47" s="38" t="s">
         <v>131</v>
       </c>
@@ -37562,7 +37562,7 @@
       <c r="V48" s="68"/>
       <c r="W48" s="68"/>
       <c r="X48" s="68"/>
-      <c r="AB48" s="101"/>
+      <c r="AB48" s="102"/>
       <c r="AC48" s="38" t="s">
         <v>132</v>
       </c>
@@ -37599,7 +37599,7 @@
       <c r="V49" s="68"/>
       <c r="W49" s="68"/>
       <c r="X49" s="68"/>
-      <c r="AB49" s="101"/>
+      <c r="AB49" s="102"/>
       <c r="AC49" s="38" t="s">
         <v>133</v>
       </c>
@@ -37651,7 +37651,7 @@
       <c r="V50" s="67"/>
       <c r="W50" s="67"/>
       <c r="X50" s="68"/>
-      <c r="AB50" s="101"/>
+      <c r="AB50" s="102"/>
       <c r="AC50" s="38" t="s">
         <v>134</v>
       </c>
@@ -37730,22 +37730,22 @@
         <v>7</v>
       </c>
       <c r="X51" s="68"/>
-      <c r="AB51" s="109" t="s">
+      <c r="AB51" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="AC51" s="110"/>
-      <c r="AD51" s="110"/>
-      <c r="AE51" s="110"/>
-      <c r="AF51" s="110"/>
-      <c r="AG51" s="110"/>
-      <c r="AH51" s="110"/>
-      <c r="AI51" s="110"/>
-      <c r="AJ51" s="110"/>
-      <c r="AK51" s="111"/>
+      <c r="AC51" s="111"/>
+      <c r="AD51" s="111"/>
+      <c r="AE51" s="111"/>
+      <c r="AF51" s="111"/>
+      <c r="AG51" s="111"/>
+      <c r="AH51" s="111"/>
+      <c r="AI51" s="111"/>
+      <c r="AJ51" s="111"/>
+      <c r="AK51" s="112"/>
       <c r="AQ51" s="77"/>
     </row>
     <row r="52" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C52" s="99" t="s">
+      <c r="C52" s="100" t="s">
         <v>145</v>
       </c>
       <c r="D52" t="s">
@@ -37772,7 +37772,7 @@
       <c r="K52" s="1">
         <v>6425.9555372083996</v>
       </c>
-      <c r="O52" s="112" t="s">
+      <c r="O52" s="113" t="s">
         <v>145</v>
       </c>
       <c r="P52" s="38" t="s">
@@ -37807,10 +37807,10 @@
         <v>44981.688760458797</v>
       </c>
       <c r="X52" s="68"/>
-      <c r="AB52" s="106" t="s">
+      <c r="AB52" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="AC52" s="106"/>
+      <c r="AC52" s="107"/>
       <c r="AD52" s="38">
         <v>1</v>
       </c>
@@ -37839,7 +37839,7 @@
       <c r="AR52" s="72"/>
     </row>
     <row r="53" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C53" s="99"/>
+      <c r="C53" s="100"/>
       <c r="D53" t="s">
         <v>131</v>
       </c>
@@ -37864,7 +37864,7 @@
       <c r="K53" s="1">
         <v>6426.0430800134</v>
       </c>
-      <c r="O53" s="112"/>
+      <c r="O53" s="113"/>
       <c r="P53" s="38" t="s">
         <v>131</v>
       </c>
@@ -37897,7 +37897,7 @@
         <v>44982.301560093802</v>
       </c>
       <c r="X53" s="68"/>
-      <c r="AB53" s="101" t="s">
+      <c r="AB53" s="102" t="s">
         <v>145</v>
       </c>
       <c r="AC53" s="38" t="s">
@@ -37931,7 +37931,7 @@
       <c r="AR53" s="72"/>
     </row>
     <row r="54" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C54" s="99"/>
+      <c r="C54" s="100"/>
       <c r="D54" t="s">
         <v>132</v>
       </c>
@@ -37956,7 +37956,7 @@
       <c r="K54" s="1">
         <v>6119.8954277880102</v>
       </c>
-      <c r="O54" s="112"/>
+      <c r="O54" s="113"/>
       <c r="P54" s="38" t="s">
         <v>132</v>
       </c>
@@ -37989,7 +37989,7 @@
         <v>42839.267994516071</v>
       </c>
       <c r="X54" s="68"/>
-      <c r="AB54" s="101"/>
+      <c r="AB54" s="102"/>
       <c r="AC54" s="38" t="s">
         <v>131</v>
       </c>
@@ -38021,7 +38021,7 @@
       <c r="AR54" s="72"/>
     </row>
     <row r="55" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C55" s="99"/>
+      <c r="C55" s="100"/>
       <c r="D55" t="s">
         <v>133</v>
       </c>
@@ -38046,7 +38046,7 @@
       <c r="K55" s="1">
         <v>5509.6215891862403</v>
       </c>
-      <c r="O55" s="112"/>
+      <c r="O55" s="113"/>
       <c r="P55" s="38" t="s">
         <v>133</v>
       </c>
@@ -38079,7 +38079,7 @@
         <v>38567.351124303685</v>
       </c>
       <c r="X55" s="68"/>
-      <c r="AB55" s="101"/>
+      <c r="AB55" s="102"/>
       <c r="AC55" s="38" t="s">
         <v>132</v>
       </c>
@@ -38111,7 +38111,7 @@
       <c r="AR55" s="72"/>
     </row>
     <row r="56" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C56" s="99"/>
+      <c r="C56" s="100"/>
       <c r="D56" t="s">
         <v>134</v>
       </c>
@@ -38136,7 +38136,7 @@
       <c r="K56" s="1">
         <v>4304.5075389875901</v>
       </c>
-      <c r="O56" s="112"/>
+      <c r="O56" s="113"/>
       <c r="P56" s="38" t="s">
         <v>134</v>
       </c>
@@ -38169,7 +38169,7 @@
         <v>30131.552772913132</v>
       </c>
       <c r="X56" s="68"/>
-      <c r="AB56" s="101"/>
+      <c r="AB56" s="102"/>
       <c r="AC56" s="38" t="s">
         <v>133</v>
       </c>
@@ -38201,7 +38201,7 @@
       <c r="AR56" s="72"/>
     </row>
     <row r="57" spans="3:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="99" t="s">
+      <c r="C57" s="100" t="s">
         <v>146</v>
       </c>
       <c r="D57" t="s">
@@ -38228,7 +38228,7 @@
       <c r="K57" s="1">
         <v>283.225733776482</v>
       </c>
-      <c r="O57" s="112" t="s">
+      <c r="O57" s="113" t="s">
         <v>146</v>
       </c>
       <c r="P57" s="38" t="s">
@@ -38263,7 +38263,7 @@
         <v>1982.580136435374</v>
       </c>
       <c r="X57" s="68"/>
-      <c r="AB57" s="101"/>
+      <c r="AB57" s="102"/>
       <c r="AC57" s="38" t="s">
         <v>134</v>
       </c>
@@ -38293,7 +38293,7 @@
       </c>
     </row>
     <row r="58" spans="3:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="99"/>
+      <c r="C58" s="100"/>
       <c r="D58" t="s">
         <v>131</v>
       </c>
@@ -38318,7 +38318,7 @@
       <c r="K58" s="1">
         <v>243.82719065842701</v>
       </c>
-      <c r="O58" s="112"/>
+      <c r="O58" s="113"/>
       <c r="P58" s="38" t="s">
         <v>131</v>
       </c>
@@ -38351,7 +38351,7 @@
         <v>1706.790334608989</v>
       </c>
       <c r="X58" s="68"/>
-      <c r="AB58" s="101" t="s">
+      <c r="AB58" s="102" t="s">
         <v>146</v>
       </c>
       <c r="AC58" s="38" t="s">
@@ -38391,7 +38391,7 @@
       <c r="AX58" s="79"/>
     </row>
     <row r="59" spans="3:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="99"/>
+      <c r="C59" s="100"/>
       <c r="D59" t="s">
         <v>132</v>
       </c>
@@ -38416,7 +38416,7 @@
       <c r="K59" s="1">
         <v>-296.97653181690799</v>
       </c>
-      <c r="O59" s="112"/>
+      <c r="O59" s="113"/>
       <c r="P59" s="38" t="s">
         <v>132</v>
       </c>
@@ -38449,7 +38449,7 @@
         <v>-2078.835722718356</v>
       </c>
       <c r="X59" s="68"/>
-      <c r="AB59" s="101"/>
+      <c r="AB59" s="102"/>
       <c r="AC59" s="38" t="s">
         <v>131</v>
       </c>
@@ -38487,7 +38487,7 @@
       <c r="AX59" s="81"/>
     </row>
     <row r="60" spans="3:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="99"/>
+      <c r="C60" s="100"/>
       <c r="D60" t="s">
         <v>133</v>
       </c>
@@ -38512,7 +38512,7 @@
       <c r="K60" s="1">
         <v>-1288.90600029902</v>
       </c>
-      <c r="O60" s="112"/>
+      <c r="O60" s="113"/>
       <c r="P60" s="38" t="s">
         <v>133</v>
       </c>
@@ -38545,7 +38545,7 @@
         <v>-9022.3420020931408</v>
       </c>
       <c r="X60" s="68"/>
-      <c r="AB60" s="101"/>
+      <c r="AB60" s="102"/>
       <c r="AC60" s="38" t="s">
         <v>132</v>
       </c>
@@ -38583,7 +38583,7 @@
       <c r="AX60" s="81"/>
     </row>
     <row r="61" spans="3:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="99"/>
+      <c r="C61" s="100"/>
       <c r="D61" t="s">
         <v>134</v>
       </c>
@@ -38608,7 +38608,7 @@
       <c r="K61" s="1">
         <v>-3048.00201285716</v>
       </c>
-      <c r="O61" s="112"/>
+      <c r="O61" s="113"/>
       <c r="P61" s="38" t="s">
         <v>134</v>
       </c>
@@ -38641,7 +38641,7 @@
         <v>-21336.014090000121</v>
       </c>
       <c r="X61" s="68"/>
-      <c r="AB61" s="101"/>
+      <c r="AB61" s="102"/>
       <c r="AC61" s="38" t="s">
         <v>133</v>
       </c>
@@ -38687,7 +38687,7 @@
       <c r="V62" s="68"/>
       <c r="W62" s="68"/>
       <c r="X62" s="68"/>
-      <c r="AB62" s="101"/>
+      <c r="AB62" s="102"/>
       <c r="AC62" s="38" t="s">
         <v>134</v>
       </c>
@@ -38827,7 +38827,7 @@
       </c>
     </row>
     <row r="67" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C67" s="99" t="s">
+      <c r="C67" s="100" t="s">
         <v>145</v>
       </c>
       <c r="D67" t="s">
@@ -38857,7 +38857,7 @@
       <c r="L67" s="60">
         <v>7405.8821284825699</v>
       </c>
-      <c r="O67" s="112" t="s">
+      <c r="O67" s="113" t="s">
         <v>145</v>
       </c>
       <c r="P67" s="38" t="s">
@@ -38897,7 +38897,7 @@
       </c>
     </row>
     <row r="68" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C68" s="99"/>
+      <c r="C68" s="100"/>
       <c r="D68" t="s">
         <v>131</v>
       </c>
@@ -38925,7 +38925,7 @@
       <c r="L68" s="60">
         <v>7473.0951674444696</v>
       </c>
-      <c r="O68" s="112"/>
+      <c r="O68" s="113"/>
       <c r="P68" s="38" t="s">
         <v>131</v>
       </c>
@@ -38963,7 +38963,7 @@
       </c>
     </row>
     <row r="69" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C69" s="99"/>
+      <c r="C69" s="100"/>
       <c r="D69" t="s">
         <v>132</v>
       </c>
@@ -38991,7 +38991,7 @@
       <c r="L69" s="60">
         <v>7265.2405615042799</v>
       </c>
-      <c r="O69" s="112"/>
+      <c r="O69" s="113"/>
       <c r="P69" s="38" t="s">
         <v>132</v>
       </c>
@@ -39029,7 +39029,7 @@
       </c>
     </row>
     <row r="70" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C70" s="99"/>
+      <c r="C70" s="100"/>
       <c r="D70" t="s">
         <v>133</v>
       </c>
@@ -39057,7 +39057,7 @@
       <c r="L70" s="60">
         <v>6793.0017079909903</v>
       </c>
-      <c r="O70" s="112"/>
+      <c r="O70" s="113"/>
       <c r="P70" s="38" t="s">
         <v>133</v>
       </c>
@@ -39095,7 +39095,7 @@
       </c>
     </row>
     <row r="71" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C71" s="99"/>
+      <c r="C71" s="100"/>
       <c r="D71" t="s">
         <v>134</v>
       </c>
@@ -39123,7 +39123,7 @@
       <c r="L71" s="60">
         <v>5860.9990245116096</v>
       </c>
-      <c r="O71" s="112"/>
+      <c r="O71" s="113"/>
       <c r="P71" s="38" t="s">
         <v>134</v>
       </c>
@@ -39161,7 +39161,7 @@
       </c>
     </row>
     <row r="72" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C72" s="99" t="s">
+      <c r="C72" s="100" t="s">
         <v>146</v>
       </c>
       <c r="D72" t="s">
@@ -39191,7 +39191,7 @@
       <c r="L72" s="60">
         <v>1070.2498061814699</v>
       </c>
-      <c r="O72" s="112" t="s">
+      <c r="O72" s="113" t="s">
         <v>146</v>
       </c>
       <c r="P72" s="38" t="s">
@@ -39231,7 +39231,7 @@
       </c>
     </row>
     <row r="73" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C73" s="99"/>
+      <c r="C73" s="100"/>
       <c r="D73" t="s">
         <v>131</v>
       </c>
@@ -39259,7 +39259,7 @@
       <c r="L73" s="60">
         <v>1090.0503757511799</v>
       </c>
-      <c r="O73" s="112"/>
+      <c r="O73" s="113"/>
       <c r="P73" s="38" t="s">
         <v>131</v>
       </c>
@@ -39297,7 +39297,7 @@
       </c>
     </row>
     <row r="74" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C74" s="99"/>
+      <c r="C74" s="100"/>
       <c r="D74" t="s">
         <v>132</v>
       </c>
@@ -39325,7 +39325,7 @@
       <c r="L74" s="60">
         <v>629.96930792399496</v>
       </c>
-      <c r="O74" s="112"/>
+      <c r="O74" s="113"/>
       <c r="P74" s="38" t="s">
         <v>132</v>
       </c>
@@ -39363,7 +39363,7 @@
       </c>
     </row>
     <row r="75" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C75" s="99"/>
+      <c r="C75" s="100"/>
       <c r="D75" t="s">
         <v>133</v>
       </c>
@@ -39391,7 +39391,7 @@
       <c r="L75" s="60">
         <v>-251.14675640349699</v>
       </c>
-      <c r="O75" s="112"/>
+      <c r="O75" s="113"/>
       <c r="P75" s="38" t="s">
         <v>133</v>
       </c>
@@ -39429,7 +39429,7 @@
       </c>
     </row>
     <row r="76" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C76" s="99"/>
+      <c r="C76" s="100"/>
       <c r="D76" t="s">
         <v>134</v>
       </c>
@@ -39457,7 +39457,7 @@
       <c r="L76" s="60">
         <v>-1785.7213742455399</v>
       </c>
-      <c r="O76" s="112"/>
+      <c r="O76" s="113"/>
       <c r="P76" s="38" t="s">
         <v>134</v>
       </c>
@@ -39531,6 +39531,7 @@
     <mergeCell ref="O26:O30"/>
     <mergeCell ref="O37:O41"/>
     <mergeCell ref="AB3:AK3"/>
+    <mergeCell ref="AB29:AB33"/>
     <mergeCell ref="O52:O56"/>
     <mergeCell ref="O57:O61"/>
     <mergeCell ref="O67:O71"/>
@@ -39539,7 +39540,6 @@
     <mergeCell ref="C57:C61"/>
     <mergeCell ref="C67:C71"/>
     <mergeCell ref="C72:C76"/>
-    <mergeCell ref="AB29:AB33"/>
     <mergeCell ref="AB34:AB38"/>
     <mergeCell ref="AB16:AC16"/>
     <mergeCell ref="AB28:AC28"/>
@@ -39568,8 +39568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC5F411-529A-4125-AFD5-DBCE1072DFAA}">
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q42" sqref="C29:Q42"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42338,7 +42338,7 @@
         <f>M7</f>
         <v>49000000</v>
       </c>
-      <c r="P7" s="114">
+      <c r="P7" s="97">
         <f>G7/N7</f>
         <v>1.0322756198432097</v>
       </c>
@@ -42382,7 +42382,7 @@
         <f t="shared" ref="O8:O71" si="0">M8</f>
         <v>21000000</v>
       </c>
-      <c r="P8" s="114">
+      <c r="P8" s="97">
         <f t="shared" ref="P8:P71" si="1">G8/N8</f>
         <v>0.9890540132934752</v>
       </c>
@@ -42426,7 +42426,7 @@
         <f t="shared" si="0"/>
         <v>21000000</v>
       </c>
-      <c r="P9" s="114">
+      <c r="P9" s="97">
         <f t="shared" si="1"/>
         <v>0.9890540132934752</v>
       </c>
@@ -42470,7 +42470,7 @@
         <f t="shared" si="0"/>
         <v>19000000</v>
       </c>
-      <c r="P10" s="114">
+      <c r="P10" s="97">
         <f t="shared" si="1"/>
         <v>0.98836846690360314</v>
       </c>
@@ -42511,7 +42511,7 @@
         <f t="shared" si="0"/>
         <v>19000000</v>
       </c>
-      <c r="P11" s="114">
+      <c r="P11" s="97">
         <f t="shared" si="1"/>
         <v>0.98896380982112364</v>
       </c>
@@ -42558,7 +42558,7 @@
         <f t="shared" si="0"/>
         <v>16000000</v>
       </c>
-      <c r="P12" s="114">
+      <c r="P12" s="97">
         <f t="shared" si="1"/>
         <v>0.89738277714591064</v>
       </c>
@@ -42602,7 +42602,7 @@
         <f t="shared" si="0"/>
         <v>16000000</v>
       </c>
-      <c r="P13" s="114">
+      <c r="P13" s="97">
         <f t="shared" si="1"/>
         <v>1.0356271865563027</v>
       </c>
@@ -42646,7 +42646,7 @@
         <f t="shared" si="0"/>
         <v>14000000</v>
       </c>
-      <c r="P14" s="114">
+      <c r="P14" s="97">
         <f t="shared" si="1"/>
         <v>1.5069207912538112</v>
       </c>
@@ -42690,7 +42690,7 @@
         <f t="shared" si="0"/>
         <v>13500000</v>
       </c>
-      <c r="P15" s="114">
+      <c r="P15" s="97">
         <f t="shared" si="1"/>
         <v>0.91586341695779727</v>
       </c>
@@ -42737,7 +42737,7 @@
         <f t="shared" si="0"/>
         <v>13000000</v>
       </c>
-      <c r="P16" s="114">
+      <c r="P16" s="97">
         <f t="shared" si="1"/>
         <v>1.0452493701064796</v>
       </c>
@@ -42778,7 +42778,7 @@
         <f t="shared" si="0"/>
         <v>12000000</v>
       </c>
-      <c r="P17" s="114">
+      <c r="P17" s="97">
         <f t="shared" si="1"/>
         <v>0.98896380982112364</v>
       </c>
@@ -42825,7 +42825,7 @@
         <f t="shared" si="0"/>
         <v>12000000</v>
       </c>
-      <c r="P18" s="114">
+      <c r="P18" s="97">
         <f t="shared" si="1"/>
         <v>0.95890045166015625</v>
       </c>
@@ -42869,7 +42869,7 @@
         <f t="shared" si="0"/>
         <v>11900000</v>
       </c>
-      <c r="P19" s="114">
+      <c r="P19" s="97">
         <f t="shared" si="1"/>
         <v>1.4252479137073863</v>
       </c>
@@ -42916,7 +42916,7 @@
         <f t="shared" si="0"/>
         <v>11500000</v>
       </c>
-      <c r="P20" s="114">
+      <c r="P20" s="97">
         <f t="shared" si="1"/>
         <v>1.395092655495169</v>
       </c>
@@ -42963,7 +42963,7 @@
         <f t="shared" si="0"/>
         <v>11500000</v>
       </c>
-      <c r="P21" s="114">
+      <c r="P21" s="97">
         <f t="shared" si="1"/>
         <v>1.3930830790067796</v>
       </c>
@@ -43007,7 +43007,7 @@
         <f t="shared" si="0"/>
         <v>11000000</v>
       </c>
-      <c r="P22" s="114">
+      <c r="P22" s="97">
         <f t="shared" si="1"/>
         <v>0.86429140983371566</v>
       </c>
@@ -43051,7 +43051,7 @@
         <f t="shared" si="0"/>
         <v>9500000</v>
       </c>
-      <c r="P23" s="114">
+      <c r="P23" s="97">
         <f t="shared" si="1"/>
         <v>0.89009602864583337</v>
       </c>
@@ -43095,7 +43095,7 @@
         <f t="shared" si="0"/>
         <v>9000000</v>
       </c>
-      <c r="P24" s="114">
+      <c r="P24" s="97">
         <f t="shared" si="1"/>
         <v>1.4752206802368162</v>
       </c>
@@ -43139,7 +43139,7 @@
         <f t="shared" si="0"/>
         <v>8700000</v>
       </c>
-      <c r="P25" s="114">
+      <c r="P25" s="97">
         <f t="shared" si="1"/>
         <v>1.0370569591909848</v>
       </c>
@@ -43183,7 +43183,7 @@
         <f t="shared" si="0"/>
         <v>8500000</v>
       </c>
-      <c r="P26" s="114">
+      <c r="P26" s="97">
         <f t="shared" si="1"/>
         <v>1.0475032263711568</v>
       </c>
@@ -43224,7 +43224,7 @@
         <f t="shared" si="0"/>
         <v>8500000</v>
       </c>
-      <c r="P27" s="114">
+      <c r="P27" s="97">
         <f t="shared" si="1"/>
         <v>0.90609173386974562</v>
       </c>
@@ -43268,7 +43268,7 @@
         <f t="shared" si="0"/>
         <v>8500000</v>
       </c>
-      <c r="P28" s="114">
+      <c r="P28" s="97">
         <f t="shared" si="1"/>
         <v>0.66387960143008473</v>
       </c>
@@ -43315,7 +43315,7 @@
         <f t="shared" si="0"/>
         <v>8000000</v>
       </c>
-      <c r="P29" s="114">
+      <c r="P29" s="97">
         <f t="shared" si="1"/>
         <v>1.0212053676734225</v>
       </c>
@@ -43362,7 +43362,7 @@
         <f t="shared" si="0"/>
         <v>8000000</v>
       </c>
-      <c r="P30" s="114">
+      <c r="P30" s="97">
         <f t="shared" si="1"/>
         <v>0.84547254774305569</v>
       </c>
@@ -43409,7 +43409,7 @@
         <f t="shared" si="0"/>
         <v>8000000</v>
       </c>
-      <c r="P31" s="114">
+      <c r="P31" s="97">
         <f t="shared" si="1"/>
         <v>0.90547688802083337</v>
       </c>
@@ -43456,7 +43456,7 @@
         <f t="shared" si="0"/>
         <v>8000000</v>
       </c>
-      <c r="P32" s="114">
+      <c r="P32" s="97">
         <f t="shared" si="1"/>
         <v>1.4650357936715481</v>
       </c>
@@ -43503,7 +43503,7 @@
         <f t="shared" si="0"/>
         <v>7500000</v>
       </c>
-      <c r="P33" s="114">
+      <c r="P33" s="97">
         <f t="shared" si="1"/>
         <v>0.93752261114723578</v>
       </c>
@@ -43550,7 +43550,7 @@
         <f t="shared" si="0"/>
         <v>7500000</v>
       </c>
-      <c r="P34" s="114">
+      <c r="P34" s="97">
         <f t="shared" si="1"/>
         <v>1.3910449218750001</v>
       </c>
@@ -43597,7 +43597,7 @@
         <f t="shared" si="0"/>
         <v>7000000</v>
       </c>
-      <c r="P35" s="114">
+      <c r="P35" s="97">
         <f t="shared" si="1"/>
         <v>1.2668821237383097</v>
       </c>
@@ -43641,7 +43641,7 @@
         <f t="shared" si="0"/>
         <v>6000000</v>
       </c>
-      <c r="P36" s="114">
+      <c r="P36" s="97">
         <f t="shared" si="1"/>
         <v>1.1289458804660373</v>
       </c>
@@ -43685,7 +43685,7 @@
         <f t="shared" si="0"/>
         <v>6000000</v>
       </c>
-      <c r="P37" s="114">
+      <c r="P37" s="97">
         <f t="shared" si="1"/>
         <v>1.0271168718434343</v>
       </c>
@@ -43732,7 +43732,7 @@
         <f t="shared" si="0"/>
         <v>5900000</v>
       </c>
-      <c r="P38" s="114">
+      <c r="P38" s="97">
         <f t="shared" si="1"/>
         <v>0.96684695512820507</v>
       </c>
@@ -43779,7 +43779,7 @@
         <f t="shared" si="0"/>
         <v>5200000</v>
       </c>
-      <c r="P39" s="114">
+      <c r="P39" s="97">
         <f t="shared" si="1"/>
         <v>0.93117738381410253</v>
       </c>
@@ -43823,7 +43823,7 @@
         <f t="shared" si="0"/>
         <v>4500000</v>
       </c>
-      <c r="P40" s="114">
+      <c r="P40" s="97">
         <f t="shared" si="1"/>
         <v>1.5045235420150502</v>
       </c>
@@ -43870,7 +43870,7 @@
         <f t="shared" si="0"/>
         <v>4500000</v>
       </c>
-      <c r="P41" s="114">
+      <c r="P41" s="97">
         <f t="shared" si="1"/>
         <v>1.1779954855479611</v>
       </c>
@@ -43914,7 +43914,7 @@
         <f t="shared" si="0"/>
         <v>4000000</v>
       </c>
-      <c r="P42" s="114">
+      <c r="P42" s="97">
         <f t="shared" si="1"/>
         <v>0.90135211709104945</v>
       </c>
@@ -43961,7 +43961,7 @@
         <f t="shared" si="0"/>
         <v>4000000</v>
       </c>
-      <c r="P43" s="114">
+      <c r="P43" s="97">
         <f t="shared" si="1"/>
         <v>1.0816225405092592</v>
       </c>
@@ -44002,7 +44002,7 @@
         <f t="shared" si="0"/>
         <v>3800000</v>
       </c>
-      <c r="P44" s="114">
+      <c r="P44" s="97">
         <f t="shared" si="1"/>
         <v>1.0840106266801077</v>
       </c>
@@ -44046,7 +44046,7 @@
         <f t="shared" si="0"/>
         <v>3650000</v>
       </c>
-      <c r="P45" s="114">
+      <c r="P45" s="97">
         <f t="shared" si="1"/>
         <v>1.0369929956111599</v>
       </c>
@@ -44090,7 +44090,7 @@
         <f t="shared" si="0"/>
         <v>3500000</v>
       </c>
-      <c r="P46" s="114">
+      <c r="P46" s="97">
         <f t="shared" si="1"/>
         <v>1.3413081428901201</v>
       </c>
@@ -44134,7 +44134,7 @@
         <f t="shared" si="0"/>
         <v>3000000</v>
       </c>
-      <c r="P47" s="114">
+      <c r="P47" s="97">
         <f t="shared" si="1"/>
         <v>1.2450186502107075</v>
       </c>
@@ -44175,7 +44175,7 @@
         <f t="shared" si="0"/>
         <v>2800000</v>
       </c>
-      <c r="P48" s="114">
+      <c r="P48" s="97">
         <f t="shared" si="1"/>
         <v>0.89103259070444918</v>
       </c>
@@ -44222,7 +44222,7 @@
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="P49" s="114">
+      <c r="P49" s="97">
         <f t="shared" si="1"/>
         <v>0.99371744791666683</v>
       </c>
@@ -44266,7 +44266,7 @@
         <f t="shared" si="0"/>
         <v>1900000</v>
       </c>
-      <c r="P50" s="114">
+      <c r="P50" s="97">
         <f t="shared" si="1"/>
         <v>0.74050235427188549</v>
       </c>
@@ -44307,7 +44307,7 @@
         <f t="shared" si="0"/>
         <v>1837500</v>
       </c>
-      <c r="P51" s="114">
+      <c r="P51" s="97">
         <f t="shared" si="1"/>
         <v>1.2993028428819444</v>
       </c>
@@ -44351,7 +44351,7 @@
         <f t="shared" si="0"/>
         <v>1800000</v>
       </c>
-      <c r="P52" s="114">
+      <c r="P52" s="97">
         <f t="shared" si="1"/>
         <v>0.98755385159465026</v>
       </c>
@@ -44395,7 +44395,7 @@
         <f t="shared" si="0"/>
         <v>1700000</v>
       </c>
-      <c r="P53" s="114">
+      <c r="P53" s="97">
         <f t="shared" si="1"/>
         <v>1.1143514554794522</v>
       </c>
@@ -44433,7 +44433,7 @@
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="P54" s="114">
+      <c r="P54" s="97">
         <f t="shared" si="1"/>
         <v>0.86620189525462965</v>
       </c>
@@ -44477,7 +44477,7 @@
         <f t="shared" si="0"/>
         <v>1100000</v>
       </c>
-      <c r="P55" s="114">
+      <c r="P55" s="97">
         <f t="shared" si="1"/>
         <v>1.2116066261574077</v>
       </c>
@@ -44518,7 +44518,7 @@
         <f t="shared" si="0"/>
         <v>1050000</v>
       </c>
-      <c r="P56" s="114">
+      <c r="P56" s="97">
         <f t="shared" si="1"/>
         <v>0.82018475199854657</v>
       </c>
@@ -44562,7 +44562,7 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="P57" s="114">
+      <c r="P57" s="97">
         <f t="shared" si="1"/>
         <v>0.98930220170454553</v>
       </c>
@@ -44606,7 +44606,7 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="P58" s="114">
+      <c r="P58" s="97">
         <f t="shared" si="1"/>
         <v>1.0414965080492424</v>
       </c>
@@ -44650,7 +44650,7 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="P59" s="114">
+      <c r="P59" s="97">
         <f t="shared" si="1"/>
         <v>0.78218900240384603</v>
       </c>
@@ -44694,7 +44694,7 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="P60" s="114">
+      <c r="P60" s="97">
         <f t="shared" si="1"/>
         <v>0.87827813827967438</v>
       </c>
@@ -44741,7 +44741,7 @@
         <f t="shared" si="0"/>
         <v>875000</v>
       </c>
-      <c r="P61" s="114">
+      <c r="P61" s="97">
         <f t="shared" si="1"/>
         <v>0.97661884014423073</v>
       </c>
@@ -44785,7 +44785,7 @@
         <f t="shared" si="0"/>
         <v>871000</v>
       </c>
-      <c r="P62" s="114">
+      <c r="P62" s="97">
         <f t="shared" si="1"/>
         <v>1.8268007220643938</v>
       </c>
@@ -44826,7 +44826,7 @@
         <f t="shared" si="0"/>
         <v>860000</v>
       </c>
-      <c r="P63" s="114">
+      <c r="P63" s="97">
         <f t="shared" si="1"/>
         <v>1.0376488956404322</v>
       </c>
@@ -44873,7 +44873,7 @@
         <f t="shared" si="0"/>
         <v>850000</v>
       </c>
-      <c r="P64" s="114">
+      <c r="P64" s="97">
         <f t="shared" si="1"/>
         <v>0.92000325520833326</v>
       </c>
@@ -44917,7 +44917,7 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="P65" s="114">
+      <c r="P65" s="97">
         <f t="shared" si="1"/>
         <v>1.120171904677113</v>
       </c>
@@ -44961,7 +44961,7 @@
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
-      <c r="P66" s="114">
+      <c r="P66" s="97">
         <f t="shared" si="1"/>
         <v>0.9168515779092703</v>
       </c>
@@ -45005,7 +45005,7 @@
         <f t="shared" si="0"/>
         <v>680000</v>
       </c>
-      <c r="P67" s="114">
+      <c r="P67" s="97">
         <f t="shared" si="1"/>
         <v>0.80702039930555558</v>
       </c>
@@ -45049,7 +45049,7 @@
         <f t="shared" si="0"/>
         <v>560000</v>
       </c>
-      <c r="P68" s="114">
+      <c r="P68" s="97">
         <f t="shared" si="1"/>
         <v>1.2105305989583333</v>
       </c>
@@ -45090,7 +45090,7 @@
         <f t="shared" si="0"/>
         <v>560000</v>
       </c>
-      <c r="P69" s="114">
+      <c r="P69" s="97">
         <f t="shared" si="1"/>
         <v>0.75443390877016125</v>
       </c>
@@ -45131,7 +45131,7 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="P70" s="114">
+      <c r="P70" s="97">
         <f t="shared" si="1"/>
         <v>0.87616032005375266</v>
       </c>
@@ -45175,7 +45175,7 @@
         <f t="shared" si="0"/>
         <v>460000</v>
       </c>
-      <c r="P71" s="114">
+      <c r="P71" s="97">
         <f t="shared" si="1"/>
         <v>0.73085784912109386</v>
       </c>
@@ -45219,7 +45219,7 @@
         <f t="shared" ref="O72:O75" si="2">M72</f>
         <v>450000</v>
       </c>
-      <c r="P72" s="114">
+      <c r="P72" s="97">
         <f t="shared" ref="P72:P75" si="3">G72/N72</f>
         <v>1.3967018565912357</v>
       </c>
@@ -45263,7 +45263,7 @@
         <f t="shared" si="2"/>
         <v>365000</v>
       </c>
-      <c r="P73" s="114">
+      <c r="P73" s="97">
         <f t="shared" si="3"/>
         <v>0.81052918365036219</v>
       </c>
@@ -45307,7 +45307,7 @@
         <f t="shared" si="2"/>
         <v>350000</v>
       </c>
-      <c r="P74" s="114">
+      <c r="P74" s="97">
         <f t="shared" si="3"/>
         <v>0.80743782365002403</v>
       </c>
@@ -45351,7 +45351,7 @@
         <f t="shared" si="2"/>
         <v>350000</v>
       </c>
-      <c r="P75" s="114">
+      <c r="P75" s="97">
         <f t="shared" si="3"/>
         <v>0.89331778067129641</v>
       </c>
@@ -47069,7 +47069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA2C042-8FDE-4CB5-8CD4-C64F7A870012}">
   <dimension ref="B6:X77"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -47502,10 +47502,10 @@
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="100"/>
+      <c r="C26" s="101"/>
     </row>
     <row r="27" spans="2:19" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -48834,7 +48834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523309CF-B949-4E60-8CA7-53B5D5E7CBD8}">
   <dimension ref="B3:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -49134,8 +49134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF5B010-FE49-43A6-94AC-7C86BD67F247}">
   <dimension ref="B8:S43"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="H4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49731,8 +49731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BB5EFC-2026-42A8-877D-BEDF45AF425E}">
   <dimension ref="A6:I30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H12"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49930,6 +49930,17 @@
         <v>94888.508979482707</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="55">
+        <v>284800</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f>F7*(-0.0656*LOG10(F7)+0.8267)</f>
+        <v>61254.827951899868</v>
+      </c>
+    </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>65</v>
@@ -49946,6 +49957,10 @@
       <c r="F18">
         <v>88.669171526401797</v>
       </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H23" si="0">F8*(-0.0656*LOG10(F8)+0.8267)</f>
+        <v>63030.248273238212</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
@@ -49963,6 +49978,10 @@
       <c r="F19">
         <v>0.24794473157007901</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>65851.587494534208</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
@@ -49980,6 +49999,10 @@
       <c r="F20">
         <v>9.2574164633504008</v>
       </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>69777.061128569723</v>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
@@ -49997,6 +50020,10 @@
       <c r="F21">
         <v>14.427435952830599</v>
       </c>
+      <c r="H21">
+        <f>F11*(-0.0656*LOG10(F11)+0.8267)</f>
+        <v>76874.569430361997</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
@@ -50013,6 +50040,24 @@
       </c>
       <c r="F22">
         <v>42091.5107243124</v>
+      </c>
+      <c r="H22">
+        <f>F12*(-0.0656*LOG10(F12)+0.8267)</f>
+        <v>118148.78385777857</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f>101300-88300</f>
+        <v>13000</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>133537.64400570048</v>
+      </c>
+      <c r="I23">
+        <f>G23/H23</f>
+        <v>9.735082640401424E-2</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
